--- a/database/industries/ghaza/ghekurosh/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghekurosh/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghekurosh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017D7F2-2533-4D4C-B954-ED769A1B0F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FF849-44CB-4CB2-8DEC-868F98AE86CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1510,8 +1510,8 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>0</v>
       </c>
       <c r="X11" s="11">
         <v>0</v>
@@ -1549,8 +1549,8 @@
       <c r="AI11" s="11">
         <v>0</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>0</v>
+      <c r="AJ11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK11" s="11" t="s">
         <v>58</v>
@@ -1573,20 +1573,20 @@
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11">
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
         <v>0</v>
       </c>
-      <c r="AT11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>58</v>
+      <c r="AT11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>0</v>
       </c>
       <c r="AW11" s="11">
         <v>0</v>
@@ -1705,20 +1705,20 @@
       <c r="AH12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>0</v>
+      <c r="AL12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN12" s="13" t="s">
         <v>58</v>
@@ -1732,20 +1732,20 @@
       <c r="AQ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
+      <c r="AR12" s="13">
+        <v>0</v>
       </c>
       <c r="AS12" s="13">
         <v>0</v>
       </c>
-      <c r="AT12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV12" s="13" t="s">
-        <v>58</v>
+      <c r="AT12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>0</v>
       </c>
       <c r="AW12" s="13">
         <v>0</v>
@@ -1828,101 +1828,101 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>17382</v>
       </c>
       <c r="X13" s="11">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="Y13" s="11">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Z13" s="11">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="AA13" s="11">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AB13" s="11">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AC13" s="11">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AD13" s="11">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AE13" s="11">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AF13" s="11">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AG13" s="11">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AH13" s="11">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AI13" s="11">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AJ13" s="11">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AK13" s="11">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AL13" s="11">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AM13" s="11">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AN13" s="11">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AO13" s="11">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AP13" s="11">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AQ13" s="11">
-        <v>25616</v>
+        <v>25461</v>
       </c>
       <c r="AR13" s="11">
-        <v>25461</v>
+        <v>11085</v>
       </c>
       <c r="AS13" s="11">
-        <v>11085</v>
+        <v>18055</v>
       </c>
       <c r="AT13" s="11">
-        <v>19739</v>
+        <v>33826</v>
       </c>
       <c r="AU13" s="11">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AV13" s="11">
-        <v>12712</v>
+        <v>19580</v>
       </c>
       <c r="AW13" s="11">
-        <v>19580</v>
+        <v>30927</v>
       </c>
       <c r="AX13" s="11">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AY13" s="11">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AZ13" s="11">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="BA13" s="11">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BB13" s="11">
-        <v>15195</v>
+        <v>22661</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2023,20 +2023,20 @@
       <c r="AH14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>0</v>
+      <c r="AI14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>0</v>
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN14" s="13" t="s">
         <v>58</v>
@@ -2050,20 +2050,20 @@
       <c r="AQ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
+      <c r="AR14" s="13">
+        <v>0</v>
       </c>
       <c r="AS14" s="13">
         <v>0</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>0</v>
       </c>
       <c r="AW14" s="13">
         <v>0</v>
@@ -2182,20 +2182,20 @@
       <c r="AH15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>0</v>
+      <c r="AI15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>0</v>
+      <c r="AL15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN15" s="11" t="s">
         <v>58</v>
@@ -2209,20 +2209,20 @@
       <c r="AQ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
+      <c r="AR15" s="11">
+        <v>0</v>
       </c>
       <c r="AS15" s="11">
         <v>0</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>58</v>
+      <c r="AT15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>0</v>
       </c>
       <c r="AW15" s="11">
         <v>0</v>
@@ -2311,8 +2311,8 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>0</v>
       </c>
       <c r="Z16" s="13">
         <v>0</v>
@@ -2341,8 +2341,8 @@
       <c r="AH16" s="13">
         <v>0</v>
       </c>
-      <c r="AI16" s="13">
-        <v>0</v>
+      <c r="AI16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ16" s="13" t="s">
         <v>58</v>
@@ -2500,11 +2500,11 @@
       <c r="AH17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
+      <c r="AI17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK17" s="11" t="s">
         <v>58</v>
@@ -2527,20 +2527,20 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
       </c>
       <c r="AS17" s="11">
         <v>0</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>58</v>
+      <c r="AT17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>0</v>
       </c>
       <c r="AW17" s="11">
         <v>0</v>
@@ -2659,11 +2659,11 @@
       <c r="AH18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>0</v>
+      <c r="AI18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK18" s="13" t="s">
         <v>58</v>
@@ -2686,20 +2686,20 @@
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13">
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
         <v>0</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV18" s="13" t="s">
-        <v>58</v>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>0</v>
       </c>
       <c r="AW18" s="13">
         <v>0</v>
@@ -2842,26 +2842,26 @@
       <c r="AP19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
+      <c r="AQ19" s="11">
+        <v>3007</v>
       </c>
       <c r="AR19" s="11">
-        <v>3007</v>
+        <v>399</v>
       </c>
       <c r="AS19" s="11">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV19" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>6</v>
       </c>
       <c r="AW19" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="11">
         <v>0</v>
@@ -2940,100 +2940,100 @@
         <v>0</v>
       </c>
       <c r="W20" s="15">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="X20" s="15">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="Y20" s="15">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Z20" s="15">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="AA20" s="15">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AB20" s="15">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AC20" s="15">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AD20" s="15">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AE20" s="15">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AF20" s="15">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AG20" s="15">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AH20" s="15">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AI20" s="15">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AJ20" s="15">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AK20" s="15">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AL20" s="15">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AM20" s="15">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AN20" s="15">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AO20" s="15">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AP20" s="15">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AQ20" s="15">
-        <v>25616</v>
+        <v>28468</v>
       </c>
       <c r="AR20" s="15">
-        <v>28468</v>
+        <v>11484</v>
       </c>
       <c r="AS20" s="15">
-        <v>11484</v>
+        <v>18056</v>
       </c>
       <c r="AT20" s="15">
-        <v>19740</v>
+        <v>33826</v>
       </c>
       <c r="AU20" s="15">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AV20" s="15">
-        <v>12712</v>
+        <v>19586</v>
       </c>
       <c r="AW20" s="15">
-        <v>19586</v>
+        <v>30927</v>
       </c>
       <c r="AX20" s="15">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AY20" s="15">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AZ20" s="15">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="BA20" s="15">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BB20" s="15">
-        <v>15195</v>
+        <v>22661</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3221,20 +3221,20 @@
       <c r="AR22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW22" s="11" t="s">
-        <v>58</v>
+      <c r="AS22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="11">
+        <v>198</v>
+      </c>
+      <c r="AW22" s="11">
+        <v>-198</v>
       </c>
       <c r="AX22" s="11">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AZ22" s="11">
-        <v>12430</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="11">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="AV23" s="15">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AW23" s="15">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="AX23" s="15">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="15">
-        <v>12430</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="15">
         <v>0</v>
@@ -3526,8 +3526,8 @@
       <c r="V25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="19" t="s">
-        <v>58</v>
+      <c r="W25" s="19">
+        <v>0</v>
       </c>
       <c r="X25" s="19">
         <v>0</v>
@@ -3684,100 +3684,100 @@
         <v>0</v>
       </c>
       <c r="W26" s="15">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="X26" s="15">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="Y26" s="15">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Z26" s="15">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="AA26" s="15">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AB26" s="15">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AC26" s="15">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AD26" s="15">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AE26" s="15">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AF26" s="15">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AG26" s="15">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AH26" s="15">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AI26" s="15">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AJ26" s="15">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AK26" s="15">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AL26" s="15">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AM26" s="15">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AN26" s="15">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AO26" s="15">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AP26" s="15">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AQ26" s="15">
-        <v>25616</v>
+        <v>28468</v>
       </c>
       <c r="AR26" s="15">
-        <v>28468</v>
+        <v>11484</v>
       </c>
       <c r="AS26" s="15">
-        <v>11484</v>
+        <v>18056</v>
       </c>
       <c r="AT26" s="15">
-        <v>19740</v>
+        <v>33826</v>
       </c>
       <c r="AU26" s="15">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AV26" s="15">
-        <v>12712</v>
+        <v>19784</v>
       </c>
       <c r="AW26" s="15">
-        <v>19586</v>
+        <v>30729</v>
       </c>
       <c r="AX26" s="15">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AY26" s="15">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AZ26" s="15">
-        <v>24860</v>
+        <v>21707</v>
       </c>
       <c r="BA26" s="15">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BB26" s="15">
-        <v>15195</v>
+        <v>22661</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4276,101 +4276,101 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>1570</v>
       </c>
       <c r="X33" s="11">
-        <v>1570</v>
+        <v>7282</v>
       </c>
       <c r="Y33" s="11">
-        <v>7282</v>
+        <v>8156</v>
       </c>
       <c r="Z33" s="11">
-        <v>8156</v>
+        <v>33190</v>
       </c>
       <c r="AA33" s="11">
-        <v>33190</v>
+        <v>12978</v>
       </c>
       <c r="AB33" s="11">
-        <v>12978</v>
+        <v>16953</v>
       </c>
       <c r="AC33" s="11">
-        <v>16953</v>
+        <v>21970</v>
       </c>
       <c r="AD33" s="11">
-        <v>21970</v>
+        <v>58484</v>
       </c>
       <c r="AE33" s="11">
-        <v>58484</v>
+        <v>49364</v>
       </c>
       <c r="AF33" s="11">
-        <v>49364</v>
+        <v>19574</v>
       </c>
       <c r="AG33" s="11">
-        <v>19574</v>
+        <v>78855</v>
       </c>
       <c r="AH33" s="11">
-        <v>78855</v>
+        <v>61446</v>
       </c>
       <c r="AI33" s="11">
-        <v>61446</v>
+        <v>3995</v>
       </c>
       <c r="AJ33" s="11">
-        <v>3995</v>
+        <v>11505</v>
       </c>
       <c r="AK33" s="11">
-        <v>11505</v>
+        <v>9410</v>
       </c>
       <c r="AL33" s="11">
-        <v>9410</v>
+        <v>3118</v>
       </c>
       <c r="AM33" s="11">
-        <v>3118</v>
+        <v>5802</v>
       </c>
       <c r="AN33" s="11">
-        <v>5802</v>
+        <v>67448</v>
       </c>
       <c r="AO33" s="11">
-        <v>67448</v>
+        <v>27584</v>
       </c>
       <c r="AP33" s="11">
-        <v>27584</v>
+        <v>16784</v>
       </c>
       <c r="AQ33" s="11">
-        <v>16784</v>
+        <v>5582</v>
       </c>
       <c r="AR33" s="11">
-        <v>5582</v>
+        <v>7237</v>
       </c>
       <c r="AS33" s="11">
-        <v>7237</v>
+        <v>341</v>
       </c>
       <c r="AT33" s="11">
-        <v>2338</v>
+        <v>4708</v>
       </c>
       <c r="AU33" s="11">
-        <v>4708</v>
+        <v>1825</v>
       </c>
       <c r="AV33" s="11">
-        <v>1825</v>
+        <v>6478</v>
       </c>
       <c r="AW33" s="11">
-        <v>6478</v>
+        <v>2416</v>
       </c>
       <c r="AX33" s="11">
-        <v>2416</v>
+        <v>2387</v>
       </c>
       <c r="AY33" s="11">
-        <v>2387</v>
+        <v>4538</v>
       </c>
       <c r="AZ33" s="11">
-        <v>4538</v>
+        <v>1473</v>
       </c>
       <c r="BA33" s="11">
-        <v>1473</v>
+        <v>345</v>
       </c>
       <c r="BB33" s="11">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4471,44 +4471,44 @@
       <c r="AH34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI34" s="13" t="s">
-        <v>58</v>
+      <c r="AI34" s="13">
+        <v>6970</v>
       </c>
       <c r="AJ34" s="13">
-        <v>6970</v>
+        <v>4274</v>
       </c>
       <c r="AK34" s="13">
-        <v>4274</v>
+        <v>1350</v>
       </c>
       <c r="AL34" s="13">
-        <v>1350</v>
+        <v>23738</v>
       </c>
       <c r="AM34" s="13">
-        <v>23738</v>
+        <v>1951</v>
       </c>
       <c r="AN34" s="13">
-        <v>1951</v>
+        <v>2589</v>
       </c>
       <c r="AO34" s="13">
-        <v>2589</v>
-      </c>
-      <c r="AP34" s="13">
         <v>543</v>
       </c>
-      <c r="AQ34" s="13" t="s">
-        <v>58</v>
+      <c r="AP34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ34" s="13">
+        <v>76</v>
       </c>
       <c r="AR34" s="13">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="13">
-        <v>0</v>
+        <v>-2024</v>
       </c>
       <c r="AT34" s="13">
         <v>0</v>
       </c>
-      <c r="AU34" s="13" t="s">
-        <v>58</v>
+      <c r="AU34" s="13">
+        <v>0</v>
       </c>
       <c r="AV34" s="13">
         <v>0</v>
@@ -4594,101 +4594,101 @@
       <c r="V35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="11" t="s">
-        <v>58</v>
+      <c r="W35" s="11">
+        <v>18574</v>
       </c>
       <c r="X35" s="11">
-        <v>18574</v>
+        <v>21550</v>
       </c>
       <c r="Y35" s="11">
-        <v>21550</v>
+        <v>19001</v>
       </c>
       <c r="Z35" s="11">
-        <v>19001</v>
+        <v>26133</v>
       </c>
       <c r="AA35" s="11">
-        <v>26133</v>
+        <v>26600</v>
       </c>
       <c r="AB35" s="11">
-        <v>26600</v>
+        <v>20831</v>
       </c>
       <c r="AC35" s="11">
-        <v>20831</v>
+        <v>23243</v>
       </c>
       <c r="AD35" s="11">
-        <v>23243</v>
+        <v>22308</v>
       </c>
       <c r="AE35" s="11">
-        <v>22308</v>
+        <v>26124</v>
       </c>
       <c r="AF35" s="11">
-        <v>26124</v>
+        <v>25599</v>
       </c>
       <c r="AG35" s="11">
-        <v>25599</v>
+        <v>29845</v>
       </c>
       <c r="AH35" s="11">
-        <v>29845</v>
+        <v>28703</v>
       </c>
       <c r="AI35" s="11">
-        <v>28703</v>
+        <v>23664</v>
       </c>
       <c r="AJ35" s="11">
-        <v>23664</v>
+        <v>30075</v>
       </c>
       <c r="AK35" s="11">
-        <v>30075</v>
+        <v>31006</v>
       </c>
       <c r="AL35" s="11">
-        <v>31006</v>
+        <v>29302</v>
       </c>
       <c r="AM35" s="11">
-        <v>29302</v>
+        <v>19214</v>
       </c>
       <c r="AN35" s="11">
-        <v>19214</v>
+        <v>21641</v>
       </c>
       <c r="AO35" s="11">
-        <v>21641</v>
+        <v>21178</v>
       </c>
       <c r="AP35" s="11">
-        <v>21178</v>
+        <v>23981</v>
       </c>
       <c r="AQ35" s="11">
-        <v>23981</v>
+        <v>24784</v>
       </c>
       <c r="AR35" s="11">
-        <v>24784</v>
+        <v>12038</v>
       </c>
       <c r="AS35" s="11">
-        <v>12038</v>
+        <v>17800</v>
       </c>
       <c r="AT35" s="11">
-        <v>18373</v>
+        <v>32070</v>
       </c>
       <c r="AU35" s="11">
-        <v>32070</v>
+        <v>11613</v>
       </c>
       <c r="AV35" s="11">
-        <v>11613</v>
+        <v>19106</v>
       </c>
       <c r="AW35" s="11">
-        <v>19106</v>
+        <v>30053</v>
       </c>
       <c r="AX35" s="11">
-        <v>30053</v>
+        <v>30071</v>
       </c>
       <c r="AY35" s="11">
-        <v>30071</v>
+        <v>11463</v>
       </c>
       <c r="AZ35" s="11">
-        <v>11463</v>
+        <v>19984</v>
       </c>
       <c r="BA35" s="11">
-        <v>19984</v>
+        <v>14224</v>
       </c>
       <c r="BB35" s="11">
-        <v>14224</v>
+        <v>21350</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4789,44 +4789,44 @@
       <c r="AH36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI36" s="13" t="s">
-        <v>58</v>
+      <c r="AI36" s="13">
+        <v>38539</v>
       </c>
       <c r="AJ36" s="13">
-        <v>38539</v>
+        <v>1520</v>
       </c>
       <c r="AK36" s="13">
-        <v>1520</v>
+        <v>53</v>
       </c>
       <c r="AL36" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="13">
-        <v>0</v>
+        <v>50209</v>
       </c>
       <c r="AN36" s="13">
-        <v>50209</v>
+        <v>78984</v>
       </c>
       <c r="AO36" s="13">
-        <v>78984</v>
+        <v>20651</v>
       </c>
       <c r="AP36" s="13">
-        <v>20651</v>
+        <v>4540</v>
       </c>
       <c r="AQ36" s="13">
-        <v>4540</v>
+        <v>444</v>
       </c>
       <c r="AR36" s="13">
-        <v>444</v>
+        <v>85</v>
       </c>
       <c r="AS36" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="13">
         <v>0</v>
       </c>
-      <c r="AU36" s="13" t="s">
-        <v>58</v>
+      <c r="AU36" s="13">
+        <v>0</v>
       </c>
       <c r="AV36" s="13">
         <v>0</v>
@@ -4948,65 +4948,65 @@
       <c r="AH37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI37" s="11" t="s">
-        <v>58</v>
+      <c r="AI37" s="11">
+        <v>361</v>
       </c>
       <c r="AJ37" s="11">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="AK37" s="11">
-        <v>399</v>
+        <v>622</v>
       </c>
       <c r="AL37" s="11">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="AM37" s="11">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AN37" s="11">
-        <v>127</v>
+        <v>901</v>
       </c>
       <c r="AO37" s="11">
-        <v>901</v>
+        <v>613</v>
       </c>
       <c r="AP37" s="11">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="AQ37" s="11">
-        <v>707</v>
+        <v>249</v>
       </c>
       <c r="AR37" s="11">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="AS37" s="11">
-        <v>231</v>
+        <v>-1270</v>
       </c>
       <c r="AT37" s="11">
-        <v>927</v>
+        <v>543</v>
       </c>
       <c r="AU37" s="11">
-        <v>543</v>
+        <v>89</v>
       </c>
       <c r="AV37" s="11">
-        <v>89</v>
+        <v>495</v>
       </c>
       <c r="AW37" s="11">
-        <v>711</v>
+        <v>194</v>
       </c>
       <c r="AX37" s="11">
-        <v>194</v>
+        <v>577</v>
       </c>
       <c r="AY37" s="11">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="AZ37" s="11">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="BA37" s="11">
-        <v>654</v>
+        <v>800</v>
       </c>
       <c r="BB37" s="11">
-        <v>800</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5077,38 +5077,38 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>23788</v>
       </c>
       <c r="Z38" s="13">
-        <v>23788</v>
+        <v>64731</v>
       </c>
       <c r="AA38" s="13">
-        <v>64731</v>
+        <v>24974</v>
       </c>
       <c r="AB38" s="13">
-        <v>24974</v>
+        <v>54120</v>
       </c>
       <c r="AC38" s="13">
-        <v>54120</v>
+        <v>49967</v>
       </c>
       <c r="AD38" s="13">
-        <v>49967</v>
+        <v>84145</v>
       </c>
       <c r="AE38" s="13">
-        <v>84145</v>
+        <v>32655</v>
       </c>
       <c r="AF38" s="13">
-        <v>32655</v>
+        <v>57220</v>
       </c>
       <c r="AG38" s="13">
-        <v>57220</v>
+        <v>37181</v>
       </c>
       <c r="AH38" s="13">
-        <v>37181</v>
-      </c>
-      <c r="AI38" s="13">
         <v>101160</v>
+      </c>
+      <c r="AI38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ38" s="13" t="s">
         <v>58</v>
@@ -5266,32 +5266,32 @@
       <c r="AH39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI39" s="11" t="s">
-        <v>58</v>
+      <c r="AI39" s="11">
+        <v>0</v>
       </c>
       <c r="AJ39" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK39" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AL39" s="11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AM39" s="11">
-        <v>6</v>
-      </c>
-      <c r="AN39" s="11">
         <v>123</v>
       </c>
+      <c r="AN39" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO39" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AP39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ39" s="11" t="s">
-        <v>58</v>
+      <c r="AQ39" s="11">
+        <v>0</v>
       </c>
       <c r="AR39" s="11">
         <v>0</v>
@@ -5300,31 +5300,31 @@
         <v>0</v>
       </c>
       <c r="AT39" s="11">
-        <v>65</v>
-      </c>
-      <c r="AU39" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>0</v>
       </c>
       <c r="AV39" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW39" s="11">
         <v>1</v>
       </c>
       <c r="AX39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="11">
+        <v>706</v>
+      </c>
+      <c r="BA39" s="11">
         <v>1</v>
       </c>
-      <c r="AY39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="11">
-        <v>706</v>
-      </c>
       <c r="BB39" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5425,65 +5425,65 @@
       <c r="AH40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI40" s="13" t="s">
-        <v>58</v>
+      <c r="AI40" s="13">
+        <v>1853</v>
       </c>
       <c r="AJ40" s="13">
-        <v>1853</v>
+        <v>1749</v>
       </c>
       <c r="AK40" s="13">
-        <v>1749</v>
+        <v>1786</v>
       </c>
       <c r="AL40" s="13">
-        <v>1786</v>
+        <v>604</v>
       </c>
       <c r="AM40" s="13">
-        <v>604</v>
+        <v>1577</v>
       </c>
       <c r="AN40" s="13">
-        <v>1577</v>
+        <v>4075</v>
       </c>
       <c r="AO40" s="13">
-        <v>4075</v>
+        <v>656</v>
       </c>
       <c r="AP40" s="13">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="AQ40" s="13">
-        <v>693</v>
+        <v>1701</v>
       </c>
       <c r="AR40" s="13">
-        <v>1701</v>
+        <v>10</v>
       </c>
       <c r="AS40" s="13">
-        <v>10</v>
+        <v>765</v>
       </c>
       <c r="AT40" s="13">
-        <v>756</v>
+        <v>2332</v>
       </c>
       <c r="AU40" s="13">
-        <v>2332</v>
+        <v>513</v>
       </c>
       <c r="AV40" s="13">
-        <v>513</v>
+        <v>74</v>
       </c>
       <c r="AW40" s="13">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AX40" s="13">
-        <v>155</v>
+        <v>1114</v>
       </c>
       <c r="AY40" s="13">
-        <v>1114</v>
+        <v>3211</v>
       </c>
       <c r="AZ40" s="13">
-        <v>3211</v>
+        <v>1338</v>
       </c>
       <c r="BA40" s="13">
-        <v>1338</v>
+        <v>3623</v>
       </c>
       <c r="BB40" s="13">
-        <v>3623</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5608,26 +5608,26 @@
       <c r="AP41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ41" s="11" t="s">
-        <v>58</v>
+      <c r="AQ41" s="11">
+        <v>2974</v>
       </c>
       <c r="AR41" s="11">
-        <v>2974</v>
+        <v>465</v>
       </c>
       <c r="AS41" s="11">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="11">
         <v>0</v>
       </c>
-      <c r="AU41" s="11" t="s">
-        <v>58</v>
+      <c r="AU41" s="11">
+        <v>0</v>
       </c>
       <c r="AV41" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW41" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="11">
         <v>0</v>
@@ -5706,100 +5706,100 @@
         <v>0</v>
       </c>
       <c r="W42" s="15">
-        <v>0</v>
+        <v>20144</v>
       </c>
       <c r="X42" s="15">
-        <v>20144</v>
+        <v>28832</v>
       </c>
       <c r="Y42" s="15">
-        <v>28832</v>
+        <v>50945</v>
       </c>
       <c r="Z42" s="15">
-        <v>50945</v>
+        <v>124054</v>
       </c>
       <c r="AA42" s="15">
-        <v>124054</v>
+        <v>64552</v>
       </c>
       <c r="AB42" s="15">
-        <v>64552</v>
+        <v>91904</v>
       </c>
       <c r="AC42" s="15">
-        <v>91904</v>
+        <v>95180</v>
       </c>
       <c r="AD42" s="15">
-        <v>95180</v>
+        <v>164937</v>
       </c>
       <c r="AE42" s="15">
-        <v>164937</v>
+        <v>108143</v>
       </c>
       <c r="AF42" s="15">
-        <v>108143</v>
+        <v>102393</v>
       </c>
       <c r="AG42" s="15">
-        <v>102393</v>
+        <v>145881</v>
       </c>
       <c r="AH42" s="15">
-        <v>145881</v>
+        <v>191309</v>
       </c>
       <c r="AI42" s="15">
-        <v>191309</v>
+        <v>75382</v>
       </c>
       <c r="AJ42" s="15">
-        <v>75382</v>
+        <v>49537</v>
       </c>
       <c r="AK42" s="15">
-        <v>49537</v>
+        <v>44236</v>
       </c>
       <c r="AL42" s="15">
-        <v>44236</v>
+        <v>57252</v>
       </c>
       <c r="AM42" s="15">
-        <v>57252</v>
+        <v>79003</v>
       </c>
       <c r="AN42" s="15">
-        <v>79003</v>
+        <v>175638</v>
       </c>
       <c r="AO42" s="15">
-        <v>175638</v>
+        <v>71225</v>
       </c>
       <c r="AP42" s="15">
-        <v>71225</v>
+        <v>46705</v>
       </c>
       <c r="AQ42" s="15">
-        <v>46705</v>
+        <v>35810</v>
       </c>
       <c r="AR42" s="15">
-        <v>35810</v>
+        <v>20066</v>
       </c>
       <c r="AS42" s="15">
-        <v>20066</v>
+        <v>15612</v>
       </c>
       <c r="AT42" s="15">
-        <v>22459</v>
+        <v>39653</v>
       </c>
       <c r="AU42" s="15">
-        <v>39653</v>
+        <v>14040</v>
       </c>
       <c r="AV42" s="15">
-        <v>14040</v>
+        <v>26157</v>
       </c>
       <c r="AW42" s="15">
-        <v>26373</v>
+        <v>32819</v>
       </c>
       <c r="AX42" s="15">
-        <v>32819</v>
+        <v>34149</v>
       </c>
       <c r="AY42" s="15">
-        <v>34149</v>
+        <v>19852</v>
       </c>
       <c r="AZ42" s="15">
-        <v>19852</v>
+        <v>24155</v>
       </c>
       <c r="BA42" s="15">
-        <v>24155</v>
+        <v>18993</v>
       </c>
       <c r="BB42" s="15">
-        <v>18993</v>
+        <v>25482</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5987,32 +5987,32 @@
       <c r="AR44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU44" s="11" t="s">
-        <v>58</v>
+      <c r="AS44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="11">
+        <v>0</v>
       </c>
       <c r="AV44" s="11">
         <v>0</v>
       </c>
-      <c r="AW44" s="11" t="s">
-        <v>58</v>
+      <c r="AW44" s="11">
+        <v>709</v>
       </c>
       <c r="AX44" s="11">
-        <v>511</v>
+        <v>176</v>
       </c>
       <c r="AY44" s="11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BA44" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="11">
         <v>0</v>
@@ -6157,19 +6157,19 @@
         <v>0</v>
       </c>
       <c r="AW45" s="15">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="AX45" s="15">
-        <v>511</v>
+        <v>176</v>
       </c>
       <c r="AY45" s="15">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="15">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BA45" s="15">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="15">
         <v>0</v>
@@ -6292,8 +6292,8 @@
       <c r="V47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="19" t="s">
-        <v>58</v>
+      <c r="W47" s="19">
+        <v>0</v>
       </c>
       <c r="X47" s="19">
         <v>0</v>
@@ -6583,26 +6583,26 @@
       <c r="AU49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY49" s="11" t="s">
-        <v>58</v>
+      <c r="AV49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="11">
+        <v>-90</v>
       </c>
       <c r="AZ49" s="11">
-        <v>-90</v>
-      </c>
-      <c r="BA49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB49" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA49" s="11">
         <v>-9</v>
+      </c>
+      <c r="BB49" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6739,29 +6739,29 @@
       <c r="AT50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU50" s="13" t="s">
-        <v>58</v>
+      <c r="AU50" s="13">
+        <v>31</v>
       </c>
       <c r="AV50" s="13">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AW50" s="13">
-        <v>10</v>
-      </c>
-      <c r="AX50" s="13" t="s">
-        <v>58</v>
+        <v>-103</v>
+      </c>
+      <c r="AX50" s="13">
+        <v>-861</v>
       </c>
       <c r="AY50" s="13">
-        <v>-861</v>
+        <v>-133</v>
       </c>
       <c r="AZ50" s="13">
-        <v>-133</v>
+        <v>-213</v>
       </c>
       <c r="BA50" s="13">
-        <v>-213</v>
-      </c>
-      <c r="BB50" s="13">
         <v>-2400</v>
+      </c>
+      <c r="BB50" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6901,17 +6901,17 @@
       <c r="AU51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY51" s="11" t="s">
-        <v>58</v>
+      <c r="AV51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="11">
+        <v>0</v>
       </c>
       <c r="AZ51" s="11">
         <v>0</v>
@@ -7066,20 +7066,20 @@
       <c r="AW52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY52" s="13" t="s">
-        <v>58</v>
+      <c r="AX52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="13">
+        <v>-18</v>
       </c>
       <c r="AZ52" s="13">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB52" s="13" t="s">
-        <v>58</v>
+      <c r="BB52" s="13">
+        <v>-98</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7142,8 +7142,8 @@
       <c r="V53" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="19" t="s">
-        <v>58</v>
+      <c r="W53" s="19">
+        <v>0</v>
       </c>
       <c r="X53" s="19">
         <v>0</v>
@@ -7215,28 +7215,28 @@
         <v>0</v>
       </c>
       <c r="AU53" s="19">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV53" s="19">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AW53" s="19">
-        <v>10</v>
+        <v>-103</v>
       </c>
       <c r="AX53" s="19">
-        <v>0</v>
+        <v>-861</v>
       </c>
       <c r="AY53" s="19">
-        <v>-861</v>
+        <v>-241</v>
       </c>
       <c r="AZ53" s="19">
-        <v>-241</v>
+        <v>-213</v>
       </c>
       <c r="BA53" s="19">
-        <v>-213</v>
+        <v>-2409</v>
       </c>
       <c r="BB53" s="19">
-        <v>-2409</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7300,100 +7300,100 @@
         <v>0</v>
       </c>
       <c r="W54" s="15">
-        <v>0</v>
+        <v>20144</v>
       </c>
       <c r="X54" s="15">
-        <v>20144</v>
+        <v>28832</v>
       </c>
       <c r="Y54" s="15">
-        <v>28832</v>
+        <v>50945</v>
       </c>
       <c r="Z54" s="15">
-        <v>50945</v>
+        <v>124054</v>
       </c>
       <c r="AA54" s="15">
-        <v>124054</v>
+        <v>64552</v>
       </c>
       <c r="AB54" s="15">
-        <v>64552</v>
+        <v>91904</v>
       </c>
       <c r="AC54" s="15">
-        <v>91904</v>
+        <v>95180</v>
       </c>
       <c r="AD54" s="15">
-        <v>95180</v>
+        <v>164937</v>
       </c>
       <c r="AE54" s="15">
-        <v>164937</v>
+        <v>108143</v>
       </c>
       <c r="AF54" s="15">
-        <v>108143</v>
+        <v>102393</v>
       </c>
       <c r="AG54" s="15">
-        <v>102393</v>
+        <v>145881</v>
       </c>
       <c r="AH54" s="15">
-        <v>145881</v>
+        <v>191309</v>
       </c>
       <c r="AI54" s="15">
-        <v>191309</v>
+        <v>75382</v>
       </c>
       <c r="AJ54" s="15">
-        <v>75382</v>
+        <v>49537</v>
       </c>
       <c r="AK54" s="15">
-        <v>49537</v>
+        <v>44236</v>
       </c>
       <c r="AL54" s="15">
-        <v>44236</v>
+        <v>57252</v>
       </c>
       <c r="AM54" s="15">
-        <v>57252</v>
+        <v>79003</v>
       </c>
       <c r="AN54" s="15">
-        <v>79003</v>
+        <v>175638</v>
       </c>
       <c r="AO54" s="15">
-        <v>175638</v>
+        <v>71225</v>
       </c>
       <c r="AP54" s="15">
-        <v>71225</v>
+        <v>46705</v>
       </c>
       <c r="AQ54" s="15">
-        <v>46705</v>
+        <v>35810</v>
       </c>
       <c r="AR54" s="15">
-        <v>35810</v>
+        <v>20066</v>
       </c>
       <c r="AS54" s="15">
-        <v>20066</v>
+        <v>15612</v>
       </c>
       <c r="AT54" s="15">
-        <v>22459</v>
+        <v>39653</v>
       </c>
       <c r="AU54" s="15">
-        <v>39653</v>
+        <v>14071</v>
       </c>
       <c r="AV54" s="15">
-        <v>14071</v>
+        <v>26167</v>
       </c>
       <c r="AW54" s="15">
-        <v>26383</v>
+        <v>33425</v>
       </c>
       <c r="AX54" s="15">
-        <v>33330</v>
+        <v>33464</v>
       </c>
       <c r="AY54" s="15">
-        <v>33464</v>
+        <v>19611</v>
       </c>
       <c r="AZ54" s="15">
-        <v>19611</v>
+        <v>23986</v>
       </c>
       <c r="BA54" s="15">
-        <v>23986</v>
+        <v>16584</v>
       </c>
       <c r="BB54" s="15">
-        <v>16584</v>
+        <v>25384</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7892,101 +7892,101 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>38045</v>
       </c>
       <c r="X61" s="11">
-        <v>38045</v>
+        <v>216653</v>
       </c>
       <c r="Y61" s="11">
-        <v>216653</v>
+        <v>291100</v>
       </c>
       <c r="Z61" s="11">
-        <v>291100</v>
+        <v>1051185</v>
       </c>
       <c r="AA61" s="11">
-        <v>1051185</v>
+        <v>419637</v>
       </c>
       <c r="AB61" s="11">
-        <v>419637</v>
+        <v>875262</v>
       </c>
       <c r="AC61" s="11">
-        <v>875262</v>
+        <v>592811</v>
       </c>
       <c r="AD61" s="11">
-        <v>592811</v>
+        <v>897670</v>
       </c>
       <c r="AE61" s="11">
-        <v>897670</v>
+        <v>1545260</v>
       </c>
       <c r="AF61" s="11">
-        <v>1545260</v>
+        <v>568119</v>
       </c>
       <c r="AG61" s="11">
-        <v>568119</v>
+        <v>2531823</v>
       </c>
       <c r="AH61" s="11">
-        <v>2531823</v>
+        <v>1961109</v>
       </c>
       <c r="AI61" s="11">
-        <v>1961109</v>
+        <v>126271</v>
       </c>
       <c r="AJ61" s="11">
-        <v>126271</v>
+        <v>331178</v>
       </c>
       <c r="AK61" s="11">
-        <v>331178</v>
+        <v>382498</v>
       </c>
       <c r="AL61" s="11">
-        <v>382498</v>
+        <v>116072</v>
       </c>
       <c r="AM61" s="11">
-        <v>116072</v>
+        <v>218558</v>
       </c>
       <c r="AN61" s="11">
-        <v>218558</v>
+        <v>2348725</v>
       </c>
       <c r="AO61" s="11">
-        <v>2348725</v>
+        <v>972218</v>
       </c>
       <c r="AP61" s="11">
-        <v>972218</v>
+        <v>595595</v>
       </c>
       <c r="AQ61" s="11">
-        <v>595595</v>
+        <v>210638</v>
       </c>
       <c r="AR61" s="11">
-        <v>210638</v>
+        <v>283712</v>
       </c>
       <c r="AS61" s="11">
-        <v>283712</v>
+        <v>93439</v>
       </c>
       <c r="AT61" s="11">
-        <v>93640</v>
+        <v>190499</v>
       </c>
       <c r="AU61" s="11">
-        <v>190499</v>
+        <v>73711</v>
       </c>
       <c r="AV61" s="11">
-        <v>73711</v>
+        <v>268523</v>
       </c>
       <c r="AW61" s="11">
-        <v>268523</v>
+        <v>366123</v>
       </c>
       <c r="AX61" s="11">
-        <v>366123</v>
+        <v>399129</v>
       </c>
       <c r="AY61" s="11">
-        <v>399129</v>
+        <v>691858</v>
       </c>
       <c r="AZ61" s="11">
-        <v>691858</v>
+        <v>185779</v>
       </c>
       <c r="BA61" s="11">
-        <v>185779</v>
+        <v>46403</v>
       </c>
       <c r="BB61" s="11">
-        <v>46403</v>
+        <v>34407</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8087,38 +8087,38 @@
       <c r="AH62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI62" s="13" t="s">
-        <v>58</v>
+      <c r="AI62" s="13">
+        <v>118181</v>
       </c>
       <c r="AJ62" s="13">
-        <v>118181</v>
+        <v>42668</v>
       </c>
       <c r="AK62" s="13">
-        <v>42668</v>
+        <v>23041</v>
       </c>
       <c r="AL62" s="13">
-        <v>23041</v>
+        <v>448855</v>
       </c>
       <c r="AM62" s="13">
-        <v>448855</v>
+        <v>36965</v>
       </c>
       <c r="AN62" s="13">
-        <v>36965</v>
+        <v>48770</v>
       </c>
       <c r="AO62" s="13">
-        <v>48770</v>
+        <v>11254</v>
       </c>
       <c r="AP62" s="13">
-        <v>11254</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="13">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="AR62" s="13">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="AS62" s="13">
-        <v>0</v>
+        <v>-3547</v>
       </c>
       <c r="AT62" s="13">
         <v>0</v>
@@ -8210,101 +8210,101 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>1604030</v>
       </c>
       <c r="X63" s="11">
-        <v>1604030</v>
+        <v>1859855</v>
       </c>
       <c r="Y63" s="11">
-        <v>1859855</v>
+        <v>1639213</v>
       </c>
       <c r="Z63" s="11">
-        <v>1639213</v>
+        <v>2367900</v>
       </c>
       <c r="AA63" s="11">
-        <v>2367900</v>
+        <v>2414588</v>
       </c>
       <c r="AB63" s="11">
-        <v>2414588</v>
+        <v>1964271</v>
       </c>
       <c r="AC63" s="11">
-        <v>1964271</v>
+        <v>2346330</v>
       </c>
       <c r="AD63" s="11">
-        <v>2346330</v>
+        <v>2309549</v>
       </c>
       <c r="AE63" s="11">
-        <v>2309549</v>
+        <v>3011404</v>
       </c>
       <c r="AF63" s="11">
-        <v>3011404</v>
+        <v>3018621</v>
       </c>
       <c r="AG63" s="11">
-        <v>3018621</v>
+        <v>3416509</v>
       </c>
       <c r="AH63" s="11">
-        <v>3416509</v>
+        <v>3526008</v>
       </c>
       <c r="AI63" s="11">
-        <v>3526008</v>
+        <v>2844311</v>
       </c>
       <c r="AJ63" s="11">
-        <v>2844311</v>
+        <v>3966805</v>
       </c>
       <c r="AK63" s="11">
-        <v>3966805</v>
+        <v>4967577</v>
       </c>
       <c r="AL63" s="11">
-        <v>4967577</v>
+        <v>4636177</v>
       </c>
       <c r="AM63" s="11">
-        <v>4636177</v>
+        <v>3076244</v>
       </c>
       <c r="AN63" s="11">
-        <v>3076244</v>
+        <v>3288197</v>
       </c>
       <c r="AO63" s="11">
-        <v>3288197</v>
+        <v>3305843</v>
       </c>
       <c r="AP63" s="11">
-        <v>3305843</v>
+        <v>3500787</v>
       </c>
       <c r="AQ63" s="11">
-        <v>3500787</v>
+        <v>3881656</v>
       </c>
       <c r="AR63" s="11">
-        <v>3881656</v>
+        <v>1973279</v>
       </c>
       <c r="AS63" s="11">
-        <v>1973279</v>
+        <v>2798259</v>
       </c>
       <c r="AT63" s="11">
-        <v>2895003</v>
+        <v>5049052</v>
       </c>
       <c r="AU63" s="11">
-        <v>5049052</v>
+        <v>1892469</v>
       </c>
       <c r="AV63" s="11">
-        <v>1892469</v>
+        <v>8619443</v>
       </c>
       <c r="AW63" s="11">
-        <v>8619443</v>
+        <v>23303206</v>
       </c>
       <c r="AX63" s="11">
-        <v>23303206</v>
+        <v>23151597</v>
       </c>
       <c r="AY63" s="11">
-        <v>23151597</v>
+        <v>8014607</v>
       </c>
       <c r="AZ63" s="11">
-        <v>8014607</v>
+        <v>13890751</v>
       </c>
       <c r="BA63" s="11">
-        <v>13890751</v>
+        <v>9752148</v>
       </c>
       <c r="BB63" s="11">
-        <v>9752148</v>
+        <v>14600735</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8405,38 +8405,38 @@
       <c r="AH64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI64" s="13" t="s">
-        <v>58</v>
+      <c r="AI64" s="13">
+        <v>1194711</v>
       </c>
       <c r="AJ64" s="13">
-        <v>1194711</v>
+        <v>47133</v>
       </c>
       <c r="AK64" s="13">
-        <v>47133</v>
+        <v>1649</v>
       </c>
       <c r="AL64" s="13">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="13">
-        <v>0</v>
+        <v>1757316</v>
       </c>
       <c r="AN64" s="13">
-        <v>1757316</v>
+        <v>2764442</v>
       </c>
       <c r="AO64" s="13">
-        <v>2764442</v>
+        <v>722794</v>
       </c>
       <c r="AP64" s="13">
-        <v>722794</v>
+        <v>158911</v>
       </c>
       <c r="AQ64" s="13">
-        <v>158911</v>
+        <v>15530</v>
       </c>
       <c r="AR64" s="13">
-        <v>15530</v>
+        <v>3597</v>
       </c>
       <c r="AS64" s="13">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="13">
         <v>0</v>
@@ -8564,65 +8564,65 @@
       <c r="AH65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI65" s="11" t="s">
-        <v>58</v>
+      <c r="AI65" s="11">
+        <v>27235</v>
       </c>
       <c r="AJ65" s="11">
-        <v>27235</v>
+        <v>31845</v>
       </c>
       <c r="AK65" s="11">
-        <v>31845</v>
+        <v>57821</v>
       </c>
       <c r="AL65" s="11">
-        <v>57821</v>
+        <v>46933</v>
       </c>
       <c r="AM65" s="11">
-        <v>46933</v>
+        <v>3450</v>
       </c>
       <c r="AN65" s="11">
-        <v>3450</v>
+        <v>90229</v>
       </c>
       <c r="AO65" s="11">
-        <v>90229</v>
+        <v>56728</v>
       </c>
       <c r="AP65" s="11">
-        <v>56728</v>
+        <v>71326</v>
       </c>
       <c r="AQ65" s="11">
-        <v>71326</v>
+        <v>28617</v>
       </c>
       <c r="AR65" s="11">
-        <v>28617</v>
+        <v>15805</v>
       </c>
       <c r="AS65" s="11">
-        <v>15805</v>
+        <v>-166965</v>
       </c>
       <c r="AT65" s="11">
-        <v>123348</v>
+        <v>54353</v>
       </c>
       <c r="AU65" s="11">
-        <v>54353</v>
+        <v>6876</v>
       </c>
       <c r="AV65" s="11">
-        <v>6876</v>
+        <v>86041</v>
       </c>
       <c r="AW65" s="11">
-        <v>130850</v>
+        <v>16600</v>
       </c>
       <c r="AX65" s="11">
-        <v>16600</v>
+        <v>134209</v>
       </c>
       <c r="AY65" s="11">
-        <v>134209</v>
+        <v>99892</v>
       </c>
       <c r="AZ65" s="11">
-        <v>99892</v>
+        <v>100746</v>
       </c>
       <c r="BA65" s="11">
-        <v>100746</v>
+        <v>128100</v>
       </c>
       <c r="BB65" s="11">
-        <v>128100</v>
+        <v>52407</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8693,38 +8693,38 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>356822</v>
       </c>
       <c r="Z66" s="13">
-        <v>356822</v>
+        <v>970965</v>
       </c>
       <c r="AA66" s="13">
-        <v>970965</v>
+        <v>374611</v>
       </c>
       <c r="AB66" s="13">
-        <v>374611</v>
+        <v>808490</v>
       </c>
       <c r="AC66" s="13">
-        <v>808490</v>
+        <v>745793</v>
       </c>
       <c r="AD66" s="13">
-        <v>745793</v>
+        <v>2263405</v>
       </c>
       <c r="AE66" s="13">
-        <v>2263405</v>
+        <v>666499</v>
       </c>
       <c r="AF66" s="13">
-        <v>666499</v>
+        <v>1652444</v>
       </c>
       <c r="AG66" s="13">
-        <v>1652444</v>
+        <v>851671</v>
       </c>
       <c r="AH66" s="13">
-        <v>851671</v>
-      </c>
-      <c r="AI66" s="13">
         <v>1940596</v>
+      </c>
+      <c r="AI66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ66" s="13" t="s">
         <v>58</v>
@@ -8882,65 +8882,65 @@
       <c r="AH67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI67" s="11" t="s">
-        <v>58</v>
+      <c r="AI67" s="11">
+        <v>4496</v>
       </c>
       <c r="AJ67" s="11">
-        <v>4496</v>
+        <v>28013</v>
       </c>
       <c r="AK67" s="11">
-        <v>28013</v>
+        <v>20412</v>
       </c>
       <c r="AL67" s="11">
-        <v>20412</v>
+        <v>21039</v>
       </c>
       <c r="AM67" s="11">
-        <v>21039</v>
+        <v>28100</v>
       </c>
       <c r="AN67" s="11">
-        <v>28100</v>
+        <v>7411</v>
       </c>
       <c r="AO67" s="11">
-        <v>7411</v>
+        <v>10064</v>
       </c>
       <c r="AP67" s="11">
-        <v>10064</v>
+        <v>37620</v>
       </c>
       <c r="AQ67" s="11">
-        <v>37620</v>
+        <v>41440</v>
       </c>
       <c r="AR67" s="11">
-        <v>41440</v>
+        <v>32862</v>
       </c>
       <c r="AS67" s="11">
-        <v>32862</v>
+        <v>-231457</v>
       </c>
       <c r="AT67" s="11">
-        <v>7545</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="11">
-        <v>0</v>
+        <v>3994</v>
       </c>
       <c r="AV67" s="11">
-        <v>3994</v>
+        <v>9425</v>
       </c>
       <c r="AW67" s="11">
-        <v>9425</v>
+        <v>115963</v>
       </c>
       <c r="AX67" s="11">
-        <v>115963</v>
+        <v>21024</v>
       </c>
       <c r="AY67" s="11">
-        <v>21024</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="11">
-        <v>0</v>
+        <v>33052</v>
       </c>
       <c r="BA67" s="11">
-        <v>15792</v>
+        <v>14847</v>
       </c>
       <c r="BB67" s="11">
-        <v>14847</v>
+        <v>39167</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9041,65 +9041,65 @@
       <c r="AH68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI68" s="13" t="s">
-        <v>58</v>
+      <c r="AI68" s="13">
+        <v>138156</v>
       </c>
       <c r="AJ68" s="13">
-        <v>138156</v>
+        <v>122670</v>
       </c>
       <c r="AK68" s="13">
-        <v>122670</v>
+        <v>152503</v>
       </c>
       <c r="AL68" s="13">
-        <v>152503</v>
+        <v>62125</v>
       </c>
       <c r="AM68" s="13">
-        <v>62125</v>
+        <v>127913</v>
       </c>
       <c r="AN68" s="13">
-        <v>127913</v>
+        <v>345314</v>
       </c>
       <c r="AO68" s="13">
-        <v>345314</v>
+        <v>66938</v>
       </c>
       <c r="AP68" s="13">
-        <v>66938</v>
+        <v>72616</v>
       </c>
       <c r="AQ68" s="13">
-        <v>72616</v>
+        <v>146923</v>
       </c>
       <c r="AR68" s="13">
-        <v>146923</v>
+        <v>13851</v>
       </c>
       <c r="AS68" s="13">
-        <v>13851</v>
+        <v>104215</v>
       </c>
       <c r="AT68" s="13">
-        <v>93202</v>
+        <v>252458</v>
       </c>
       <c r="AU68" s="13">
-        <v>252458</v>
+        <v>52591</v>
       </c>
       <c r="AV68" s="13">
-        <v>52591</v>
+        <v>16793</v>
       </c>
       <c r="AW68" s="13">
-        <v>16793</v>
+        <v>92104</v>
       </c>
       <c r="AX68" s="13">
-        <v>92104</v>
+        <v>624658</v>
       </c>
       <c r="AY68" s="13">
-        <v>624658</v>
+        <v>1676524</v>
       </c>
       <c r="AZ68" s="13">
-        <v>1676524</v>
+        <v>704655</v>
       </c>
       <c r="BA68" s="13">
-        <v>704655</v>
+        <v>1779377</v>
       </c>
       <c r="BB68" s="13">
-        <v>1779377</v>
+        <v>1578548</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9224,14 +9224,14 @@
       <c r="AP69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ69" s="11" t="s">
-        <v>58</v>
+      <c r="AQ69" s="11">
+        <v>22623</v>
       </c>
       <c r="AR69" s="11">
-        <v>22623</v>
+        <v>3602</v>
       </c>
       <c r="AS69" s="11">
-        <v>3602</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="11">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>0</v>
       </c>
       <c r="AV69" s="11">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AW69" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AX69" s="11">
         <v>0</v>
       </c>
       <c r="AY69" s="11">
-        <v>0</v>
+        <v>17259</v>
       </c>
       <c r="AZ69" s="11">
-        <v>17259</v>
+        <v>-17260</v>
       </c>
       <c r="BA69" s="11">
         <v>0</v>
@@ -9322,100 +9322,100 @@
         <v>0</v>
       </c>
       <c r="W70" s="15">
-        <v>0</v>
+        <v>1642075</v>
       </c>
       <c r="X70" s="15">
-        <v>1642075</v>
+        <v>2076508</v>
       </c>
       <c r="Y70" s="15">
-        <v>2076508</v>
+        <v>2287135</v>
       </c>
       <c r="Z70" s="15">
-        <v>2287135</v>
+        <v>4390050</v>
       </c>
       <c r="AA70" s="15">
-        <v>4390050</v>
+        <v>3208836</v>
       </c>
       <c r="AB70" s="15">
-        <v>3208836</v>
+        <v>3648023</v>
       </c>
       <c r="AC70" s="15">
-        <v>3648023</v>
+        <v>3684934</v>
       </c>
       <c r="AD70" s="15">
-        <v>3684934</v>
+        <v>5470624</v>
       </c>
       <c r="AE70" s="15">
-        <v>5470624</v>
+        <v>5223163</v>
       </c>
       <c r="AF70" s="15">
-        <v>5223163</v>
+        <v>5239184</v>
       </c>
       <c r="AG70" s="15">
-        <v>5239184</v>
+        <v>6800003</v>
       </c>
       <c r="AH70" s="15">
-        <v>6800003</v>
+        <v>7427713</v>
       </c>
       <c r="AI70" s="15">
-        <v>7427713</v>
+        <v>4453361</v>
       </c>
       <c r="AJ70" s="15">
-        <v>4453361</v>
+        <v>4570312</v>
       </c>
       <c r="AK70" s="15">
-        <v>4570312</v>
+        <v>5605501</v>
       </c>
       <c r="AL70" s="15">
-        <v>5605501</v>
+        <v>5331201</v>
       </c>
       <c r="AM70" s="15">
-        <v>5331201</v>
+        <v>5248546</v>
       </c>
       <c r="AN70" s="15">
-        <v>5248546</v>
+        <v>8893088</v>
       </c>
       <c r="AO70" s="15">
-        <v>8893088</v>
+        <v>5145839</v>
       </c>
       <c r="AP70" s="15">
-        <v>5145839</v>
+        <v>4436855</v>
       </c>
       <c r="AQ70" s="15">
-        <v>4436855</v>
+        <v>4348578</v>
       </c>
       <c r="AR70" s="15">
-        <v>4348578</v>
+        <v>2326708</v>
       </c>
       <c r="AS70" s="15">
-        <v>2326708</v>
+        <v>2593944</v>
       </c>
       <c r="AT70" s="15">
-        <v>3212738</v>
+        <v>5546362</v>
       </c>
       <c r="AU70" s="15">
-        <v>5546362</v>
+        <v>2029641</v>
       </c>
       <c r="AV70" s="15">
-        <v>2029641</v>
+        <v>9000259</v>
       </c>
       <c r="AW70" s="15">
-        <v>9045068</v>
+        <v>23893996</v>
       </c>
       <c r="AX70" s="15">
-        <v>23893996</v>
+        <v>24330617</v>
       </c>
       <c r="AY70" s="15">
-        <v>24330617</v>
+        <v>10500140</v>
       </c>
       <c r="AZ70" s="15">
-        <v>10500140</v>
+        <v>14897723</v>
       </c>
       <c r="BA70" s="15">
-        <v>14897723</v>
+        <v>11720875</v>
       </c>
       <c r="BB70" s="15">
-        <v>11720875</v>
+        <v>16305264</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9603,32 +9603,32 @@
       <c r="AR72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT72" s="11" t="s">
-        <v>58</v>
+      <c r="AS72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="11">
+        <v>0</v>
       </c>
       <c r="AU72" s="11">
         <v>0</v>
       </c>
       <c r="AV72" s="11">
-        <v>0</v>
+        <v>41933</v>
       </c>
       <c r="AW72" s="11">
-        <v>0</v>
+        <v>128110</v>
       </c>
       <c r="AX72" s="11">
-        <v>128110</v>
+        <v>44111</v>
       </c>
       <c r="AY72" s="11">
-        <v>44111</v>
+        <v>0</v>
       </c>
       <c r="AZ72" s="11">
-        <v>0</v>
+        <v>8164</v>
       </c>
       <c r="BA72" s="11">
-        <v>8164</v>
+        <v>0</v>
       </c>
       <c r="BB72" s="11">
         <v>0</v>
@@ -9770,22 +9770,22 @@
         <v>0</v>
       </c>
       <c r="AV73" s="15">
-        <v>0</v>
+        <v>41933</v>
       </c>
       <c r="AW73" s="15">
-        <v>0</v>
+        <v>128110</v>
       </c>
       <c r="AX73" s="15">
-        <v>128110</v>
+        <v>44111</v>
       </c>
       <c r="AY73" s="15">
-        <v>44111</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="15">
-        <v>0</v>
+        <v>8164</v>
       </c>
       <c r="BA73" s="15">
-        <v>8164</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="15">
         <v>0</v>
@@ -9910,8 +9910,8 @@
       <c r="V75" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="19" t="s">
-        <v>58</v>
+      <c r="W75" s="19">
+        <v>0</v>
       </c>
       <c r="X75" s="19">
         <v>0</v>
@@ -10198,8 +10198,8 @@
       <c r="AT77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU77" s="11" t="s">
-        <v>58</v>
+      <c r="AU77" s="11">
+        <v>0</v>
       </c>
       <c r="AV77" s="11">
         <v>0</v>
@@ -10211,16 +10211,16 @@
         <v>0</v>
       </c>
       <c r="AY77" s="11">
-        <v>0</v>
+        <v>-3119</v>
       </c>
       <c r="AZ77" s="11">
-        <v>-3119</v>
+        <v>0</v>
       </c>
       <c r="BA77" s="11">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="BB77" s="11">
-        <v>-1060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10357,29 +10357,29 @@
       <c r="AT78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU78" s="13" t="s">
-        <v>58</v>
+      <c r="AU78" s="13">
+        <v>-8247</v>
       </c>
       <c r="AV78" s="13">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AW78" s="13">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AX78" s="13">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AY78" s="13">
-        <v>-638551</v>
+        <v>-131582</v>
       </c>
       <c r="AZ78" s="13">
-        <v>-131582</v>
+        <v>-18151</v>
       </c>
       <c r="BA78" s="13">
-        <v>-18151</v>
+        <v>-1648504</v>
       </c>
       <c r="BB78" s="13">
-        <v>-1648504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10516,8 +10516,8 @@
       <c r="AT79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU79" s="11" t="s">
-        <v>58</v>
+      <c r="AU79" s="11">
+        <v>0</v>
       </c>
       <c r="AV79" s="11">
         <v>0</v>
@@ -10529,13 +10529,13 @@
         <v>0</v>
       </c>
       <c r="AY79" s="11">
-        <v>-25157</v>
+        <v>0</v>
       </c>
       <c r="AZ79" s="11">
-        <v>0</v>
+        <v>-487</v>
       </c>
       <c r="BA79" s="11">
-        <v>-487</v>
+        <v>0</v>
       </c>
       <c r="BB79" s="11">
         <v>0</v>
@@ -10684,20 +10684,20 @@
       <c r="AW80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY80" s="13" t="s">
-        <v>58</v>
+      <c r="AX80" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY80" s="13">
+        <v>-10428</v>
       </c>
       <c r="AZ80" s="13">
-        <v>-10428</v>
+        <v>0</v>
       </c>
       <c r="BA80" s="13">
         <v>0</v>
       </c>
       <c r="BB80" s="13">
-        <v>0</v>
+        <v>-64915</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10762,8 +10762,8 @@
       <c r="V81" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="19" t="s">
-        <v>58</v>
+      <c r="W81" s="19">
+        <v>0</v>
       </c>
       <c r="X81" s="19">
         <v>0</v>
@@ -10835,28 +10835,28 @@
         <v>0</v>
       </c>
       <c r="AU81" s="19">
-        <v>0</v>
+        <v>-8247</v>
       </c>
       <c r="AV81" s="19">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AW81" s="19">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AX81" s="19">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AY81" s="19">
-        <v>-663708</v>
+        <v>-145129</v>
       </c>
       <c r="AZ81" s="19">
-        <v>-145129</v>
+        <v>-18638</v>
       </c>
       <c r="BA81" s="19">
-        <v>-18638</v>
+        <v>-1649564</v>
       </c>
       <c r="BB81" s="19">
-        <v>-1649564</v>
+        <v>-64915</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10978,8 +10978,8 @@
       <c r="V83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>58</v>
+      <c r="W83" s="11">
+        <v>0</v>
       </c>
       <c r="X83" s="11">
         <v>0</v>
@@ -11051,28 +11051,28 @@
         <v>0</v>
       </c>
       <c r="AU83" s="11">
-        <v>0</v>
+        <v>-5224</v>
       </c>
       <c r="AV83" s="11">
-        <v>-5224</v>
+        <v>-29405</v>
       </c>
       <c r="AW83" s="11">
-        <v>-29405</v>
+        <v>-26931</v>
       </c>
       <c r="AX83" s="11">
-        <v>-26931</v>
+        <v>-25157</v>
       </c>
       <c r="AY83" s="11">
-        <v>0</v>
+        <v>-2547350</v>
       </c>
       <c r="AZ83" s="11">
-        <v>-220529</v>
+        <v>-468268</v>
       </c>
       <c r="BA83" s="11">
-        <v>-468268</v>
+        <v>-409471</v>
       </c>
       <c r="BB83" s="11">
-        <v>-409471</v>
+        <v>-1978624</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11136,100 +11136,100 @@
         <v>0</v>
       </c>
       <c r="W84" s="15">
-        <v>0</v>
+        <v>1642075</v>
       </c>
       <c r="X84" s="15">
-        <v>1642075</v>
+        <v>2076508</v>
       </c>
       <c r="Y84" s="15">
-        <v>2076508</v>
+        <v>2287135</v>
       </c>
       <c r="Z84" s="15">
-        <v>2287135</v>
+        <v>4390050</v>
       </c>
       <c r="AA84" s="15">
-        <v>4390050</v>
+        <v>3208836</v>
       </c>
       <c r="AB84" s="15">
-        <v>3208836</v>
+        <v>3648023</v>
       </c>
       <c r="AC84" s="15">
-        <v>3648023</v>
+        <v>3684934</v>
       </c>
       <c r="AD84" s="15">
-        <v>3684934</v>
+        <v>5470624</v>
       </c>
       <c r="AE84" s="15">
-        <v>5470624</v>
+        <v>5223163</v>
       </c>
       <c r="AF84" s="15">
-        <v>5223163</v>
+        <v>5239184</v>
       </c>
       <c r="AG84" s="15">
-        <v>5239184</v>
+        <v>6800003</v>
       </c>
       <c r="AH84" s="15">
-        <v>6800003</v>
+        <v>7427713</v>
       </c>
       <c r="AI84" s="15">
-        <v>7427713</v>
+        <v>4453361</v>
       </c>
       <c r="AJ84" s="15">
-        <v>4453361</v>
+        <v>4570312</v>
       </c>
       <c r="AK84" s="15">
-        <v>4570312</v>
+        <v>5605501</v>
       </c>
       <c r="AL84" s="15">
-        <v>5605501</v>
+        <v>5331201</v>
       </c>
       <c r="AM84" s="15">
-        <v>5331201</v>
+        <v>5248546</v>
       </c>
       <c r="AN84" s="15">
-        <v>5248546</v>
+        <v>8893088</v>
       </c>
       <c r="AO84" s="15">
-        <v>8893088</v>
+        <v>5145839</v>
       </c>
       <c r="AP84" s="15">
-        <v>5145839</v>
+        <v>4436855</v>
       </c>
       <c r="AQ84" s="15">
-        <v>4436855</v>
+        <v>4348578</v>
       </c>
       <c r="AR84" s="15">
-        <v>4348578</v>
+        <v>2326708</v>
       </c>
       <c r="AS84" s="15">
-        <v>2326708</v>
+        <v>2593944</v>
       </c>
       <c r="AT84" s="15">
-        <v>3212738</v>
+        <v>5546362</v>
       </c>
       <c r="AU84" s="15">
-        <v>5546362</v>
+        <v>2016170</v>
       </c>
       <c r="AV84" s="15">
-        <v>2016170</v>
+        <v>9004409</v>
       </c>
       <c r="AW84" s="15">
-        <v>9007285</v>
+        <v>23851122</v>
       </c>
       <c r="AX84" s="15">
-        <v>23851122</v>
+        <v>23711020</v>
       </c>
       <c r="AY84" s="15">
-        <v>23711020</v>
+        <v>7807661</v>
       </c>
       <c r="AZ84" s="15">
-        <v>10134482</v>
+        <v>14418981</v>
       </c>
       <c r="BA84" s="15">
-        <v>14418981</v>
+        <v>9661840</v>
       </c>
       <c r="BB84" s="15">
-        <v>9661840</v>
+        <v>14261725</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11728,101 +11728,101 @@
       <c r="V91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="11" t="s">
-        <v>58</v>
+      <c r="W91" s="11">
+        <v>24232484</v>
       </c>
       <c r="X91" s="11">
-        <v>24232484</v>
+        <v>29751854</v>
       </c>
       <c r="Y91" s="11">
-        <v>29751854</v>
+        <v>35691515</v>
       </c>
       <c r="Z91" s="11">
-        <v>35691515</v>
+        <v>31671738</v>
       </c>
       <c r="AA91" s="11">
-        <v>31671738</v>
+        <v>32334489</v>
       </c>
       <c r="AB91" s="11">
-        <v>32334489</v>
+        <v>51628738</v>
       </c>
       <c r="AC91" s="11">
-        <v>51628738</v>
+        <v>26982749</v>
       </c>
       <c r="AD91" s="11">
-        <v>26982749</v>
+        <v>15348984</v>
       </c>
       <c r="AE91" s="11">
-        <v>15348984</v>
+        <v>31303379</v>
       </c>
       <c r="AF91" s="11">
-        <v>31303379</v>
+        <v>29024165</v>
       </c>
       <c r="AG91" s="11">
-        <v>29024165</v>
+        <v>32107324</v>
       </c>
       <c r="AH91" s="11">
-        <v>32107324</v>
+        <v>31915975</v>
       </c>
       <c r="AI91" s="11">
-        <v>31915975</v>
+        <v>31607259</v>
       </c>
       <c r="AJ91" s="11">
-        <v>31607259</v>
+        <v>28785571</v>
       </c>
       <c r="AK91" s="11">
-        <v>28785571</v>
+        <v>40648034</v>
       </c>
       <c r="AL91" s="11">
-        <v>40648034</v>
+        <v>37226427</v>
       </c>
       <c r="AM91" s="11">
-        <v>37226427</v>
+        <v>37669424</v>
       </c>
       <c r="AN91" s="11">
-        <v>37669424</v>
+        <v>34822752</v>
       </c>
       <c r="AO91" s="11">
-        <v>34822752</v>
+        <v>35245722</v>
       </c>
       <c r="AP91" s="11">
-        <v>35245722</v>
+        <v>35485879</v>
       </c>
       <c r="AQ91" s="11">
-        <v>35485879</v>
+        <v>37735220</v>
       </c>
       <c r="AR91" s="11">
-        <v>37735220</v>
+        <v>39202985</v>
       </c>
       <c r="AS91" s="11">
-        <v>39202985</v>
+        <v>40494177</v>
       </c>
       <c r="AT91" s="11">
-        <v>40051326</v>
+        <v>40462829</v>
       </c>
       <c r="AU91" s="11">
-        <v>40462829</v>
+        <v>40389589</v>
       </c>
       <c r="AV91" s="11">
-        <v>40389589</v>
+        <v>41451528</v>
       </c>
       <c r="AW91" s="11">
-        <v>41451528</v>
+        <v>151540977</v>
       </c>
       <c r="AX91" s="11">
-        <v>151540977</v>
+        <v>167209468</v>
       </c>
       <c r="AY91" s="11">
-        <v>167209468</v>
+        <v>152458792</v>
       </c>
       <c r="AZ91" s="11">
-        <v>152458792</v>
+        <v>126122878</v>
       </c>
       <c r="BA91" s="11">
-        <v>126122878</v>
+        <v>134501449</v>
       </c>
       <c r="BB91" s="11">
-        <v>134501449</v>
+        <v>114690000</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -11923,38 +11923,38 @@
       <c r="AH92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI92" s="13" t="s">
-        <v>58</v>
+      <c r="AI92" s="13">
+        <v>16955667</v>
       </c>
       <c r="AJ92" s="13">
-        <v>16955667</v>
+        <v>9983154</v>
       </c>
       <c r="AK92" s="13">
-        <v>9983154</v>
+        <v>17067407</v>
       </c>
       <c r="AL92" s="13">
-        <v>17067407</v>
+        <v>18908712</v>
       </c>
       <c r="AM92" s="13">
-        <v>18908712</v>
+        <v>18946694</v>
       </c>
       <c r="AN92" s="13">
-        <v>18946694</v>
+        <v>18837389</v>
       </c>
       <c r="AO92" s="13">
-        <v>18837389</v>
-      </c>
-      <c r="AP92" s="13">
         <v>20725599</v>
       </c>
-      <c r="AQ92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR92" s="13">
+      <c r="AP92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ92" s="13">
         <v>15144737</v>
       </c>
-      <c r="AS92" s="13" t="s">
-        <v>58</v>
+      <c r="AR92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS92" s="13">
+        <v>813510</v>
       </c>
       <c r="AT92" s="13" t="s">
         <v>58</v>
@@ -12046,101 +12046,101 @@
       <c r="V93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W93" s="11" t="s">
-        <v>58</v>
+      <c r="W93" s="11">
+        <v>86358889</v>
       </c>
       <c r="X93" s="11">
-        <v>86358889</v>
+        <v>86304176</v>
       </c>
       <c r="Y93" s="11">
-        <v>86304176</v>
+        <v>86269828</v>
       </c>
       <c r="Z93" s="11">
-        <v>86269828</v>
+        <v>90609574</v>
       </c>
       <c r="AA93" s="11">
-        <v>90609574</v>
+        <v>90773985</v>
       </c>
       <c r="AB93" s="11">
-        <v>90773985</v>
+        <v>94295569</v>
       </c>
       <c r="AC93" s="11">
-        <v>94295569</v>
+        <v>100947812</v>
       </c>
       <c r="AD93" s="11">
-        <v>100947812</v>
+        <v>103530079</v>
       </c>
       <c r="AE93" s="11">
-        <v>103530079</v>
+        <v>115273465</v>
       </c>
       <c r="AF93" s="11">
-        <v>115273465</v>
+        <v>117919489</v>
       </c>
       <c r="AG93" s="11">
-        <v>117919489</v>
+        <v>114475088</v>
       </c>
       <c r="AH93" s="11">
-        <v>114475088</v>
+        <v>122844581</v>
       </c>
       <c r="AI93" s="11">
-        <v>122844581</v>
+        <v>120195698</v>
       </c>
       <c r="AJ93" s="11">
-        <v>120195698</v>
+        <v>131897091</v>
       </c>
       <c r="AK93" s="11">
-        <v>131897091</v>
+        <v>160213410</v>
       </c>
       <c r="AL93" s="11">
-        <v>160213410</v>
+        <v>158220497</v>
       </c>
       <c r="AM93" s="11">
-        <v>158220497</v>
+        <v>160104299</v>
       </c>
       <c r="AN93" s="11">
-        <v>160104299</v>
+        <v>151942932</v>
       </c>
       <c r="AO93" s="11">
-        <v>151942932</v>
+        <v>156097979</v>
       </c>
       <c r="AP93" s="11">
-        <v>156097979</v>
+        <v>145981694</v>
       </c>
       <c r="AQ93" s="11">
-        <v>145981694</v>
+        <v>156619432</v>
       </c>
       <c r="AR93" s="11">
-        <v>156619432</v>
+        <v>163920834</v>
       </c>
       <c r="AS93" s="11">
-        <v>163920834</v>
+        <v>157528182</v>
       </c>
       <c r="AT93" s="11">
-        <v>157568334</v>
+        <v>157438478</v>
       </c>
       <c r="AU93" s="11">
-        <v>157438478</v>
+        <v>162961250</v>
       </c>
       <c r="AV93" s="11">
-        <v>162961250</v>
+        <v>451138019</v>
       </c>
       <c r="AW93" s="11">
-        <v>451138019</v>
+        <v>775403654</v>
       </c>
       <c r="AX93" s="11">
-        <v>775403654</v>
+        <v>769897809</v>
       </c>
       <c r="AY93" s="11">
-        <v>769897809</v>
+        <v>699171857</v>
       </c>
       <c r="AZ93" s="11">
-        <v>699171857</v>
+        <v>695093625</v>
       </c>
       <c r="BA93" s="11">
-        <v>695093625</v>
+        <v>685612205</v>
       </c>
       <c r="BB93" s="11">
-        <v>685612205</v>
+        <v>683875176</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -12241,38 +12241,38 @@
       <c r="AH94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI94" s="13" t="s">
-        <v>58</v>
+      <c r="AI94" s="13">
+        <v>31000052</v>
       </c>
       <c r="AJ94" s="13">
-        <v>31000052</v>
+        <v>31008553</v>
       </c>
       <c r="AK94" s="13">
-        <v>31008553</v>
-      </c>
-      <c r="AL94" s="13">
         <v>31113208</v>
       </c>
-      <c r="AM94" s="13" t="s">
-        <v>58</v>
+      <c r="AL94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM94" s="13">
+        <v>35000020</v>
       </c>
       <c r="AN94" s="13">
-        <v>35000020</v>
+        <v>35000025</v>
       </c>
       <c r="AO94" s="13">
-        <v>35000025</v>
+        <v>35000436</v>
       </c>
       <c r="AP94" s="13">
-        <v>35000436</v>
+        <v>35002423</v>
       </c>
       <c r="AQ94" s="13">
-        <v>35002423</v>
+        <v>34977477</v>
       </c>
       <c r="AR94" s="13">
-        <v>34977477</v>
+        <v>42317647</v>
       </c>
       <c r="AS94" s="13">
-        <v>42317647</v>
+        <v>0</v>
       </c>
       <c r="AT94" s="13" t="s">
         <v>58</v>
@@ -12400,65 +12400,65 @@
       <c r="AH95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI95" s="11" t="s">
-        <v>58</v>
+      <c r="AI95" s="11">
+        <v>75443213</v>
       </c>
       <c r="AJ95" s="11">
-        <v>75443213</v>
+        <v>79812030</v>
       </c>
       <c r="AK95" s="11">
-        <v>79812030</v>
+        <v>92959807</v>
       </c>
       <c r="AL95" s="11">
-        <v>92959807</v>
+        <v>96969008</v>
       </c>
       <c r="AM95" s="11">
-        <v>96969008</v>
+        <v>27165354</v>
       </c>
       <c r="AN95" s="11">
-        <v>27165354</v>
+        <v>100143174</v>
       </c>
       <c r="AO95" s="11">
-        <v>100143174</v>
+        <v>92541599</v>
       </c>
       <c r="AP95" s="11">
-        <v>92541599</v>
+        <v>100885431</v>
       </c>
       <c r="AQ95" s="11">
-        <v>100885431</v>
+        <v>114927711</v>
       </c>
       <c r="AR95" s="11">
-        <v>114927711</v>
+        <v>68419913</v>
       </c>
       <c r="AS95" s="11">
-        <v>68419913</v>
+        <v>111438221</v>
       </c>
       <c r="AT95" s="11">
-        <v>133061489</v>
+        <v>100097606</v>
       </c>
       <c r="AU95" s="11">
-        <v>100097606</v>
+        <v>77258427</v>
       </c>
       <c r="AV95" s="11">
-        <v>77258427</v>
+        <v>170983520</v>
       </c>
       <c r="AW95" s="11">
-        <v>184036568</v>
+        <v>85567010</v>
       </c>
       <c r="AX95" s="11">
-        <v>85567010</v>
+        <v>232597920</v>
       </c>
       <c r="AY95" s="11">
-        <v>232597920</v>
+        <v>156081250</v>
       </c>
       <c r="AZ95" s="11">
-        <v>156081250</v>
+        <v>154045872</v>
       </c>
       <c r="BA95" s="11">
-        <v>154045872</v>
+        <v>160125000</v>
       </c>
       <c r="BB95" s="11">
-        <v>160125000</v>
+        <v>133351145</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12529,38 +12529,38 @@
       <c r="X96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="13" t="s">
-        <v>58</v>
+      <c r="Y96" s="13">
+        <v>15000084</v>
       </c>
       <c r="Z96" s="13">
-        <v>15000084</v>
+        <v>15000000</v>
       </c>
       <c r="AA96" s="13">
-        <v>15000000</v>
+        <v>15000040</v>
       </c>
       <c r="AB96" s="13">
-        <v>15000040</v>
+        <v>14938840</v>
       </c>
       <c r="AC96" s="13">
-        <v>14938840</v>
+        <v>14925711</v>
       </c>
       <c r="AD96" s="13">
-        <v>14925711</v>
+        <v>26898865</v>
       </c>
       <c r="AE96" s="13">
-        <v>26898865</v>
+        <v>20410320</v>
       </c>
       <c r="AF96" s="13">
-        <v>20410320</v>
+        <v>28878784</v>
       </c>
       <c r="AG96" s="13">
-        <v>28878784</v>
+        <v>22906081</v>
       </c>
       <c r="AH96" s="13">
-        <v>22906081</v>
-      </c>
-      <c r="AI96" s="13">
         <v>19183432</v>
+      </c>
+      <c r="AI96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ96" s="13" t="s">
         <v>58</v>
@@ -12721,21 +12721,21 @@
       <c r="AI97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ97" s="11" t="s">
-        <v>58</v>
+      <c r="AJ97" s="11">
+        <v>1867533333</v>
       </c>
       <c r="AK97" s="11">
-        <v>1867533333</v>
+        <v>2268000000</v>
       </c>
       <c r="AL97" s="11">
-        <v>2268000000</v>
+        <v>3506500000</v>
       </c>
       <c r="AM97" s="11">
-        <v>3506500000</v>
-      </c>
-      <c r="AN97" s="11">
         <v>228455285</v>
       </c>
+      <c r="AN97" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO97" s="11" t="s">
         <v>58</v>
       </c>
@@ -12748,35 +12748,35 @@
       <c r="AR97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT97" s="11">
-        <v>116076923</v>
+      <c r="AS97" s="11">
+        <v>-3560876923</v>
+      </c>
+      <c r="AT97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV97" s="11" t="s">
-        <v>58</v>
+      <c r="AV97" s="11">
+        <v>9425000000</v>
       </c>
       <c r="AW97" s="11">
-        <v>9425000000</v>
+        <v>115963000000</v>
       </c>
       <c r="AX97" s="11">
-        <v>115963000000</v>
-      </c>
-      <c r="AY97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ97" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AY97" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ97" s="11">
+        <v>46746803</v>
       </c>
       <c r="BA97" s="11">
-        <v>22368272</v>
-      </c>
-      <c r="BB97" s="11">
         <v>14847000000</v>
+      </c>
+      <c r="BB97" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12877,65 +12877,65 @@
       <c r="AH98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI98" s="13" t="s">
-        <v>58</v>
+      <c r="AI98" s="13">
+        <v>74558014</v>
       </c>
       <c r="AJ98" s="13">
-        <v>74558014</v>
+        <v>70137221</v>
       </c>
       <c r="AK98" s="13">
-        <v>70137221</v>
+        <v>85388018</v>
       </c>
       <c r="AL98" s="13">
-        <v>85388018</v>
+        <v>102855960</v>
       </c>
       <c r="AM98" s="13">
-        <v>102855960</v>
+        <v>81111604</v>
       </c>
       <c r="AN98" s="13">
-        <v>81111604</v>
+        <v>84739632</v>
       </c>
       <c r="AO98" s="13">
-        <v>84739632</v>
+        <v>102039634</v>
       </c>
       <c r="AP98" s="13">
-        <v>102039634</v>
+        <v>104784993</v>
       </c>
       <c r="AQ98" s="13">
-        <v>104784993</v>
+        <v>86374486</v>
       </c>
       <c r="AR98" s="13">
-        <v>86374486</v>
+        <v>1385100000</v>
       </c>
       <c r="AS98" s="13">
-        <v>1385100000</v>
+        <v>123944497</v>
       </c>
       <c r="AT98" s="13">
-        <v>123283069</v>
+        <v>108258148</v>
       </c>
       <c r="AU98" s="13">
-        <v>108258148</v>
+        <v>102516569</v>
       </c>
       <c r="AV98" s="13">
-        <v>102516569</v>
+        <v>226932432</v>
       </c>
       <c r="AW98" s="13">
-        <v>226932432</v>
+        <v>594219355</v>
       </c>
       <c r="AX98" s="13">
-        <v>594219355</v>
+        <v>560734291</v>
       </c>
       <c r="AY98" s="13">
-        <v>560734291</v>
+        <v>522118966</v>
       </c>
       <c r="AZ98" s="13">
-        <v>522118966</v>
+        <v>526647982</v>
       </c>
       <c r="BA98" s="13">
-        <v>526647982</v>
+        <v>491133591</v>
       </c>
       <c r="BB98" s="13">
-        <v>491133591</v>
+        <v>459013667</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13060,14 +13060,14 @@
       <c r="AP99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ99" s="11" t="s">
-        <v>58</v>
+      <c r="AQ99" s="11">
+        <v>7606927</v>
       </c>
       <c r="AR99" s="11">
-        <v>7606927</v>
+        <v>7746237</v>
       </c>
       <c r="AS99" s="11">
-        <v>7746237</v>
+        <v>0</v>
       </c>
       <c r="AT99" s="11" t="s">
         <v>58</v>
@@ -13075,20 +13075,20 @@
       <c r="AU99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV99" s="11" t="s">
-        <v>58</v>
+      <c r="AV99" s="11">
+        <v>11333333</v>
       </c>
       <c r="AW99" s="11">
-        <v>11333333</v>
-      </c>
-      <c r="AX99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ99" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AX99" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY99" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ99" s="11">
+        <v>-5753333333</v>
       </c>
       <c r="BA99" s="11" t="s">
         <v>58</v>
@@ -13282,8 +13282,8 @@
       <c r="AR101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS101" s="11" t="s">
-        <v>58</v>
+      <c r="AS101" s="11">
+        <v>0</v>
       </c>
       <c r="AT101" s="11" t="s">
         <v>58</v>
@@ -13294,20 +13294,20 @@
       <c r="AV101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW101" s="11" t="s">
-        <v>58</v>
+      <c r="AW101" s="11">
+        <v>157774313</v>
       </c>
       <c r="AX101" s="11">
-        <v>250704501</v>
+        <v>250630682</v>
       </c>
       <c r="AY101" s="11">
-        <v>250630682</v>
-      </c>
-      <c r="AZ101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA101" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ101" s="11">
         <v>185545455</v>
+      </c>
+      <c r="BA101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB101" s="11" t="s">
         <v>58</v>

--- a/database/industries/ghaza/ghekurosh/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghekurosh/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghekurosh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FF849-44CB-4CB2-8DEC-868F98AE86CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D700CC-EF80-4B5D-8FD1-3D3029046769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غکورش-صنعت غذایی کورش</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1507,8 +1507,8 @@
       <c r="U11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>58</v>
+      <c r="V11" s="11">
+        <v>0</v>
       </c>
       <c r="W11" s="11">
         <v>0</v>
@@ -1546,8 +1546,8 @@
       <c r="AH11" s="11">
         <v>0</v>
       </c>
-      <c r="AI11" s="11">
-        <v>0</v>
+      <c r="AI11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ11" s="11" t="s">
         <v>58</v>
@@ -1570,8 +1570,8 @@
       <c r="AP11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>58</v>
+      <c r="AQ11" s="11">
+        <v>0</v>
       </c>
       <c r="AR11" s="11">
         <v>0</v>
@@ -1702,20 +1702,20 @@
       <c r="AG12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>0</v>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>0</v>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM12" s="13" t="s">
         <v>58</v>
@@ -1729,8 +1729,8 @@
       <c r="AP12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
+      <c r="AQ12" s="13">
+        <v>0</v>
       </c>
       <c r="AR12" s="13">
         <v>0</v>
@@ -1825,104 +1825,104 @@
       <c r="U13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V13" s="11" t="s">
-        <v>58</v>
+      <c r="V13" s="11">
+        <v>17382</v>
       </c>
       <c r="W13" s="11">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="X13" s="11">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Y13" s="11">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="Z13" s="11">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AA13" s="11">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AB13" s="11">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AC13" s="11">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AD13" s="11">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AE13" s="11">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AF13" s="11">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AG13" s="11">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AH13" s="11">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AI13" s="11">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AJ13" s="11">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AK13" s="11">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AL13" s="11">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AM13" s="11">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AN13" s="11">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AO13" s="11">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AP13" s="11">
-        <v>25616</v>
+        <v>25461</v>
       </c>
       <c r="AQ13" s="11">
-        <v>25461</v>
+        <v>11085</v>
       </c>
       <c r="AR13" s="11">
-        <v>11085</v>
+        <v>18055</v>
       </c>
       <c r="AS13" s="11">
-        <v>18055</v>
+        <v>33826</v>
       </c>
       <c r="AT13" s="11">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AU13" s="11">
-        <v>12712</v>
+        <v>19580</v>
       </c>
       <c r="AV13" s="11">
-        <v>19580</v>
+        <v>30927</v>
       </c>
       <c r="AW13" s="11">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AX13" s="11">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AY13" s="11">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="AZ13" s="11">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BA13" s="11">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="BB13" s="11">
-        <v>22661</v>
+        <v>29957</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2020,20 +2020,20 @@
       <c r="AG14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI14" s="13">
-        <v>0</v>
+      <c r="AH14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>0</v>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM14" s="13" t="s">
         <v>58</v>
@@ -2047,8 +2047,8 @@
       <c r="AP14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ14" s="13" t="s">
-        <v>58</v>
+      <c r="AQ14" s="13">
+        <v>0</v>
       </c>
       <c r="AR14" s="13">
         <v>0</v>
@@ -2179,20 +2179,20 @@
       <c r="AG15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>0</v>
+      <c r="AH15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>0</v>
+      <c r="AK15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM15" s="11" t="s">
         <v>58</v>
@@ -2206,8 +2206,8 @@
       <c r="AP15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ15" s="11" t="s">
-        <v>58</v>
+      <c r="AQ15" s="11">
+        <v>0</v>
       </c>
       <c r="AR15" s="11">
         <v>0</v>
@@ -2308,8 +2308,8 @@
       <c r="W16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="X16" s="13">
+        <v>0</v>
       </c>
       <c r="Y16" s="13">
         <v>0</v>
@@ -2338,8 +2338,8 @@
       <c r="AG16" s="13">
         <v>0</v>
       </c>
-      <c r="AH16" s="13">
-        <v>0</v>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2497,11 +2497,11 @@
       <c r="AG17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>58</v>
@@ -2524,8 +2524,8 @@
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
+      <c r="AQ17" s="11">
+        <v>0</v>
       </c>
       <c r="AR17" s="11">
         <v>0</v>
@@ -2656,11 +2656,11 @@
       <c r="AG18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>0</v>
+      <c r="AH18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="13" t="s">
         <v>58</v>
@@ -2683,8 +2683,8 @@
       <c r="AP18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
+      <c r="AQ18" s="13">
+        <v>0</v>
       </c>
       <c r="AR18" s="13">
         <v>0</v>
@@ -2839,26 +2839,26 @@
       <c r="AO19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP19" s="11" t="s">
-        <v>58</v>
+      <c r="AP19" s="11">
+        <v>3007</v>
       </c>
       <c r="AQ19" s="11">
-        <v>3007</v>
+        <v>399</v>
       </c>
       <c r="AR19" s="11">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="11">
         <v>0</v>
       </c>
       <c r="AU19" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV19" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="11">
         <v>0</v>
@@ -2937,103 +2937,103 @@
         <v>0</v>
       </c>
       <c r="V20" s="15">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="W20" s="15">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="X20" s="15">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Y20" s="15">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="Z20" s="15">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AA20" s="15">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AB20" s="15">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AC20" s="15">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AD20" s="15">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AE20" s="15">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AF20" s="15">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AG20" s="15">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AH20" s="15">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AI20" s="15">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AJ20" s="15">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AK20" s="15">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AL20" s="15">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AM20" s="15">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AN20" s="15">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AO20" s="15">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AP20" s="15">
-        <v>25616</v>
+        <v>28468</v>
       </c>
       <c r="AQ20" s="15">
-        <v>28468</v>
+        <v>11484</v>
       </c>
       <c r="AR20" s="15">
-        <v>11484</v>
+        <v>18056</v>
       </c>
       <c r="AS20" s="15">
-        <v>18056</v>
+        <v>33826</v>
       </c>
       <c r="AT20" s="15">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AU20" s="15">
-        <v>12712</v>
+        <v>19586</v>
       </c>
       <c r="AV20" s="15">
-        <v>19586</v>
+        <v>30927</v>
       </c>
       <c r="AW20" s="15">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AX20" s="15">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AY20" s="15">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="AZ20" s="15">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BA20" s="15">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="BB20" s="15">
-        <v>22661</v>
+        <v>29957</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3218,8 +3218,8 @@
       <c r="AQ22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="11" t="s">
-        <v>58</v>
+      <c r="AR22" s="11">
+        <v>0</v>
       </c>
       <c r="AS22" s="11">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="AU22" s="11">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AV22" s="11">
-        <v>198</v>
+        <v>-198</v>
       </c>
       <c r="AW22" s="11">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="11">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AU23" s="15">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AV23" s="15">
-        <v>198</v>
+        <v>-198</v>
       </c>
       <c r="AW23" s="15">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="15">
         <v>0</v>
@@ -3523,8 +3523,8 @@
       <c r="U25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V25" s="19" t="s">
-        <v>58</v>
+      <c r="V25" s="19">
+        <v>0</v>
       </c>
       <c r="W25" s="19">
         <v>0</v>
@@ -3681,103 +3681,103 @@
         <v>0</v>
       </c>
       <c r="V26" s="15">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="W26" s="15">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="X26" s="15">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Y26" s="15">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="Z26" s="15">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AA26" s="15">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AB26" s="15">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AC26" s="15">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AD26" s="15">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AE26" s="15">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AF26" s="15">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AG26" s="15">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AH26" s="15">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AI26" s="15">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AJ26" s="15">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AK26" s="15">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AL26" s="15">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AM26" s="15">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AN26" s="15">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AO26" s="15">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AP26" s="15">
-        <v>25616</v>
+        <v>28468</v>
       </c>
       <c r="AQ26" s="15">
-        <v>28468</v>
+        <v>11484</v>
       </c>
       <c r="AR26" s="15">
-        <v>11484</v>
+        <v>18056</v>
       </c>
       <c r="AS26" s="15">
-        <v>18056</v>
+        <v>33826</v>
       </c>
       <c r="AT26" s="15">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AU26" s="15">
-        <v>12712</v>
+        <v>19784</v>
       </c>
       <c r="AV26" s="15">
-        <v>19784</v>
+        <v>30729</v>
       </c>
       <c r="AW26" s="15">
-        <v>30729</v>
+        <v>30658</v>
       </c>
       <c r="AX26" s="15">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AY26" s="15">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="AZ26" s="15">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BA26" s="15">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="BB26" s="15">
-        <v>22661</v>
+        <v>29957</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4273,104 +4273,104 @@
       <c r="U33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V33" s="11" t="s">
-        <v>58</v>
+      <c r="V33" s="11">
+        <v>1570</v>
       </c>
       <c r="W33" s="11">
-        <v>1570</v>
+        <v>7282</v>
       </c>
       <c r="X33" s="11">
-        <v>7282</v>
+        <v>8156</v>
       </c>
       <c r="Y33" s="11">
-        <v>8156</v>
+        <v>33190</v>
       </c>
       <c r="Z33" s="11">
-        <v>33190</v>
+        <v>12978</v>
       </c>
       <c r="AA33" s="11">
-        <v>12978</v>
+        <v>16953</v>
       </c>
       <c r="AB33" s="11">
-        <v>16953</v>
+        <v>21970</v>
       </c>
       <c r="AC33" s="11">
-        <v>21970</v>
+        <v>58484</v>
       </c>
       <c r="AD33" s="11">
-        <v>58484</v>
+        <v>49364</v>
       </c>
       <c r="AE33" s="11">
-        <v>49364</v>
+        <v>19574</v>
       </c>
       <c r="AF33" s="11">
-        <v>19574</v>
+        <v>78855</v>
       </c>
       <c r="AG33" s="11">
-        <v>78855</v>
+        <v>61446</v>
       </c>
       <c r="AH33" s="11">
-        <v>61446</v>
+        <v>3995</v>
       </c>
       <c r="AI33" s="11">
-        <v>3995</v>
+        <v>11505</v>
       </c>
       <c r="AJ33" s="11">
-        <v>11505</v>
+        <v>9410</v>
       </c>
       <c r="AK33" s="11">
-        <v>9410</v>
+        <v>3118</v>
       </c>
       <c r="AL33" s="11">
-        <v>3118</v>
+        <v>5802</v>
       </c>
       <c r="AM33" s="11">
-        <v>5802</v>
+        <v>67448</v>
       </c>
       <c r="AN33" s="11">
-        <v>67448</v>
+        <v>27584</v>
       </c>
       <c r="AO33" s="11">
-        <v>27584</v>
+        <v>16784</v>
       </c>
       <c r="AP33" s="11">
-        <v>16784</v>
+        <v>5582</v>
       </c>
       <c r="AQ33" s="11">
-        <v>5582</v>
+        <v>7237</v>
       </c>
       <c r="AR33" s="11">
-        <v>7237</v>
+        <v>341</v>
       </c>
       <c r="AS33" s="11">
-        <v>341</v>
+        <v>4708</v>
       </c>
       <c r="AT33" s="11">
-        <v>4708</v>
+        <v>1825</v>
       </c>
       <c r="AU33" s="11">
-        <v>1825</v>
+        <v>6478</v>
       </c>
       <c r="AV33" s="11">
-        <v>6478</v>
+        <v>2416</v>
       </c>
       <c r="AW33" s="11">
-        <v>2416</v>
+        <v>2387</v>
       </c>
       <c r="AX33" s="11">
-        <v>2387</v>
+        <v>4538</v>
       </c>
       <c r="AY33" s="11">
-        <v>4538</v>
+        <v>1473</v>
       </c>
       <c r="AZ33" s="11">
-        <v>1473</v>
+        <v>345</v>
       </c>
       <c r="BA33" s="11">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="BB33" s="11">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4468,41 +4468,41 @@
       <c r="AG34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH34" s="13" t="s">
-        <v>58</v>
+      <c r="AH34" s="13">
+        <v>6970</v>
       </c>
       <c r="AI34" s="13">
-        <v>6970</v>
+        <v>4274</v>
       </c>
       <c r="AJ34" s="13">
-        <v>4274</v>
+        <v>1350</v>
       </c>
       <c r="AK34" s="13">
-        <v>1350</v>
+        <v>23738</v>
       </c>
       <c r="AL34" s="13">
-        <v>23738</v>
+        <v>1951</v>
       </c>
       <c r="AM34" s="13">
-        <v>1951</v>
+        <v>2589</v>
       </c>
       <c r="AN34" s="13">
-        <v>2589</v>
-      </c>
-      <c r="AO34" s="13">
         <v>543</v>
       </c>
-      <c r="AP34" s="13" t="s">
-        <v>58</v>
+      <c r="AO34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>76</v>
       </c>
       <c r="AQ34" s="13">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="13">
-        <v>0</v>
+        <v>-2024</v>
       </c>
       <c r="AS34" s="13">
-        <v>-2024</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="13">
         <v>0</v>
@@ -4591,104 +4591,104 @@
       <c r="U35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V35" s="11" t="s">
-        <v>58</v>
+      <c r="V35" s="11">
+        <v>18574</v>
       </c>
       <c r="W35" s="11">
-        <v>18574</v>
+        <v>21550</v>
       </c>
       <c r="X35" s="11">
-        <v>21550</v>
+        <v>19001</v>
       </c>
       <c r="Y35" s="11">
-        <v>19001</v>
+        <v>26133</v>
       </c>
       <c r="Z35" s="11">
-        <v>26133</v>
+        <v>26600</v>
       </c>
       <c r="AA35" s="11">
-        <v>26600</v>
+        <v>20831</v>
       </c>
       <c r="AB35" s="11">
-        <v>20831</v>
+        <v>23243</v>
       </c>
       <c r="AC35" s="11">
-        <v>23243</v>
+        <v>22308</v>
       </c>
       <c r="AD35" s="11">
-        <v>22308</v>
+        <v>26124</v>
       </c>
       <c r="AE35" s="11">
-        <v>26124</v>
+        <v>25599</v>
       </c>
       <c r="AF35" s="11">
-        <v>25599</v>
+        <v>29845</v>
       </c>
       <c r="AG35" s="11">
-        <v>29845</v>
+        <v>28703</v>
       </c>
       <c r="AH35" s="11">
-        <v>28703</v>
+        <v>23664</v>
       </c>
       <c r="AI35" s="11">
-        <v>23664</v>
+        <v>30075</v>
       </c>
       <c r="AJ35" s="11">
-        <v>30075</v>
+        <v>31006</v>
       </c>
       <c r="AK35" s="11">
-        <v>31006</v>
+        <v>29302</v>
       </c>
       <c r="AL35" s="11">
-        <v>29302</v>
+        <v>19214</v>
       </c>
       <c r="AM35" s="11">
-        <v>19214</v>
+        <v>21641</v>
       </c>
       <c r="AN35" s="11">
-        <v>21641</v>
+        <v>21178</v>
       </c>
       <c r="AO35" s="11">
-        <v>21178</v>
+        <v>23981</v>
       </c>
       <c r="AP35" s="11">
-        <v>23981</v>
+        <v>24784</v>
       </c>
       <c r="AQ35" s="11">
-        <v>24784</v>
+        <v>12038</v>
       </c>
       <c r="AR35" s="11">
-        <v>12038</v>
+        <v>17800</v>
       </c>
       <c r="AS35" s="11">
-        <v>17800</v>
+        <v>32070</v>
       </c>
       <c r="AT35" s="11">
-        <v>32070</v>
+        <v>11613</v>
       </c>
       <c r="AU35" s="11">
-        <v>11613</v>
+        <v>19106</v>
       </c>
       <c r="AV35" s="11">
-        <v>19106</v>
+        <v>30053</v>
       </c>
       <c r="AW35" s="11">
-        <v>30053</v>
+        <v>30071</v>
       </c>
       <c r="AX35" s="11">
-        <v>30071</v>
+        <v>11463</v>
       </c>
       <c r="AY35" s="11">
-        <v>11463</v>
+        <v>19984</v>
       </c>
       <c r="AZ35" s="11">
-        <v>19984</v>
+        <v>14224</v>
       </c>
       <c r="BA35" s="11">
-        <v>14224</v>
+        <v>21350</v>
       </c>
       <c r="BB35" s="11">
-        <v>21350</v>
+        <v>27614</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4786,38 +4786,38 @@
       <c r="AG36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH36" s="13" t="s">
-        <v>58</v>
+      <c r="AH36" s="13">
+        <v>38539</v>
       </c>
       <c r="AI36" s="13">
-        <v>38539</v>
+        <v>1520</v>
       </c>
       <c r="AJ36" s="13">
-        <v>1520</v>
+        <v>53</v>
       </c>
       <c r="AK36" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="13">
-        <v>0</v>
+        <v>50209</v>
       </c>
       <c r="AM36" s="13">
-        <v>50209</v>
+        <v>78984</v>
       </c>
       <c r="AN36" s="13">
-        <v>78984</v>
+        <v>20651</v>
       </c>
       <c r="AO36" s="13">
-        <v>20651</v>
+        <v>4540</v>
       </c>
       <c r="AP36" s="13">
-        <v>4540</v>
+        <v>444</v>
       </c>
       <c r="AQ36" s="13">
-        <v>444</v>
+        <v>85</v>
       </c>
       <c r="AR36" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="13">
         <v>0</v>
@@ -4945,68 +4945,68 @@
       <c r="AG37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH37" s="11" t="s">
-        <v>58</v>
+      <c r="AH37" s="11">
+        <v>361</v>
       </c>
       <c r="AI37" s="11">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="AJ37" s="11">
-        <v>399</v>
+        <v>622</v>
       </c>
       <c r="AK37" s="11">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="AL37" s="11">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AM37" s="11">
-        <v>127</v>
+        <v>901</v>
       </c>
       <c r="AN37" s="11">
-        <v>901</v>
+        <v>613</v>
       </c>
       <c r="AO37" s="11">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="AP37" s="11">
-        <v>707</v>
+        <v>249</v>
       </c>
       <c r="AQ37" s="11">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="AR37" s="11">
-        <v>231</v>
+        <v>-1270</v>
       </c>
       <c r="AS37" s="11">
-        <v>-1270</v>
+        <v>543</v>
       </c>
       <c r="AT37" s="11">
-        <v>543</v>
+        <v>89</v>
       </c>
       <c r="AU37" s="11">
-        <v>89</v>
+        <v>495</v>
       </c>
       <c r="AV37" s="11">
-        <v>495</v>
+        <v>194</v>
       </c>
       <c r="AW37" s="11">
-        <v>194</v>
+        <v>577</v>
       </c>
       <c r="AX37" s="11">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="AY37" s="11">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="AZ37" s="11">
-        <v>654</v>
+        <v>800</v>
       </c>
       <c r="BA37" s="11">
-        <v>800</v>
+        <v>393</v>
       </c>
       <c r="BB37" s="11">
-        <v>393</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5074,38 +5074,38 @@
       <c r="W38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
+      <c r="X38" s="13">
+        <v>23788</v>
       </c>
       <c r="Y38" s="13">
-        <v>23788</v>
+        <v>64731</v>
       </c>
       <c r="Z38" s="13">
-        <v>64731</v>
+        <v>24974</v>
       </c>
       <c r="AA38" s="13">
-        <v>24974</v>
+        <v>54120</v>
       </c>
       <c r="AB38" s="13">
-        <v>54120</v>
+        <v>49967</v>
       </c>
       <c r="AC38" s="13">
-        <v>49967</v>
+        <v>84145</v>
       </c>
       <c r="AD38" s="13">
-        <v>84145</v>
+        <v>32655</v>
       </c>
       <c r="AE38" s="13">
-        <v>32655</v>
+        <v>57220</v>
       </c>
       <c r="AF38" s="13">
-        <v>57220</v>
+        <v>37181</v>
       </c>
       <c r="AG38" s="13">
-        <v>37181</v>
-      </c>
-      <c r="AH38" s="13">
         <v>101160</v>
+      </c>
+      <c r="AH38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>58</v>
@@ -5263,32 +5263,32 @@
       <c r="AG39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH39" s="11" t="s">
-        <v>58</v>
+      <c r="AH39" s="11">
+        <v>0</v>
       </c>
       <c r="AI39" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ39" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AK39" s="11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL39" s="11">
-        <v>6</v>
-      </c>
-      <c r="AM39" s="11">
         <v>123</v>
       </c>
+      <c r="AM39" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN39" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP39" s="11" t="s">
-        <v>58</v>
+      <c r="AP39" s="11">
+        <v>0</v>
       </c>
       <c r="AQ39" s="11">
         <v>0</v>
@@ -5303,25 +5303,25 @@
         <v>0</v>
       </c>
       <c r="AU39" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV39" s="11">
         <v>1</v>
       </c>
       <c r="AW39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>706</v>
+      </c>
+      <c r="AZ39" s="11">
         <v>1</v>
       </c>
-      <c r="AX39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="11">
-        <v>706</v>
-      </c>
       <c r="BA39" s="11">
-        <v>1</v>
+        <v>-709</v>
       </c>
       <c r="BB39" s="11">
         <v>0</v>
@@ -5422,68 +5422,68 @@
       <c r="AG40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH40" s="13" t="s">
-        <v>58</v>
+      <c r="AH40" s="13">
+        <v>1853</v>
       </c>
       <c r="AI40" s="13">
-        <v>1853</v>
+        <v>1749</v>
       </c>
       <c r="AJ40" s="13">
-        <v>1749</v>
+        <v>1786</v>
       </c>
       <c r="AK40" s="13">
-        <v>1786</v>
+        <v>604</v>
       </c>
       <c r="AL40" s="13">
-        <v>604</v>
+        <v>1577</v>
       </c>
       <c r="AM40" s="13">
-        <v>1577</v>
+        <v>4075</v>
       </c>
       <c r="AN40" s="13">
-        <v>4075</v>
+        <v>656</v>
       </c>
       <c r="AO40" s="13">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="AP40" s="13">
-        <v>693</v>
+        <v>1701</v>
       </c>
       <c r="AQ40" s="13">
-        <v>1701</v>
+        <v>10</v>
       </c>
       <c r="AR40" s="13">
-        <v>10</v>
+        <v>765</v>
       </c>
       <c r="AS40" s="13">
-        <v>765</v>
+        <v>2332</v>
       </c>
       <c r="AT40" s="13">
-        <v>2332</v>
+        <v>513</v>
       </c>
       <c r="AU40" s="13">
-        <v>513</v>
+        <v>74</v>
       </c>
       <c r="AV40" s="13">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AW40" s="13">
-        <v>155</v>
+        <v>1114</v>
       </c>
       <c r="AX40" s="13">
-        <v>1114</v>
+        <v>3211</v>
       </c>
       <c r="AY40" s="13">
-        <v>3211</v>
+        <v>1338</v>
       </c>
       <c r="AZ40" s="13">
-        <v>1338</v>
+        <v>3623</v>
       </c>
       <c r="BA40" s="13">
-        <v>3623</v>
+        <v>3439</v>
       </c>
       <c r="BB40" s="13">
-        <v>3439</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5605,14 +5605,14 @@
       <c r="AO41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP41" s="11" t="s">
-        <v>58</v>
+      <c r="AP41" s="11">
+        <v>2974</v>
       </c>
       <c r="AQ41" s="11">
-        <v>2974</v>
+        <v>465</v>
       </c>
       <c r="AR41" s="11">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="11">
         <v>0</v>
@@ -5621,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="AU41" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV41" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="11">
         <v>0</v>
@@ -5703,103 +5703,103 @@
         <v>0</v>
       </c>
       <c r="V42" s="15">
-        <v>0</v>
+        <v>20144</v>
       </c>
       <c r="W42" s="15">
-        <v>20144</v>
+        <v>28832</v>
       </c>
       <c r="X42" s="15">
-        <v>28832</v>
+        <v>50945</v>
       </c>
       <c r="Y42" s="15">
-        <v>50945</v>
+        <v>124054</v>
       </c>
       <c r="Z42" s="15">
-        <v>124054</v>
+        <v>64552</v>
       </c>
       <c r="AA42" s="15">
-        <v>64552</v>
+        <v>91904</v>
       </c>
       <c r="AB42" s="15">
-        <v>91904</v>
+        <v>95180</v>
       </c>
       <c r="AC42" s="15">
-        <v>95180</v>
+        <v>164937</v>
       </c>
       <c r="AD42" s="15">
-        <v>164937</v>
+        <v>108143</v>
       </c>
       <c r="AE42" s="15">
-        <v>108143</v>
+        <v>102393</v>
       </c>
       <c r="AF42" s="15">
-        <v>102393</v>
+        <v>145881</v>
       </c>
       <c r="AG42" s="15">
-        <v>145881</v>
+        <v>191309</v>
       </c>
       <c r="AH42" s="15">
-        <v>191309</v>
+        <v>75382</v>
       </c>
       <c r="AI42" s="15">
-        <v>75382</v>
+        <v>49537</v>
       </c>
       <c r="AJ42" s="15">
-        <v>49537</v>
+        <v>44236</v>
       </c>
       <c r="AK42" s="15">
-        <v>44236</v>
+        <v>57252</v>
       </c>
       <c r="AL42" s="15">
-        <v>57252</v>
+        <v>79003</v>
       </c>
       <c r="AM42" s="15">
-        <v>79003</v>
+        <v>175638</v>
       </c>
       <c r="AN42" s="15">
-        <v>175638</v>
+        <v>71225</v>
       </c>
       <c r="AO42" s="15">
-        <v>71225</v>
+        <v>46705</v>
       </c>
       <c r="AP42" s="15">
-        <v>46705</v>
+        <v>35810</v>
       </c>
       <c r="AQ42" s="15">
-        <v>35810</v>
+        <v>20066</v>
       </c>
       <c r="AR42" s="15">
-        <v>20066</v>
+        <v>15612</v>
       </c>
       <c r="AS42" s="15">
-        <v>15612</v>
+        <v>39653</v>
       </c>
       <c r="AT42" s="15">
-        <v>39653</v>
+        <v>14040</v>
       </c>
       <c r="AU42" s="15">
-        <v>14040</v>
+        <v>26157</v>
       </c>
       <c r="AV42" s="15">
-        <v>26157</v>
+        <v>32819</v>
       </c>
       <c r="AW42" s="15">
-        <v>32819</v>
+        <v>34149</v>
       </c>
       <c r="AX42" s="15">
-        <v>34149</v>
+        <v>19852</v>
       </c>
       <c r="AY42" s="15">
-        <v>19852</v>
+        <v>24155</v>
       </c>
       <c r="AZ42" s="15">
-        <v>24155</v>
+        <v>18993</v>
       </c>
       <c r="BA42" s="15">
-        <v>18993</v>
+        <v>24773</v>
       </c>
       <c r="BB42" s="15">
-        <v>25482</v>
+        <v>32230</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5984,8 +5984,8 @@
       <c r="AQ44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="11" t="s">
-        <v>58</v>
+      <c r="AR44" s="11">
+        <v>0</v>
       </c>
       <c r="AS44" s="11">
         <v>0</v>
@@ -5997,19 +5997,19 @@
         <v>0</v>
       </c>
       <c r="AV44" s="11">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="AW44" s="11">
-        <v>709</v>
+        <v>176</v>
       </c>
       <c r="AX44" s="11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AY44" s="11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AZ44" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="11">
         <v>0</v>
@@ -6154,19 +6154,19 @@
         <v>0</v>
       </c>
       <c r="AV45" s="15">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="AW45" s="15">
-        <v>709</v>
+        <v>176</v>
       </c>
       <c r="AX45" s="15">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="15">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AZ45" s="15">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="15">
         <v>0</v>
@@ -6289,8 +6289,8 @@
       <c r="U47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V47" s="19" t="s">
-        <v>58</v>
+      <c r="V47" s="19">
+        <v>0</v>
       </c>
       <c r="W47" s="19">
         <v>0</v>
@@ -6580,8 +6580,8 @@
       <c r="AT49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU49" s="11" t="s">
-        <v>58</v>
+      <c r="AU49" s="11">
+        <v>0</v>
       </c>
       <c r="AV49" s="11">
         <v>0</v>
@@ -6590,16 +6590,16 @@
         <v>0</v>
       </c>
       <c r="AX49" s="11">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="AY49" s="11">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="11">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="BA49" s="11">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="11" t="s">
         <v>58</v>
@@ -6736,32 +6736,32 @@
       <c r="AS50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="13" t="s">
-        <v>58</v>
+      <c r="AT50" s="13">
+        <v>31</v>
       </c>
       <c r="AU50" s="13">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AV50" s="13">
-        <v>10</v>
+        <v>-103</v>
       </c>
       <c r="AW50" s="13">
-        <v>-103</v>
+        <v>-861</v>
       </c>
       <c r="AX50" s="13">
-        <v>-861</v>
+        <v>-133</v>
       </c>
       <c r="AY50" s="13">
-        <v>-133</v>
+        <v>-213</v>
       </c>
       <c r="AZ50" s="13">
-        <v>-213</v>
+        <v>-2400</v>
       </c>
       <c r="BA50" s="13">
-        <v>-2400</v>
-      </c>
-      <c r="BB50" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="BB50" s="13">
+        <v>-380</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6898,8 +6898,8 @@
       <c r="AT51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU51" s="11" t="s">
-        <v>58</v>
+      <c r="AU51" s="11">
+        <v>0</v>
       </c>
       <c r="AV51" s="11">
         <v>0</v>
@@ -6913,11 +6913,11 @@
       <c r="AY51" s="11">
         <v>0</v>
       </c>
-      <c r="AZ51" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA51" s="11" t="s">
-        <v>58</v>
+      <c r="AZ51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA51" s="11">
+        <v>0</v>
       </c>
       <c r="BB51" s="11" t="s">
         <v>58</v>
@@ -7063,23 +7063,23 @@
       <c r="AV52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW52" s="13" t="s">
-        <v>58</v>
+      <c r="AW52" s="13">
+        <v>0</v>
       </c>
       <c r="AX52" s="13">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="AY52" s="13">
-        <v>-18</v>
-      </c>
-      <c r="AZ52" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA52" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA52" s="13">
+        <v>-98</v>
       </c>
       <c r="BB52" s="13">
-        <v>-98</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7139,8 +7139,8 @@
       <c r="U53" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V53" s="19" t="s">
-        <v>58</v>
+      <c r="V53" s="19">
+        <v>0</v>
       </c>
       <c r="W53" s="19">
         <v>0</v>
@@ -7212,31 +7212,31 @@
         <v>0</v>
       </c>
       <c r="AT53" s="19">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU53" s="19">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AV53" s="19">
-        <v>10</v>
+        <v>-103</v>
       </c>
       <c r="AW53" s="19">
-        <v>-103</v>
+        <v>-861</v>
       </c>
       <c r="AX53" s="19">
-        <v>-861</v>
+        <v>-241</v>
       </c>
       <c r="AY53" s="19">
-        <v>-241</v>
+        <v>-213</v>
       </c>
       <c r="AZ53" s="19">
-        <v>-213</v>
+        <v>-2409</v>
       </c>
       <c r="BA53" s="19">
-        <v>-2409</v>
+        <v>-98</v>
       </c>
       <c r="BB53" s="19">
-        <v>-98</v>
+        <v>-405</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7297,103 +7297,103 @@
         <v>0</v>
       </c>
       <c r="V54" s="15">
-        <v>0</v>
+        <v>20144</v>
       </c>
       <c r="W54" s="15">
-        <v>20144</v>
+        <v>28832</v>
       </c>
       <c r="X54" s="15">
-        <v>28832</v>
+        <v>50945</v>
       </c>
       <c r="Y54" s="15">
-        <v>50945</v>
+        <v>124054</v>
       </c>
       <c r="Z54" s="15">
-        <v>124054</v>
+        <v>64552</v>
       </c>
       <c r="AA54" s="15">
-        <v>64552</v>
+        <v>91904</v>
       </c>
       <c r="AB54" s="15">
-        <v>91904</v>
+        <v>95180</v>
       </c>
       <c r="AC54" s="15">
-        <v>95180</v>
+        <v>164937</v>
       </c>
       <c r="AD54" s="15">
-        <v>164937</v>
+        <v>108143</v>
       </c>
       <c r="AE54" s="15">
-        <v>108143</v>
+        <v>102393</v>
       </c>
       <c r="AF54" s="15">
-        <v>102393</v>
+        <v>145881</v>
       </c>
       <c r="AG54" s="15">
-        <v>145881</v>
+        <v>191309</v>
       </c>
       <c r="AH54" s="15">
-        <v>191309</v>
+        <v>75382</v>
       </c>
       <c r="AI54" s="15">
-        <v>75382</v>
+        <v>49537</v>
       </c>
       <c r="AJ54" s="15">
-        <v>49537</v>
+        <v>44236</v>
       </c>
       <c r="AK54" s="15">
-        <v>44236</v>
+        <v>57252</v>
       </c>
       <c r="AL54" s="15">
-        <v>57252</v>
+        <v>79003</v>
       </c>
       <c r="AM54" s="15">
-        <v>79003</v>
+        <v>175638</v>
       </c>
       <c r="AN54" s="15">
-        <v>175638</v>
+        <v>71225</v>
       </c>
       <c r="AO54" s="15">
-        <v>71225</v>
+        <v>46705</v>
       </c>
       <c r="AP54" s="15">
-        <v>46705</v>
+        <v>35810</v>
       </c>
       <c r="AQ54" s="15">
-        <v>35810</v>
+        <v>20066</v>
       </c>
       <c r="AR54" s="15">
-        <v>20066</v>
+        <v>15612</v>
       </c>
       <c r="AS54" s="15">
-        <v>15612</v>
+        <v>39653</v>
       </c>
       <c r="AT54" s="15">
-        <v>39653</v>
+        <v>14071</v>
       </c>
       <c r="AU54" s="15">
-        <v>14071</v>
+        <v>26167</v>
       </c>
       <c r="AV54" s="15">
-        <v>26167</v>
+        <v>33425</v>
       </c>
       <c r="AW54" s="15">
-        <v>33425</v>
+        <v>33464</v>
       </c>
       <c r="AX54" s="15">
-        <v>33464</v>
+        <v>19611</v>
       </c>
       <c r="AY54" s="15">
-        <v>19611</v>
+        <v>23986</v>
       </c>
       <c r="AZ54" s="15">
-        <v>23986</v>
+        <v>16584</v>
       </c>
       <c r="BA54" s="15">
-        <v>16584</v>
+        <v>24675</v>
       </c>
       <c r="BB54" s="15">
-        <v>25384</v>
+        <v>31825</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7889,104 +7889,104 @@
       <c r="U61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V61" s="11" t="s">
-        <v>58</v>
+      <c r="V61" s="11">
+        <v>38045</v>
       </c>
       <c r="W61" s="11">
-        <v>38045</v>
+        <v>216653</v>
       </c>
       <c r="X61" s="11">
-        <v>216653</v>
+        <v>291100</v>
       </c>
       <c r="Y61" s="11">
-        <v>291100</v>
+        <v>1051185</v>
       </c>
       <c r="Z61" s="11">
-        <v>1051185</v>
+        <v>419637</v>
       </c>
       <c r="AA61" s="11">
-        <v>419637</v>
+        <v>875262</v>
       </c>
       <c r="AB61" s="11">
-        <v>875262</v>
+        <v>592811</v>
       </c>
       <c r="AC61" s="11">
-        <v>592811</v>
+        <v>897670</v>
       </c>
       <c r="AD61" s="11">
-        <v>897670</v>
+        <v>1545260</v>
       </c>
       <c r="AE61" s="11">
-        <v>1545260</v>
+        <v>568119</v>
       </c>
       <c r="AF61" s="11">
-        <v>568119</v>
+        <v>2531823</v>
       </c>
       <c r="AG61" s="11">
-        <v>2531823</v>
+        <v>1961109</v>
       </c>
       <c r="AH61" s="11">
-        <v>1961109</v>
+        <v>126271</v>
       </c>
       <c r="AI61" s="11">
-        <v>126271</v>
+        <v>331178</v>
       </c>
       <c r="AJ61" s="11">
-        <v>331178</v>
+        <v>382498</v>
       </c>
       <c r="AK61" s="11">
-        <v>382498</v>
+        <v>116072</v>
       </c>
       <c r="AL61" s="11">
-        <v>116072</v>
+        <v>218558</v>
       </c>
       <c r="AM61" s="11">
-        <v>218558</v>
+        <v>2348725</v>
       </c>
       <c r="AN61" s="11">
-        <v>2348725</v>
+        <v>972218</v>
       </c>
       <c r="AO61" s="11">
-        <v>972218</v>
+        <v>595595</v>
       </c>
       <c r="AP61" s="11">
-        <v>595595</v>
+        <v>210638</v>
       </c>
       <c r="AQ61" s="11">
-        <v>210638</v>
+        <v>283712</v>
       </c>
       <c r="AR61" s="11">
-        <v>283712</v>
+        <v>93439</v>
       </c>
       <c r="AS61" s="11">
-        <v>93439</v>
+        <v>190499</v>
       </c>
       <c r="AT61" s="11">
-        <v>190499</v>
+        <v>73711</v>
       </c>
       <c r="AU61" s="11">
-        <v>73711</v>
+        <v>268523</v>
       </c>
       <c r="AV61" s="11">
-        <v>268523</v>
+        <v>366123</v>
       </c>
       <c r="AW61" s="11">
-        <v>366123</v>
+        <v>399129</v>
       </c>
       <c r="AX61" s="11">
-        <v>399129</v>
+        <v>691858</v>
       </c>
       <c r="AY61" s="11">
-        <v>691858</v>
+        <v>185779</v>
       </c>
       <c r="AZ61" s="11">
-        <v>185779</v>
+        <v>46403</v>
       </c>
       <c r="BA61" s="11">
-        <v>46403</v>
+        <v>34407</v>
       </c>
       <c r="BB61" s="11">
-        <v>34407</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8084,41 +8084,41 @@
       <c r="AG62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH62" s="13" t="s">
-        <v>58</v>
+      <c r="AH62" s="13">
+        <v>118181</v>
       </c>
       <c r="AI62" s="13">
-        <v>118181</v>
+        <v>42668</v>
       </c>
       <c r="AJ62" s="13">
-        <v>42668</v>
+        <v>23041</v>
       </c>
       <c r="AK62" s="13">
-        <v>23041</v>
+        <v>448855</v>
       </c>
       <c r="AL62" s="13">
-        <v>448855</v>
+        <v>36965</v>
       </c>
       <c r="AM62" s="13">
-        <v>36965</v>
+        <v>48770</v>
       </c>
       <c r="AN62" s="13">
-        <v>48770</v>
+        <v>11254</v>
       </c>
       <c r="AO62" s="13">
-        <v>11254</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="13">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="AQ62" s="13">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="AR62" s="13">
-        <v>0</v>
+        <v>-3547</v>
       </c>
       <c r="AS62" s="13">
-        <v>-3547</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="13">
         <v>0</v>
@@ -8207,104 +8207,104 @@
       <c r="U63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V63" s="11" t="s">
-        <v>58</v>
+      <c r="V63" s="11">
+        <v>1604030</v>
       </c>
       <c r="W63" s="11">
-        <v>1604030</v>
+        <v>1859855</v>
       </c>
       <c r="X63" s="11">
-        <v>1859855</v>
+        <v>1639213</v>
       </c>
       <c r="Y63" s="11">
-        <v>1639213</v>
+        <v>2367900</v>
       </c>
       <c r="Z63" s="11">
-        <v>2367900</v>
+        <v>2414588</v>
       </c>
       <c r="AA63" s="11">
-        <v>2414588</v>
+        <v>1964271</v>
       </c>
       <c r="AB63" s="11">
-        <v>1964271</v>
+        <v>2346330</v>
       </c>
       <c r="AC63" s="11">
-        <v>2346330</v>
+        <v>2309549</v>
       </c>
       <c r="AD63" s="11">
-        <v>2309549</v>
+        <v>3011404</v>
       </c>
       <c r="AE63" s="11">
-        <v>3011404</v>
+        <v>3018621</v>
       </c>
       <c r="AF63" s="11">
-        <v>3018621</v>
+        <v>3416509</v>
       </c>
       <c r="AG63" s="11">
-        <v>3416509</v>
+        <v>3526008</v>
       </c>
       <c r="AH63" s="11">
-        <v>3526008</v>
+        <v>2844311</v>
       </c>
       <c r="AI63" s="11">
-        <v>2844311</v>
+        <v>3966805</v>
       </c>
       <c r="AJ63" s="11">
-        <v>3966805</v>
+        <v>4967577</v>
       </c>
       <c r="AK63" s="11">
-        <v>4967577</v>
+        <v>4636177</v>
       </c>
       <c r="AL63" s="11">
-        <v>4636177</v>
+        <v>3076244</v>
       </c>
       <c r="AM63" s="11">
-        <v>3076244</v>
+        <v>3288197</v>
       </c>
       <c r="AN63" s="11">
-        <v>3288197</v>
+        <v>3305843</v>
       </c>
       <c r="AO63" s="11">
-        <v>3305843</v>
+        <v>3500787</v>
       </c>
       <c r="AP63" s="11">
-        <v>3500787</v>
+        <v>3881656</v>
       </c>
       <c r="AQ63" s="11">
-        <v>3881656</v>
+        <v>1973279</v>
       </c>
       <c r="AR63" s="11">
-        <v>1973279</v>
+        <v>2798259</v>
       </c>
       <c r="AS63" s="11">
-        <v>2798259</v>
+        <v>5049052</v>
       </c>
       <c r="AT63" s="11">
-        <v>5049052</v>
+        <v>1892469</v>
       </c>
       <c r="AU63" s="11">
-        <v>1892469</v>
+        <v>8619443</v>
       </c>
       <c r="AV63" s="11">
-        <v>8619443</v>
+        <v>23303206</v>
       </c>
       <c r="AW63" s="11">
-        <v>23303206</v>
+        <v>23151597</v>
       </c>
       <c r="AX63" s="11">
-        <v>23151597</v>
+        <v>8014607</v>
       </c>
       <c r="AY63" s="11">
-        <v>8014607</v>
+        <v>13890751</v>
       </c>
       <c r="AZ63" s="11">
-        <v>13890751</v>
+        <v>9752148</v>
       </c>
       <c r="BA63" s="11">
-        <v>9752148</v>
+        <v>14600735</v>
       </c>
       <c r="BB63" s="11">
-        <v>14600735</v>
+        <v>18744343</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8402,38 +8402,38 @@
       <c r="AG64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH64" s="13" t="s">
-        <v>58</v>
+      <c r="AH64" s="13">
+        <v>1194711</v>
       </c>
       <c r="AI64" s="13">
-        <v>1194711</v>
+        <v>47133</v>
       </c>
       <c r="AJ64" s="13">
-        <v>47133</v>
+        <v>1649</v>
       </c>
       <c r="AK64" s="13">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="13">
-        <v>0</v>
+        <v>1757316</v>
       </c>
       <c r="AM64" s="13">
-        <v>1757316</v>
+        <v>2764442</v>
       </c>
       <c r="AN64" s="13">
-        <v>2764442</v>
+        <v>722794</v>
       </c>
       <c r="AO64" s="13">
-        <v>722794</v>
+        <v>158911</v>
       </c>
       <c r="AP64" s="13">
-        <v>158911</v>
+        <v>15530</v>
       </c>
       <c r="AQ64" s="13">
-        <v>15530</v>
+        <v>3597</v>
       </c>
       <c r="AR64" s="13">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="13">
         <v>0</v>
@@ -8561,68 +8561,68 @@
       <c r="AG65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH65" s="11" t="s">
-        <v>58</v>
+      <c r="AH65" s="11">
+        <v>27235</v>
       </c>
       <c r="AI65" s="11">
-        <v>27235</v>
+        <v>31845</v>
       </c>
       <c r="AJ65" s="11">
-        <v>31845</v>
+        <v>57821</v>
       </c>
       <c r="AK65" s="11">
-        <v>57821</v>
+        <v>46933</v>
       </c>
       <c r="AL65" s="11">
-        <v>46933</v>
+        <v>3450</v>
       </c>
       <c r="AM65" s="11">
-        <v>3450</v>
+        <v>90229</v>
       </c>
       <c r="AN65" s="11">
-        <v>90229</v>
+        <v>56728</v>
       </c>
       <c r="AO65" s="11">
-        <v>56728</v>
+        <v>71326</v>
       </c>
       <c r="AP65" s="11">
-        <v>71326</v>
+        <v>28617</v>
       </c>
       <c r="AQ65" s="11">
-        <v>28617</v>
+        <v>15805</v>
       </c>
       <c r="AR65" s="11">
-        <v>15805</v>
+        <v>-166965</v>
       </c>
       <c r="AS65" s="11">
-        <v>-166965</v>
+        <v>54353</v>
       </c>
       <c r="AT65" s="11">
-        <v>54353</v>
+        <v>6876</v>
       </c>
       <c r="AU65" s="11">
-        <v>6876</v>
+        <v>86041</v>
       </c>
       <c r="AV65" s="11">
-        <v>86041</v>
+        <v>16600</v>
       </c>
       <c r="AW65" s="11">
-        <v>16600</v>
+        <v>134209</v>
       </c>
       <c r="AX65" s="11">
-        <v>134209</v>
+        <v>99892</v>
       </c>
       <c r="AY65" s="11">
-        <v>99892</v>
+        <v>100746</v>
       </c>
       <c r="AZ65" s="11">
-        <v>100746</v>
+        <v>128100</v>
       </c>
       <c r="BA65" s="11">
-        <v>128100</v>
+        <v>52407</v>
       </c>
       <c r="BB65" s="11">
-        <v>52407</v>
+        <v>83966</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8690,38 +8690,38 @@
       <c r="W66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X66" s="13" t="s">
-        <v>58</v>
+      <c r="X66" s="13">
+        <v>356822</v>
       </c>
       <c r="Y66" s="13">
-        <v>356822</v>
+        <v>970965</v>
       </c>
       <c r="Z66" s="13">
-        <v>970965</v>
+        <v>374611</v>
       </c>
       <c r="AA66" s="13">
-        <v>374611</v>
+        <v>808490</v>
       </c>
       <c r="AB66" s="13">
-        <v>808490</v>
+        <v>745793</v>
       </c>
       <c r="AC66" s="13">
-        <v>745793</v>
+        <v>2263405</v>
       </c>
       <c r="AD66" s="13">
-        <v>2263405</v>
+        <v>666499</v>
       </c>
       <c r="AE66" s="13">
-        <v>666499</v>
+        <v>1652444</v>
       </c>
       <c r="AF66" s="13">
-        <v>1652444</v>
+        <v>851671</v>
       </c>
       <c r="AG66" s="13">
-        <v>851671</v>
-      </c>
-      <c r="AH66" s="13">
         <v>1940596</v>
+      </c>
+      <c r="AH66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI66" s="13" t="s">
         <v>58</v>
@@ -8879,68 +8879,68 @@
       <c r="AG67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH67" s="11" t="s">
-        <v>58</v>
+      <c r="AH67" s="11">
+        <v>4496</v>
       </c>
       <c r="AI67" s="11">
-        <v>4496</v>
+        <v>28013</v>
       </c>
       <c r="AJ67" s="11">
-        <v>28013</v>
+        <v>20412</v>
       </c>
       <c r="AK67" s="11">
-        <v>20412</v>
+        <v>21039</v>
       </c>
       <c r="AL67" s="11">
-        <v>21039</v>
+        <v>28100</v>
       </c>
       <c r="AM67" s="11">
-        <v>28100</v>
+        <v>7411</v>
       </c>
       <c r="AN67" s="11">
-        <v>7411</v>
+        <v>10064</v>
       </c>
       <c r="AO67" s="11">
-        <v>10064</v>
+        <v>37620</v>
       </c>
       <c r="AP67" s="11">
-        <v>37620</v>
+        <v>41440</v>
       </c>
       <c r="AQ67" s="11">
-        <v>41440</v>
+        <v>32862</v>
       </c>
       <c r="AR67" s="11">
-        <v>32862</v>
+        <v>-231457</v>
       </c>
       <c r="AS67" s="11">
-        <v>-231457</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="11">
-        <v>0</v>
+        <v>3994</v>
       </c>
       <c r="AU67" s="11">
-        <v>3994</v>
+        <v>9425</v>
       </c>
       <c r="AV67" s="11">
-        <v>9425</v>
+        <v>115963</v>
       </c>
       <c r="AW67" s="11">
-        <v>115963</v>
+        <v>21024</v>
       </c>
       <c r="AX67" s="11">
-        <v>21024</v>
+        <v>0</v>
       </c>
       <c r="AY67" s="11">
-        <v>0</v>
+        <v>33052</v>
       </c>
       <c r="AZ67" s="11">
-        <v>33052</v>
+        <v>14847</v>
       </c>
       <c r="BA67" s="11">
-        <v>14847</v>
+        <v>39167</v>
       </c>
       <c r="BB67" s="11">
-        <v>39167</v>
+        <v>16465</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9038,68 +9038,68 @@
       <c r="AG68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH68" s="13" t="s">
-        <v>58</v>
+      <c r="AH68" s="13">
+        <v>138156</v>
       </c>
       <c r="AI68" s="13">
-        <v>138156</v>
+        <v>122670</v>
       </c>
       <c r="AJ68" s="13">
-        <v>122670</v>
+        <v>152503</v>
       </c>
       <c r="AK68" s="13">
-        <v>152503</v>
+        <v>62125</v>
       </c>
       <c r="AL68" s="13">
-        <v>62125</v>
+        <v>127913</v>
       </c>
       <c r="AM68" s="13">
-        <v>127913</v>
+        <v>345314</v>
       </c>
       <c r="AN68" s="13">
-        <v>345314</v>
+        <v>66938</v>
       </c>
       <c r="AO68" s="13">
-        <v>66938</v>
+        <v>72616</v>
       </c>
       <c r="AP68" s="13">
-        <v>72616</v>
+        <v>146923</v>
       </c>
       <c r="AQ68" s="13">
-        <v>146923</v>
+        <v>13851</v>
       </c>
       <c r="AR68" s="13">
-        <v>13851</v>
+        <v>104215</v>
       </c>
       <c r="AS68" s="13">
-        <v>104215</v>
+        <v>252458</v>
       </c>
       <c r="AT68" s="13">
-        <v>252458</v>
+        <v>52591</v>
       </c>
       <c r="AU68" s="13">
-        <v>52591</v>
+        <v>16793</v>
       </c>
       <c r="AV68" s="13">
-        <v>16793</v>
+        <v>92104</v>
       </c>
       <c r="AW68" s="13">
-        <v>92104</v>
+        <v>624658</v>
       </c>
       <c r="AX68" s="13">
-        <v>624658</v>
+        <v>1676524</v>
       </c>
       <c r="AY68" s="13">
-        <v>1676524</v>
+        <v>704655</v>
       </c>
       <c r="AZ68" s="13">
-        <v>704655</v>
+        <v>1779377</v>
       </c>
       <c r="BA68" s="13">
-        <v>1779377</v>
+        <v>1578548</v>
       </c>
       <c r="BB68" s="13">
-        <v>1578548</v>
+        <v>1865390</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9221,14 +9221,14 @@
       <c r="AO69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP69" s="11" t="s">
-        <v>58</v>
+      <c r="AP69" s="11">
+        <v>22623</v>
       </c>
       <c r="AQ69" s="11">
-        <v>22623</v>
+        <v>3602</v>
       </c>
       <c r="AR69" s="11">
-        <v>3602</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="11">
         <v>0</v>
@@ -9237,22 +9237,22 @@
         <v>0</v>
       </c>
       <c r="AU69" s="11">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AV69" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AW69" s="11">
         <v>0</v>
       </c>
       <c r="AX69" s="11">
-        <v>0</v>
+        <v>17259</v>
       </c>
       <c r="AY69" s="11">
-        <v>17259</v>
+        <v>-17260</v>
       </c>
       <c r="AZ69" s="11">
-        <v>-17260</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="11">
         <v>0</v>
@@ -9319,103 +9319,103 @@
         <v>0</v>
       </c>
       <c r="V70" s="15">
-        <v>0</v>
+        <v>1642075</v>
       </c>
       <c r="W70" s="15">
-        <v>1642075</v>
+        <v>2076508</v>
       </c>
       <c r="X70" s="15">
-        <v>2076508</v>
+        <v>2287135</v>
       </c>
       <c r="Y70" s="15">
-        <v>2287135</v>
+        <v>4390050</v>
       </c>
       <c r="Z70" s="15">
-        <v>4390050</v>
+        <v>3208836</v>
       </c>
       <c r="AA70" s="15">
-        <v>3208836</v>
+        <v>3648023</v>
       </c>
       <c r="AB70" s="15">
-        <v>3648023</v>
+        <v>3684934</v>
       </c>
       <c r="AC70" s="15">
-        <v>3684934</v>
+        <v>5470624</v>
       </c>
       <c r="AD70" s="15">
-        <v>5470624</v>
+        <v>5223163</v>
       </c>
       <c r="AE70" s="15">
-        <v>5223163</v>
+        <v>5239184</v>
       </c>
       <c r="AF70" s="15">
-        <v>5239184</v>
+        <v>6800003</v>
       </c>
       <c r="AG70" s="15">
-        <v>6800003</v>
+        <v>7427713</v>
       </c>
       <c r="AH70" s="15">
-        <v>7427713</v>
+        <v>4453361</v>
       </c>
       <c r="AI70" s="15">
-        <v>4453361</v>
+        <v>4570312</v>
       </c>
       <c r="AJ70" s="15">
-        <v>4570312</v>
+        <v>5605501</v>
       </c>
       <c r="AK70" s="15">
-        <v>5605501</v>
+        <v>5331201</v>
       </c>
       <c r="AL70" s="15">
-        <v>5331201</v>
+        <v>5248546</v>
       </c>
       <c r="AM70" s="15">
-        <v>5248546</v>
+        <v>8893088</v>
       </c>
       <c r="AN70" s="15">
-        <v>8893088</v>
+        <v>5145839</v>
       </c>
       <c r="AO70" s="15">
-        <v>5145839</v>
+        <v>4436855</v>
       </c>
       <c r="AP70" s="15">
-        <v>4436855</v>
+        <v>4348578</v>
       </c>
       <c r="AQ70" s="15">
-        <v>4348578</v>
+        <v>2326708</v>
       </c>
       <c r="AR70" s="15">
-        <v>2326708</v>
+        <v>2593944</v>
       </c>
       <c r="AS70" s="15">
-        <v>2593944</v>
+        <v>5546362</v>
       </c>
       <c r="AT70" s="15">
-        <v>5546362</v>
+        <v>2029641</v>
       </c>
       <c r="AU70" s="15">
-        <v>2029641</v>
+        <v>9000259</v>
       </c>
       <c r="AV70" s="15">
-        <v>9000259</v>
+        <v>23893996</v>
       </c>
       <c r="AW70" s="15">
-        <v>23893996</v>
+        <v>24330617</v>
       </c>
       <c r="AX70" s="15">
-        <v>24330617</v>
+        <v>10500140</v>
       </c>
       <c r="AY70" s="15">
-        <v>10500140</v>
+        <v>14897723</v>
       </c>
       <c r="AZ70" s="15">
-        <v>14897723</v>
+        <v>11720875</v>
       </c>
       <c r="BA70" s="15">
-        <v>11720875</v>
+        <v>16305264</v>
       </c>
       <c r="BB70" s="15">
-        <v>16305264</v>
+        <v>20713765</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9600,8 +9600,8 @@
       <c r="AQ72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR72" s="11" t="s">
-        <v>58</v>
+      <c r="AR72" s="11">
+        <v>0</v>
       </c>
       <c r="AS72" s="11">
         <v>0</v>
@@ -9610,22 +9610,22 @@
         <v>0</v>
       </c>
       <c r="AU72" s="11">
-        <v>0</v>
+        <v>41933</v>
       </c>
       <c r="AV72" s="11">
-        <v>41933</v>
+        <v>128110</v>
       </c>
       <c r="AW72" s="11">
-        <v>128110</v>
+        <v>44111</v>
       </c>
       <c r="AX72" s="11">
-        <v>44111</v>
+        <v>0</v>
       </c>
       <c r="AY72" s="11">
-        <v>0</v>
+        <v>8164</v>
       </c>
       <c r="AZ72" s="11">
-        <v>8164</v>
+        <v>0</v>
       </c>
       <c r="BA72" s="11">
         <v>0</v>
@@ -9767,22 +9767,22 @@
         <v>0</v>
       </c>
       <c r="AU73" s="15">
-        <v>0</v>
+        <v>41933</v>
       </c>
       <c r="AV73" s="15">
-        <v>41933</v>
+        <v>128110</v>
       </c>
       <c r="AW73" s="15">
-        <v>128110</v>
+        <v>44111</v>
       </c>
       <c r="AX73" s="15">
-        <v>44111</v>
+        <v>0</v>
       </c>
       <c r="AY73" s="15">
-        <v>0</v>
+        <v>8164</v>
       </c>
       <c r="AZ73" s="15">
-        <v>8164</v>
+        <v>0</v>
       </c>
       <c r="BA73" s="15">
         <v>0</v>
@@ -9907,8 +9907,8 @@
       <c r="U75" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V75" s="19" t="s">
-        <v>58</v>
+      <c r="V75" s="19">
+        <v>0</v>
       </c>
       <c r="W75" s="19">
         <v>0</v>
@@ -10195,8 +10195,8 @@
       <c r="AS77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT77" s="11" t="s">
-        <v>58</v>
+      <c r="AT77" s="11">
+        <v>0</v>
       </c>
       <c r="AU77" s="11">
         <v>0</v>
@@ -10208,16 +10208,16 @@
         <v>0</v>
       </c>
       <c r="AX77" s="11">
-        <v>0</v>
+        <v>-3119</v>
       </c>
       <c r="AY77" s="11">
-        <v>-3119</v>
+        <v>0</v>
       </c>
       <c r="AZ77" s="11">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="BA77" s="11">
-        <v>-1060</v>
+        <v>0</v>
       </c>
       <c r="BB77" s="11">
         <v>0</v>
@@ -10354,32 +10354,32 @@
       <c r="AS78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT78" s="13" t="s">
-        <v>58</v>
+      <c r="AT78" s="13">
+        <v>-8247</v>
       </c>
       <c r="AU78" s="13">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AV78" s="13">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AW78" s="13">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AX78" s="13">
-        <v>-638551</v>
+        <v>-131582</v>
       </c>
       <c r="AY78" s="13">
-        <v>-131582</v>
+        <v>-18151</v>
       </c>
       <c r="AZ78" s="13">
-        <v>-18151</v>
+        <v>-1648504</v>
       </c>
       <c r="BA78" s="13">
-        <v>-1648504</v>
+        <v>0</v>
       </c>
       <c r="BB78" s="13">
-        <v>0</v>
+        <v>-226383</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10513,8 +10513,8 @@
       <c r="AS79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT79" s="11" t="s">
-        <v>58</v>
+      <c r="AT79" s="11">
+        <v>0</v>
       </c>
       <c r="AU79" s="11">
         <v>0</v>
@@ -10529,10 +10529,10 @@
         <v>0</v>
       </c>
       <c r="AY79" s="11">
-        <v>0</v>
+        <v>-487</v>
       </c>
       <c r="AZ79" s="11">
-        <v>-487</v>
+        <v>0</v>
       </c>
       <c r="BA79" s="11">
         <v>0</v>
@@ -10681,23 +10681,23 @@
       <c r="AV80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW80" s="13" t="s">
-        <v>58</v>
+      <c r="AW80" s="13">
+        <v>0</v>
       </c>
       <c r="AX80" s="13">
-        <v>0</v>
+        <v>-10428</v>
       </c>
       <c r="AY80" s="13">
-        <v>-10428</v>
+        <v>0</v>
       </c>
       <c r="AZ80" s="13">
         <v>0</v>
       </c>
       <c r="BA80" s="13">
-        <v>0</v>
+        <v>-64915</v>
       </c>
       <c r="BB80" s="13">
-        <v>-64915</v>
+        <v>-9975</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10759,8 +10759,8 @@
       <c r="U81" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="V81" s="19" t="s">
-        <v>58</v>
+      <c r="V81" s="19">
+        <v>0</v>
       </c>
       <c r="W81" s="19">
         <v>0</v>
@@ -10832,31 +10832,31 @@
         <v>0</v>
       </c>
       <c r="AT81" s="19">
-        <v>0</v>
+        <v>-8247</v>
       </c>
       <c r="AU81" s="19">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AV81" s="19">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AW81" s="19">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AX81" s="19">
-        <v>-638551</v>
+        <v>-145129</v>
       </c>
       <c r="AY81" s="19">
-        <v>-145129</v>
+        <v>-18638</v>
       </c>
       <c r="AZ81" s="19">
-        <v>-18638</v>
+        <v>-1649564</v>
       </c>
       <c r="BA81" s="19">
-        <v>-1649564</v>
+        <v>-64915</v>
       </c>
       <c r="BB81" s="19">
-        <v>-64915</v>
+        <v>-236358</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10975,8 +10975,8 @@
       <c r="U83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V83" s="11" t="s">
-        <v>58</v>
+      <c r="V83" s="11">
+        <v>0</v>
       </c>
       <c r="W83" s="11">
         <v>0</v>
@@ -11048,31 +11048,31 @@
         <v>0</v>
       </c>
       <c r="AT83" s="11">
-        <v>0</v>
+        <v>-5224</v>
       </c>
       <c r="AU83" s="11">
-        <v>-5224</v>
+        <v>-29405</v>
       </c>
       <c r="AV83" s="11">
-        <v>-29405</v>
+        <v>-26931</v>
       </c>
       <c r="AW83" s="11">
-        <v>-26931</v>
+        <v>-25157</v>
       </c>
       <c r="AX83" s="11">
-        <v>-25157</v>
+        <v>-2547350</v>
       </c>
       <c r="AY83" s="11">
-        <v>-2547350</v>
+        <v>-468268</v>
       </c>
       <c r="AZ83" s="11">
-        <v>-468268</v>
+        <v>-409471</v>
       </c>
       <c r="BA83" s="11">
-        <v>-409471</v>
+        <v>-651727</v>
       </c>
       <c r="BB83" s="11">
-        <v>-1978624</v>
+        <v>-467060</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11133,103 +11133,103 @@
         <v>0</v>
       </c>
       <c r="V84" s="15">
-        <v>0</v>
+        <v>1642075</v>
       </c>
       <c r="W84" s="15">
-        <v>1642075</v>
+        <v>2076508</v>
       </c>
       <c r="X84" s="15">
-        <v>2076508</v>
+        <v>2287135</v>
       </c>
       <c r="Y84" s="15">
-        <v>2287135</v>
+        <v>4390050</v>
       </c>
       <c r="Z84" s="15">
-        <v>4390050</v>
+        <v>3208836</v>
       </c>
       <c r="AA84" s="15">
-        <v>3208836</v>
+        <v>3648023</v>
       </c>
       <c r="AB84" s="15">
-        <v>3648023</v>
+        <v>3684934</v>
       </c>
       <c r="AC84" s="15">
-        <v>3684934</v>
+        <v>5470624</v>
       </c>
       <c r="AD84" s="15">
-        <v>5470624</v>
+        <v>5223163</v>
       </c>
       <c r="AE84" s="15">
-        <v>5223163</v>
+        <v>5239184</v>
       </c>
       <c r="AF84" s="15">
-        <v>5239184</v>
+        <v>6800003</v>
       </c>
       <c r="AG84" s="15">
-        <v>6800003</v>
+        <v>7427713</v>
       </c>
       <c r="AH84" s="15">
-        <v>7427713</v>
+        <v>4453361</v>
       </c>
       <c r="AI84" s="15">
-        <v>4453361</v>
+        <v>4570312</v>
       </c>
       <c r="AJ84" s="15">
-        <v>4570312</v>
+        <v>5605501</v>
       </c>
       <c r="AK84" s="15">
-        <v>5605501</v>
+        <v>5331201</v>
       </c>
       <c r="AL84" s="15">
-        <v>5331201</v>
+        <v>5248546</v>
       </c>
       <c r="AM84" s="15">
-        <v>5248546</v>
+        <v>8893088</v>
       </c>
       <c r="AN84" s="15">
-        <v>8893088</v>
+        <v>5145839</v>
       </c>
       <c r="AO84" s="15">
-        <v>5145839</v>
+        <v>4436855</v>
       </c>
       <c r="AP84" s="15">
-        <v>4436855</v>
+        <v>4348578</v>
       </c>
       <c r="AQ84" s="15">
-        <v>4348578</v>
+        <v>2326708</v>
       </c>
       <c r="AR84" s="15">
-        <v>2326708</v>
+        <v>2593944</v>
       </c>
       <c r="AS84" s="15">
-        <v>2593944</v>
+        <v>5546362</v>
       </c>
       <c r="AT84" s="15">
-        <v>5546362</v>
+        <v>2016170</v>
       </c>
       <c r="AU84" s="15">
-        <v>2016170</v>
+        <v>9004409</v>
       </c>
       <c r="AV84" s="15">
-        <v>9004409</v>
+        <v>23851122</v>
       </c>
       <c r="AW84" s="15">
-        <v>23851122</v>
+        <v>23711020</v>
       </c>
       <c r="AX84" s="15">
-        <v>23711020</v>
+        <v>7807661</v>
       </c>
       <c r="AY84" s="15">
-        <v>7807661</v>
+        <v>14418981</v>
       </c>
       <c r="AZ84" s="15">
-        <v>14418981</v>
+        <v>9661840</v>
       </c>
       <c r="BA84" s="15">
-        <v>9661840</v>
+        <v>15588622</v>
       </c>
       <c r="BB84" s="15">
-        <v>14261725</v>
+        <v>20010347</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11725,104 +11725,104 @@
       <c r="U91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V91" s="11" t="s">
-        <v>58</v>
+      <c r="V91" s="11">
+        <v>24232484</v>
       </c>
       <c r="W91" s="11">
-        <v>24232484</v>
+        <v>29751854</v>
       </c>
       <c r="X91" s="11">
-        <v>29751854</v>
+        <v>35691515</v>
       </c>
       <c r="Y91" s="11">
-        <v>35691515</v>
+        <v>31671738</v>
       </c>
       <c r="Z91" s="11">
-        <v>31671738</v>
+        <v>32334489</v>
       </c>
       <c r="AA91" s="11">
-        <v>32334489</v>
+        <v>51628738</v>
       </c>
       <c r="AB91" s="11">
-        <v>51628738</v>
+        <v>26982749</v>
       </c>
       <c r="AC91" s="11">
-        <v>26982749</v>
+        <v>15348984</v>
       </c>
       <c r="AD91" s="11">
-        <v>15348984</v>
+        <v>31303379</v>
       </c>
       <c r="AE91" s="11">
-        <v>31303379</v>
+        <v>29024165</v>
       </c>
       <c r="AF91" s="11">
-        <v>29024165</v>
+        <v>32107324</v>
       </c>
       <c r="AG91" s="11">
-        <v>32107324</v>
+        <v>31915975</v>
       </c>
       <c r="AH91" s="11">
-        <v>31915975</v>
+        <v>31607259</v>
       </c>
       <c r="AI91" s="11">
-        <v>31607259</v>
+        <v>28785571</v>
       </c>
       <c r="AJ91" s="11">
-        <v>28785571</v>
+        <v>40648034</v>
       </c>
       <c r="AK91" s="11">
-        <v>40648034</v>
+        <v>37226427</v>
       </c>
       <c r="AL91" s="11">
-        <v>37226427</v>
+        <v>37669424</v>
       </c>
       <c r="AM91" s="11">
-        <v>37669424</v>
+        <v>34822752</v>
       </c>
       <c r="AN91" s="11">
-        <v>34822752</v>
+        <v>35245722</v>
       </c>
       <c r="AO91" s="11">
-        <v>35245722</v>
+        <v>35485879</v>
       </c>
       <c r="AP91" s="11">
-        <v>35485879</v>
+        <v>37735220</v>
       </c>
       <c r="AQ91" s="11">
-        <v>37735220</v>
+        <v>39202985</v>
       </c>
       <c r="AR91" s="11">
-        <v>39202985</v>
+        <v>40494177</v>
       </c>
       <c r="AS91" s="11">
-        <v>40494177</v>
+        <v>40462829</v>
       </c>
       <c r="AT91" s="11">
-        <v>40462829</v>
+        <v>40389589</v>
       </c>
       <c r="AU91" s="11">
-        <v>40389589</v>
+        <v>41451528</v>
       </c>
       <c r="AV91" s="11">
-        <v>41451528</v>
+        <v>151540977</v>
       </c>
       <c r="AW91" s="11">
-        <v>151540977</v>
+        <v>167209468</v>
       </c>
       <c r="AX91" s="11">
-        <v>167209468</v>
+        <v>152458792</v>
       </c>
       <c r="AY91" s="11">
-        <v>152458792</v>
+        <v>126122878</v>
       </c>
       <c r="AZ91" s="11">
-        <v>126122878</v>
+        <v>134501449</v>
       </c>
       <c r="BA91" s="11">
-        <v>134501449</v>
+        <v>114690000</v>
       </c>
       <c r="BB91" s="11">
-        <v>114690000</v>
+        <v>120033333</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -11920,41 +11920,41 @@
       <c r="AG92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH92" s="13" t="s">
-        <v>58</v>
+      <c r="AH92" s="13">
+        <v>16955667</v>
       </c>
       <c r="AI92" s="13">
-        <v>16955667</v>
+        <v>9983154</v>
       </c>
       <c r="AJ92" s="13">
-        <v>9983154</v>
+        <v>17067407</v>
       </c>
       <c r="AK92" s="13">
-        <v>17067407</v>
+        <v>18908712</v>
       </c>
       <c r="AL92" s="13">
-        <v>18908712</v>
+        <v>18946694</v>
       </c>
       <c r="AM92" s="13">
-        <v>18946694</v>
+        <v>18837389</v>
       </c>
       <c r="AN92" s="13">
-        <v>18837389</v>
-      </c>
-      <c r="AO92" s="13">
         <v>20725599</v>
       </c>
-      <c r="AP92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ92" s="13">
+      <c r="AO92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP92" s="13">
         <v>15144737</v>
       </c>
-      <c r="AR92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS92" s="13">
+      <c r="AQ92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR92" s="13">
         <v>813510</v>
+      </c>
+      <c r="AS92" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT92" s="13" t="s">
         <v>58</v>
@@ -12043,104 +12043,104 @@
       <c r="U93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V93" s="11" t="s">
-        <v>58</v>
+      <c r="V93" s="11">
+        <v>86358889</v>
       </c>
       <c r="W93" s="11">
-        <v>86358889</v>
+        <v>86304176</v>
       </c>
       <c r="X93" s="11">
-        <v>86304176</v>
+        <v>86269828</v>
       </c>
       <c r="Y93" s="11">
-        <v>86269828</v>
+        <v>90609574</v>
       </c>
       <c r="Z93" s="11">
-        <v>90609574</v>
+        <v>90773985</v>
       </c>
       <c r="AA93" s="11">
-        <v>90773985</v>
+        <v>94295569</v>
       </c>
       <c r="AB93" s="11">
-        <v>94295569</v>
+        <v>100947812</v>
       </c>
       <c r="AC93" s="11">
-        <v>100947812</v>
+        <v>103530079</v>
       </c>
       <c r="AD93" s="11">
-        <v>103530079</v>
+        <v>115273465</v>
       </c>
       <c r="AE93" s="11">
-        <v>115273465</v>
+        <v>117919489</v>
       </c>
       <c r="AF93" s="11">
-        <v>117919489</v>
+        <v>114475088</v>
       </c>
       <c r="AG93" s="11">
-        <v>114475088</v>
+        <v>122844581</v>
       </c>
       <c r="AH93" s="11">
-        <v>122844581</v>
+        <v>120195698</v>
       </c>
       <c r="AI93" s="11">
-        <v>120195698</v>
+        <v>131897091</v>
       </c>
       <c r="AJ93" s="11">
-        <v>131897091</v>
+        <v>160213410</v>
       </c>
       <c r="AK93" s="11">
-        <v>160213410</v>
+        <v>158220497</v>
       </c>
       <c r="AL93" s="11">
-        <v>158220497</v>
+        <v>160104299</v>
       </c>
       <c r="AM93" s="11">
-        <v>160104299</v>
+        <v>151942932</v>
       </c>
       <c r="AN93" s="11">
-        <v>151942932</v>
+        <v>156097979</v>
       </c>
       <c r="AO93" s="11">
-        <v>156097979</v>
+        <v>145981694</v>
       </c>
       <c r="AP93" s="11">
-        <v>145981694</v>
+        <v>156619432</v>
       </c>
       <c r="AQ93" s="11">
-        <v>156619432</v>
+        <v>163920834</v>
       </c>
       <c r="AR93" s="11">
-        <v>163920834</v>
+        <v>157528182</v>
       </c>
       <c r="AS93" s="11">
-        <v>157528182</v>
+        <v>157438478</v>
       </c>
       <c r="AT93" s="11">
-        <v>157438478</v>
+        <v>162961250</v>
       </c>
       <c r="AU93" s="11">
-        <v>162961250</v>
+        <v>451138019</v>
       </c>
       <c r="AV93" s="11">
-        <v>451138019</v>
+        <v>775403654</v>
       </c>
       <c r="AW93" s="11">
-        <v>775403654</v>
+        <v>769897809</v>
       </c>
       <c r="AX93" s="11">
-        <v>769897809</v>
+        <v>699171857</v>
       </c>
       <c r="AY93" s="11">
-        <v>699171857</v>
+        <v>695093625</v>
       </c>
       <c r="AZ93" s="11">
-        <v>695093625</v>
+        <v>685612205</v>
       </c>
       <c r="BA93" s="11">
-        <v>685612205</v>
+        <v>683875176</v>
       </c>
       <c r="BB93" s="11">
-        <v>683875176</v>
+        <v>678798544</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -12238,41 +12238,41 @@
       <c r="AG94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH94" s="13" t="s">
-        <v>58</v>
+      <c r="AH94" s="13">
+        <v>31000052</v>
       </c>
       <c r="AI94" s="13">
-        <v>31000052</v>
+        <v>31008553</v>
       </c>
       <c r="AJ94" s="13">
-        <v>31008553</v>
-      </c>
-      <c r="AK94" s="13">
         <v>31113208</v>
       </c>
-      <c r="AL94" s="13" t="s">
-        <v>58</v>
+      <c r="AK94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL94" s="13">
+        <v>35000020</v>
       </c>
       <c r="AM94" s="13">
-        <v>35000020</v>
+        <v>35000025</v>
       </c>
       <c r="AN94" s="13">
-        <v>35000025</v>
+        <v>35000436</v>
       </c>
       <c r="AO94" s="13">
-        <v>35000436</v>
+        <v>35002423</v>
       </c>
       <c r="AP94" s="13">
-        <v>35002423</v>
+        <v>34977477</v>
       </c>
       <c r="AQ94" s="13">
-        <v>34977477</v>
+        <v>42317647</v>
       </c>
       <c r="AR94" s="13">
-        <v>42317647</v>
-      </c>
-      <c r="AS94" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS94" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT94" s="13" t="s">
         <v>58</v>
@@ -12397,68 +12397,68 @@
       <c r="AG95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH95" s="11" t="s">
-        <v>58</v>
+      <c r="AH95" s="11">
+        <v>75443213</v>
       </c>
       <c r="AI95" s="11">
-        <v>75443213</v>
+        <v>79812030</v>
       </c>
       <c r="AJ95" s="11">
-        <v>79812030</v>
+        <v>92959807</v>
       </c>
       <c r="AK95" s="11">
-        <v>92959807</v>
+        <v>96969008</v>
       </c>
       <c r="AL95" s="11">
-        <v>96969008</v>
+        <v>27165354</v>
       </c>
       <c r="AM95" s="11">
-        <v>27165354</v>
+        <v>100143174</v>
       </c>
       <c r="AN95" s="11">
-        <v>100143174</v>
+        <v>92541599</v>
       </c>
       <c r="AO95" s="11">
-        <v>92541599</v>
+        <v>100885431</v>
       </c>
       <c r="AP95" s="11">
-        <v>100885431</v>
+        <v>114927711</v>
       </c>
       <c r="AQ95" s="11">
-        <v>114927711</v>
+        <v>68419913</v>
       </c>
       <c r="AR95" s="11">
-        <v>68419913</v>
+        <v>111438221</v>
       </c>
       <c r="AS95" s="11">
-        <v>111438221</v>
+        <v>100097606</v>
       </c>
       <c r="AT95" s="11">
-        <v>100097606</v>
+        <v>77258427</v>
       </c>
       <c r="AU95" s="11">
-        <v>77258427</v>
+        <v>170983520</v>
       </c>
       <c r="AV95" s="11">
-        <v>170983520</v>
+        <v>85567010</v>
       </c>
       <c r="AW95" s="11">
-        <v>85567010</v>
+        <v>232597920</v>
       </c>
       <c r="AX95" s="11">
-        <v>232597920</v>
+        <v>156081250</v>
       </c>
       <c r="AY95" s="11">
-        <v>156081250</v>
+        <v>154045872</v>
       </c>
       <c r="AZ95" s="11">
-        <v>154045872</v>
+        <v>160125000</v>
       </c>
       <c r="BA95" s="11">
-        <v>160125000</v>
+        <v>133351145</v>
       </c>
       <c r="BB95" s="11">
-        <v>133351145</v>
+        <v>152943534</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12526,38 +12526,38 @@
       <c r="W96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X96" s="13" t="s">
-        <v>58</v>
+      <c r="X96" s="13">
+        <v>15000084</v>
       </c>
       <c r="Y96" s="13">
-        <v>15000084</v>
+        <v>15000000</v>
       </c>
       <c r="Z96" s="13">
-        <v>15000000</v>
+        <v>15000040</v>
       </c>
       <c r="AA96" s="13">
-        <v>15000040</v>
+        <v>14938840</v>
       </c>
       <c r="AB96" s="13">
-        <v>14938840</v>
+        <v>14925711</v>
       </c>
       <c r="AC96" s="13">
-        <v>14925711</v>
+        <v>26898865</v>
       </c>
       <c r="AD96" s="13">
-        <v>26898865</v>
+        <v>20410320</v>
       </c>
       <c r="AE96" s="13">
-        <v>20410320</v>
+        <v>28878784</v>
       </c>
       <c r="AF96" s="13">
-        <v>28878784</v>
+        <v>22906081</v>
       </c>
       <c r="AG96" s="13">
-        <v>22906081</v>
-      </c>
-      <c r="AH96" s="13">
         <v>19183432</v>
+      </c>
+      <c r="AH96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI96" s="13" t="s">
         <v>58</v>
@@ -12718,21 +12718,21 @@
       <c r="AH97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI97" s="11" t="s">
-        <v>58</v>
+      <c r="AI97" s="11">
+        <v>1867533333</v>
       </c>
       <c r="AJ97" s="11">
-        <v>1867533333</v>
+        <v>2268000000</v>
       </c>
       <c r="AK97" s="11">
-        <v>2268000000</v>
+        <v>3506500000</v>
       </c>
       <c r="AL97" s="11">
-        <v>3506500000</v>
-      </c>
-      <c r="AM97" s="11">
         <v>228455285</v>
       </c>
+      <c r="AM97" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN97" s="11" t="s">
         <v>58</v>
       </c>
@@ -12745,35 +12745,35 @@
       <c r="AQ97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS97" s="11">
+      <c r="AR97" s="11">
         <v>-3560876923</v>
       </c>
+      <c r="AS97" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU97" s="11" t="s">
-        <v>58</v>
+      <c r="AU97" s="11">
+        <v>9425000000</v>
       </c>
       <c r="AV97" s="11">
-        <v>9425000000</v>
+        <v>115963000000</v>
       </c>
       <c r="AW97" s="11">
-        <v>115963000000</v>
+        <v>0</v>
       </c>
       <c r="AX97" s="11">
         <v>0</v>
       </c>
       <c r="AY97" s="11">
-        <v>0</v>
+        <v>46746803</v>
       </c>
       <c r="AZ97" s="11">
-        <v>46746803</v>
-      </c>
-      <c r="BA97" s="11">
         <v>14847000000</v>
+      </c>
+      <c r="BA97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB97" s="11" t="s">
         <v>58</v>
@@ -12874,68 +12874,68 @@
       <c r="AG98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH98" s="13" t="s">
-        <v>58</v>
+      <c r="AH98" s="13">
+        <v>74558014</v>
       </c>
       <c r="AI98" s="13">
-        <v>74558014</v>
+        <v>70137221</v>
       </c>
       <c r="AJ98" s="13">
-        <v>70137221</v>
+        <v>85388018</v>
       </c>
       <c r="AK98" s="13">
-        <v>85388018</v>
+        <v>102855960</v>
       </c>
       <c r="AL98" s="13">
-        <v>102855960</v>
+        <v>81111604</v>
       </c>
       <c r="AM98" s="13">
-        <v>81111604</v>
+        <v>84739632</v>
       </c>
       <c r="AN98" s="13">
-        <v>84739632</v>
+        <v>102039634</v>
       </c>
       <c r="AO98" s="13">
-        <v>102039634</v>
+        <v>104784993</v>
       </c>
       <c r="AP98" s="13">
-        <v>104784993</v>
+        <v>86374486</v>
       </c>
       <c r="AQ98" s="13">
-        <v>86374486</v>
+        <v>1385100000</v>
       </c>
       <c r="AR98" s="13">
-        <v>1385100000</v>
+        <v>123944497</v>
       </c>
       <c r="AS98" s="13">
-        <v>123944497</v>
+        <v>108258148</v>
       </c>
       <c r="AT98" s="13">
-        <v>108258148</v>
+        <v>102516569</v>
       </c>
       <c r="AU98" s="13">
-        <v>102516569</v>
+        <v>226932432</v>
       </c>
       <c r="AV98" s="13">
-        <v>226932432</v>
+        <v>594219355</v>
       </c>
       <c r="AW98" s="13">
-        <v>594219355</v>
+        <v>560734291</v>
       </c>
       <c r="AX98" s="13">
-        <v>560734291</v>
+        <v>522118966</v>
       </c>
       <c r="AY98" s="13">
-        <v>522118966</v>
+        <v>526647982</v>
       </c>
       <c r="AZ98" s="13">
-        <v>526647982</v>
+        <v>491133591</v>
       </c>
       <c r="BA98" s="13">
-        <v>491133591</v>
+        <v>459013667</v>
       </c>
       <c r="BB98" s="13">
-        <v>459013667</v>
+        <v>462073322</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13057,26 +13057,26 @@
       <c r="AO99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP99" s="11" t="s">
-        <v>58</v>
+      <c r="AP99" s="11">
+        <v>7606927</v>
       </c>
       <c r="AQ99" s="11">
-        <v>7606927</v>
+        <v>7746237</v>
       </c>
       <c r="AR99" s="11">
-        <v>7746237</v>
-      </c>
-      <c r="AS99" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU99" s="11" t="s">
-        <v>58</v>
+      <c r="AU99" s="11">
+        <v>11333333</v>
       </c>
       <c r="AV99" s="11">
-        <v>11333333</v>
+        <v>0</v>
       </c>
       <c r="AW99" s="11">
         <v>0</v>
@@ -13085,13 +13085,13 @@
         <v>0</v>
       </c>
       <c r="AY99" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ99" s="11">
         <v>-5753333333</v>
       </c>
-      <c r="BA99" s="11" t="s">
-        <v>58</v>
+      <c r="AZ99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA99" s="11">
+        <v>0</v>
       </c>
       <c r="BB99" s="11" t="s">
         <v>58</v>
@@ -13279,11 +13279,11 @@
       <c r="AQ101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS101" s="11">
-        <v>0</v>
+      <c r="AR101" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT101" s="11" t="s">
         <v>58</v>
@@ -13291,23 +13291,23 @@
       <c r="AU101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV101" s="11" t="s">
-        <v>58</v>
+      <c r="AV101" s="11">
+        <v>157774313</v>
       </c>
       <c r="AW101" s="11">
-        <v>157774313</v>
+        <v>250630682</v>
       </c>
       <c r="AX101" s="11">
-        <v>250630682</v>
+        <v>0</v>
       </c>
       <c r="AY101" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ101" s="11">
         <v>185545455</v>
       </c>
-      <c r="BA101" s="11" t="s">
-        <v>58</v>
+      <c r="AZ101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA101" s="11">
+        <v>0</v>
       </c>
       <c r="BB101" s="11" t="s">
         <v>58</v>

--- a/database/industries/ghaza/ghekurosh/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghekurosh/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghekurosh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghekurosh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C805437-4076-4512-9EB2-D36D00F0E343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF30E3-E00D-4F7F-B4B7-22B9CF17C353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1402/02</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1492,8 +1492,8 @@
       <c r="P11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="11" t="s">
-        <v>58</v>
+      <c r="Q11" s="11">
+        <v>0</v>
       </c>
       <c r="R11" s="11">
         <v>0</v>
@@ -1531,8 +1531,8 @@
       <c r="AC11" s="11">
         <v>0</v>
       </c>
-      <c r="AD11" s="11">
-        <v>0</v>
+      <c r="AD11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE11" s="11" t="s">
         <v>58</v>
@@ -1555,14 +1555,14 @@
       <c r="AK11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>58</v>
+      <c r="AL11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0</v>
       </c>
       <c r="AO11" s="11">
         <v>0</v>
@@ -1687,20 +1687,20 @@
       <c r="AB12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>0</v>
+      <c r="AC12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>0</v>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH12" s="13" t="s">
         <v>58</v>
@@ -1714,14 +1714,14 @@
       <c r="AK12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="13" t="s">
-        <v>58</v>
+      <c r="AL12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>0</v>
       </c>
       <c r="AO12" s="13">
         <v>0</v>
@@ -1810,119 +1810,119 @@
       <c r="P13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="11" t="s">
-        <v>58</v>
+      <c r="Q13" s="11">
+        <v>17382</v>
       </c>
       <c r="R13" s="11">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="S13" s="11">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="T13" s="11">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="U13" s="11">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="V13" s="11">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="W13" s="11">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="X13" s="11">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="Y13" s="11">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="Z13" s="11">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AA13" s="11">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AB13" s="11">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AC13" s="11">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AD13" s="11">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AE13" s="11">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AF13" s="11">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AG13" s="11">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AH13" s="11">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AI13" s="11">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AJ13" s="11">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AK13" s="11">
-        <v>25616</v>
+        <v>25461</v>
       </c>
       <c r="AL13" s="11">
-        <v>25461</v>
+        <v>11085</v>
       </c>
       <c r="AM13" s="11">
-        <v>11085</v>
+        <v>19739</v>
       </c>
       <c r="AN13" s="11">
-        <v>19739</v>
+        <v>33826</v>
       </c>
       <c r="AO13" s="11">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AP13" s="11">
-        <v>12712</v>
+        <v>19580</v>
       </c>
       <c r="AQ13" s="11">
-        <v>19580</v>
+        <v>30927</v>
       </c>
       <c r="AR13" s="11">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AS13" s="11">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AT13" s="11">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="AU13" s="11">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="AV13" s="11">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="AW13" s="11">
-        <v>22661</v>
+        <v>29957</v>
       </c>
       <c r="AX13" s="11">
-        <v>29957</v>
+        <v>26199</v>
       </c>
       <c r="AY13" s="11">
-        <v>26199</v>
+        <v>33384</v>
       </c>
       <c r="AZ13" s="11">
-        <v>33384</v>
+        <v>30890</v>
       </c>
       <c r="BA13" s="11">
-        <v>30890</v>
+        <v>11796</v>
       </c>
       <c r="BB13" s="11">
-        <v>11796</v>
+        <v>24077</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2005,20 +2005,20 @@
       <c r="AB14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>0</v>
+      <c r="AC14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>0</v>
+      <c r="AF14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH14" s="13" t="s">
         <v>58</v>
@@ -2032,14 +2032,14 @@
       <c r="AK14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="13" t="s">
-        <v>58</v>
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>0</v>
       </c>
       <c r="AO14" s="13">
         <v>0</v>
@@ -2164,20 +2164,20 @@
       <c r="AB15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>0</v>
+      <c r="AC15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
+      <c r="AF15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>58</v>
@@ -2191,14 +2191,14 @@
       <c r="AK15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>58</v>
+      <c r="AL15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>0</v>
       </c>
       <c r="AO15" s="11">
         <v>0</v>
@@ -2293,8 +2293,8 @@
       <c r="R16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S16" s="13" t="s">
-        <v>58</v>
+      <c r="S16" s="13">
+        <v>0</v>
       </c>
       <c r="T16" s="13">
         <v>0</v>
@@ -2323,8 +2323,8 @@
       <c r="AB16" s="13">
         <v>0</v>
       </c>
-      <c r="AC16" s="13">
-        <v>0</v>
+      <c r="AC16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD16" s="13" t="s">
         <v>58</v>
@@ -2482,11 +2482,11 @@
       <c r="AB17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>0</v>
+      <c r="AC17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE17" s="11" t="s">
         <v>58</v>
@@ -2509,14 +2509,14 @@
       <c r="AK17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>58</v>
+      <c r="AL17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" s="11">
+        <v>0</v>
       </c>
       <c r="AO17" s="11">
         <v>0</v>
@@ -2641,11 +2641,11 @@
       <c r="AB18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>0</v>
+      <c r="AC18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE18" s="13" t="s">
         <v>58</v>
@@ -2668,14 +2668,14 @@
       <c r="AK18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="13" t="s">
-        <v>58</v>
+      <c r="AL18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>0</v>
       </c>
       <c r="AO18" s="13">
         <v>0</v>
@@ -2824,26 +2824,26 @@
       <c r="AJ19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK19" s="11" t="s">
-        <v>58</v>
+      <c r="AK19" s="11">
+        <v>3007</v>
       </c>
       <c r="AL19" s="11">
-        <v>3007</v>
+        <v>399</v>
       </c>
       <c r="AM19" s="11">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="11">
         <v>0</v>
       </c>
       <c r="AP19" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ19" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="11">
         <v>0</v>
@@ -2922,118 +2922,118 @@
         <v>0</v>
       </c>
       <c r="Q20" s="15">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="R20" s="15">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="S20" s="15">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="T20" s="15">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="U20" s="15">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="V20" s="15">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="W20" s="15">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="X20" s="15">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="Y20" s="15">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="Z20" s="15">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AA20" s="15">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AB20" s="15">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AC20" s="15">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AD20" s="15">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AE20" s="15">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AF20" s="15">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AG20" s="15">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AH20" s="15">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AI20" s="15">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AJ20" s="15">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AK20" s="15">
-        <v>25616</v>
+        <v>28468</v>
       </c>
       <c r="AL20" s="15">
-        <v>28468</v>
+        <v>11484</v>
       </c>
       <c r="AM20" s="15">
-        <v>11484</v>
+        <v>19740</v>
       </c>
       <c r="AN20" s="15">
-        <v>19740</v>
+        <v>33826</v>
       </c>
       <c r="AO20" s="15">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AP20" s="15">
-        <v>12712</v>
+        <v>19586</v>
       </c>
       <c r="AQ20" s="15">
-        <v>19586</v>
+        <v>30927</v>
       </c>
       <c r="AR20" s="15">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AS20" s="15">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AT20" s="15">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="AU20" s="15">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="AV20" s="15">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="AW20" s="15">
-        <v>22661</v>
+        <v>29957</v>
       </c>
       <c r="AX20" s="15">
-        <v>29957</v>
+        <v>26199</v>
       </c>
       <c r="AY20" s="15">
-        <v>26199</v>
+        <v>33384</v>
       </c>
       <c r="AZ20" s="15">
-        <v>33384</v>
+        <v>30890</v>
       </c>
       <c r="BA20" s="15">
-        <v>30890</v>
+        <v>11796</v>
       </c>
       <c r="BB20" s="15">
-        <v>11796</v>
+        <v>24077</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3206,8 +3206,8 @@
       <c r="AM22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="11" t="s">
-        <v>58</v>
+      <c r="AN22" s="11">
+        <v>0</v>
       </c>
       <c r="AO22" s="11">
         <v>0</v>
@@ -3222,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="AS22" s="11">
-        <v>0</v>
+        <v>12430</v>
       </c>
       <c r="AT22" s="11">
-        <v>12430</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="11">
         <v>0</v>
@@ -3379,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="AS23" s="15">
-        <v>0</v>
+        <v>12430</v>
       </c>
       <c r="AT23" s="15">
-        <v>12430</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="15">
         <v>0</v>
@@ -3508,8 +3508,8 @@
       <c r="P25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Q25" s="19" t="s">
-        <v>58</v>
+      <c r="Q25" s="19">
+        <v>0</v>
       </c>
       <c r="R25" s="19">
         <v>0</v>
@@ -3666,118 +3666,118 @@
         <v>0</v>
       </c>
       <c r="Q26" s="15">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="R26" s="15">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="S26" s="15">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="T26" s="15">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="U26" s="15">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="V26" s="15">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="W26" s="15">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="X26" s="15">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="Y26" s="15">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="Z26" s="15">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AA26" s="15">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AB26" s="15">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AC26" s="15">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AD26" s="15">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AE26" s="15">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AF26" s="15">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AG26" s="15">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AH26" s="15">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AI26" s="15">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AJ26" s="15">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AK26" s="15">
-        <v>25616</v>
+        <v>28468</v>
       </c>
       <c r="AL26" s="15">
-        <v>28468</v>
+        <v>11484</v>
       </c>
       <c r="AM26" s="15">
-        <v>11484</v>
+        <v>19740</v>
       </c>
       <c r="AN26" s="15">
-        <v>19740</v>
+        <v>33826</v>
       </c>
       <c r="AO26" s="15">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AP26" s="15">
-        <v>12712</v>
+        <v>19586</v>
       </c>
       <c r="AQ26" s="15">
-        <v>19586</v>
+        <v>30927</v>
       </c>
       <c r="AR26" s="15">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AS26" s="15">
-        <v>30658</v>
+        <v>24860</v>
       </c>
       <c r="AT26" s="15">
-        <v>24860</v>
+        <v>21707</v>
       </c>
       <c r="AU26" s="15">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="AV26" s="15">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="AW26" s="15">
-        <v>22661</v>
+        <v>29957</v>
       </c>
       <c r="AX26" s="15">
-        <v>29957</v>
+        <v>26199</v>
       </c>
       <c r="AY26" s="15">
-        <v>26199</v>
+        <v>33384</v>
       </c>
       <c r="AZ26" s="15">
-        <v>33384</v>
+        <v>30890</v>
       </c>
       <c r="BA26" s="15">
-        <v>30890</v>
+        <v>11796</v>
       </c>
       <c r="BB26" s="15">
-        <v>11796</v>
+        <v>24077</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4258,107 +4258,107 @@
       <c r="P33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="11" t="s">
-        <v>58</v>
+      <c r="Q33" s="11">
+        <v>1570</v>
       </c>
       <c r="R33" s="11">
-        <v>1570</v>
+        <v>7282</v>
       </c>
       <c r="S33" s="11">
-        <v>7282</v>
+        <v>8156</v>
       </c>
       <c r="T33" s="11">
-        <v>8156</v>
+        <v>33190</v>
       </c>
       <c r="U33" s="11">
-        <v>33190</v>
+        <v>12978</v>
       </c>
       <c r="V33" s="11">
-        <v>12978</v>
+        <v>16953</v>
       </c>
       <c r="W33" s="11">
-        <v>16953</v>
+        <v>21970</v>
       </c>
       <c r="X33" s="11">
-        <v>21970</v>
+        <v>58484</v>
       </c>
       <c r="Y33" s="11">
-        <v>58484</v>
+        <v>49364</v>
       </c>
       <c r="Z33" s="11">
-        <v>49364</v>
+        <v>19574</v>
       </c>
       <c r="AA33" s="11">
-        <v>19574</v>
+        <v>78855</v>
       </c>
       <c r="AB33" s="11">
-        <v>78855</v>
+        <v>61446</v>
       </c>
       <c r="AC33" s="11">
-        <v>61446</v>
+        <v>3995</v>
       </c>
       <c r="AD33" s="11">
-        <v>3995</v>
+        <v>11505</v>
       </c>
       <c r="AE33" s="11">
-        <v>11505</v>
+        <v>9410</v>
       </c>
       <c r="AF33" s="11">
-        <v>9410</v>
+        <v>3118</v>
       </c>
       <c r="AG33" s="11">
-        <v>3118</v>
+        <v>5802</v>
       </c>
       <c r="AH33" s="11">
-        <v>5802</v>
+        <v>67448</v>
       </c>
       <c r="AI33" s="11">
-        <v>67448</v>
+        <v>27584</v>
       </c>
       <c r="AJ33" s="11">
-        <v>27584</v>
+        <v>16784</v>
       </c>
       <c r="AK33" s="11">
-        <v>16784</v>
+        <v>5582</v>
       </c>
       <c r="AL33" s="11">
-        <v>5582</v>
+        <v>7237</v>
       </c>
       <c r="AM33" s="11">
-        <v>7237</v>
+        <v>2338</v>
       </c>
       <c r="AN33" s="11">
-        <v>2338</v>
+        <v>4708</v>
       </c>
       <c r="AO33" s="11">
-        <v>4708</v>
+        <v>1825</v>
       </c>
       <c r="AP33" s="11">
-        <v>1825</v>
+        <v>6478</v>
       </c>
       <c r="AQ33" s="11">
-        <v>6478</v>
+        <v>2416</v>
       </c>
       <c r="AR33" s="11">
-        <v>2416</v>
+        <v>2387</v>
       </c>
       <c r="AS33" s="11">
-        <v>2387</v>
+        <v>4538</v>
       </c>
       <c r="AT33" s="11">
-        <v>4538</v>
+        <v>1473</v>
       </c>
       <c r="AU33" s="11">
-        <v>1473</v>
+        <v>345</v>
       </c>
       <c r="AV33" s="11">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="AW33" s="11">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AX33" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="11">
         <v>0</v>
@@ -4453,35 +4453,35 @@
       <c r="AB34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC34" s="13" t="s">
-        <v>58</v>
+      <c r="AC34" s="13">
+        <v>6970</v>
       </c>
       <c r="AD34" s="13">
-        <v>6970</v>
+        <v>4274</v>
       </c>
       <c r="AE34" s="13">
-        <v>4274</v>
+        <v>1350</v>
       </c>
       <c r="AF34" s="13">
-        <v>1350</v>
+        <v>23738</v>
       </c>
       <c r="AG34" s="13">
-        <v>23738</v>
+        <v>1951</v>
       </c>
       <c r="AH34" s="13">
-        <v>1951</v>
+        <v>2589</v>
       </c>
       <c r="AI34" s="13">
-        <v>2589</v>
-      </c>
-      <c r="AJ34" s="13">
         <v>543</v>
       </c>
-      <c r="AK34" s="13" t="s">
-        <v>58</v>
+      <c r="AJ34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>76</v>
       </c>
       <c r="AL34" s="13">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="13">
         <v>0</v>
@@ -4517,19 +4517,19 @@
         <v>0</v>
       </c>
       <c r="AX34" s="13">
-        <v>0</v>
+        <v>6536</v>
       </c>
       <c r="AY34" s="13">
-        <v>6536</v>
+        <v>5253</v>
       </c>
       <c r="AZ34" s="13">
-        <v>5253</v>
+        <v>11983</v>
       </c>
       <c r="BA34" s="13">
-        <v>11983</v>
+        <v>16733</v>
       </c>
       <c r="BB34" s="13">
-        <v>16733</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4576,119 +4576,119 @@
       <c r="P35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="11" t="s">
-        <v>58</v>
+      <c r="Q35" s="11">
+        <v>18574</v>
       </c>
       <c r="R35" s="11">
-        <v>18574</v>
+        <v>21550</v>
       </c>
       <c r="S35" s="11">
-        <v>21550</v>
+        <v>19001</v>
       </c>
       <c r="T35" s="11">
-        <v>19001</v>
+        <v>26133</v>
       </c>
       <c r="U35" s="11">
-        <v>26133</v>
+        <v>26600</v>
       </c>
       <c r="V35" s="11">
-        <v>26600</v>
+        <v>20831</v>
       </c>
       <c r="W35" s="11">
-        <v>20831</v>
+        <v>23243</v>
       </c>
       <c r="X35" s="11">
-        <v>23243</v>
+        <v>22308</v>
       </c>
       <c r="Y35" s="11">
-        <v>22308</v>
+        <v>26124</v>
       </c>
       <c r="Z35" s="11">
-        <v>26124</v>
+        <v>25599</v>
       </c>
       <c r="AA35" s="11">
-        <v>25599</v>
+        <v>29845</v>
       </c>
       <c r="AB35" s="11">
-        <v>29845</v>
+        <v>28703</v>
       </c>
       <c r="AC35" s="11">
-        <v>28703</v>
+        <v>23664</v>
       </c>
       <c r="AD35" s="11">
-        <v>23664</v>
+        <v>30075</v>
       </c>
       <c r="AE35" s="11">
-        <v>30075</v>
+        <v>31006</v>
       </c>
       <c r="AF35" s="11">
-        <v>31006</v>
+        <v>29302</v>
       </c>
       <c r="AG35" s="11">
-        <v>29302</v>
+        <v>19214</v>
       </c>
       <c r="AH35" s="11">
-        <v>19214</v>
+        <v>21641</v>
       </c>
       <c r="AI35" s="11">
-        <v>21641</v>
+        <v>21178</v>
       </c>
       <c r="AJ35" s="11">
-        <v>21178</v>
+        <v>23981</v>
       </c>
       <c r="AK35" s="11">
-        <v>23981</v>
+        <v>24784</v>
       </c>
       <c r="AL35" s="11">
-        <v>24784</v>
+        <v>12038</v>
       </c>
       <c r="AM35" s="11">
-        <v>12038</v>
+        <v>18373</v>
       </c>
       <c r="AN35" s="11">
-        <v>18373</v>
+        <v>32070</v>
       </c>
       <c r="AO35" s="11">
-        <v>32070</v>
+        <v>11613</v>
       </c>
       <c r="AP35" s="11">
-        <v>11613</v>
+        <v>19106</v>
       </c>
       <c r="AQ35" s="11">
-        <v>19106</v>
+        <v>30053</v>
       </c>
       <c r="AR35" s="11">
-        <v>30053</v>
+        <v>30071</v>
       </c>
       <c r="AS35" s="11">
-        <v>30071</v>
+        <v>11463</v>
       </c>
       <c r="AT35" s="11">
-        <v>11463</v>
+        <v>19984</v>
       </c>
       <c r="AU35" s="11">
-        <v>19984</v>
+        <v>14224</v>
       </c>
       <c r="AV35" s="11">
-        <v>14224</v>
+        <v>21350</v>
       </c>
       <c r="AW35" s="11">
-        <v>21350</v>
+        <v>27614</v>
       </c>
       <c r="AX35" s="11">
-        <v>27614</v>
+        <v>24343</v>
       </c>
       <c r="AY35" s="11">
-        <v>24343</v>
+        <v>29023</v>
       </c>
       <c r="AZ35" s="11">
-        <v>29023</v>
+        <v>29094</v>
       </c>
       <c r="BA35" s="11">
-        <v>29094</v>
+        <v>10580</v>
       </c>
       <c r="BB35" s="11">
-        <v>10580</v>
+        <v>22183</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4771,38 +4771,38 @@
       <c r="AB36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC36" s="13" t="s">
-        <v>58</v>
+      <c r="AC36" s="13">
+        <v>38539</v>
       </c>
       <c r="AD36" s="13">
-        <v>38539</v>
+        <v>1520</v>
       </c>
       <c r="AE36" s="13">
-        <v>1520</v>
+        <v>53</v>
       </c>
       <c r="AF36" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="13">
-        <v>0</v>
+        <v>50209</v>
       </c>
       <c r="AH36" s="13">
-        <v>50209</v>
+        <v>78984</v>
       </c>
       <c r="AI36" s="13">
-        <v>78984</v>
+        <v>20651</v>
       </c>
       <c r="AJ36" s="13">
-        <v>20651</v>
+        <v>4540</v>
       </c>
       <c r="AK36" s="13">
-        <v>4540</v>
+        <v>444</v>
       </c>
       <c r="AL36" s="13">
-        <v>444</v>
+        <v>85</v>
       </c>
       <c r="AM36" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="13">
         <v>0</v>
@@ -4930,83 +4930,83 @@
       <c r="AB37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC37" s="11" t="s">
-        <v>58</v>
+      <c r="AC37" s="11">
+        <v>361</v>
       </c>
       <c r="AD37" s="11">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="AE37" s="11">
-        <v>399</v>
+        <v>622</v>
       </c>
       <c r="AF37" s="11">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="AG37" s="11">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AH37" s="11">
-        <v>127</v>
+        <v>901</v>
       </c>
       <c r="AI37" s="11">
-        <v>901</v>
+        <v>613</v>
       </c>
       <c r="AJ37" s="11">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="AK37" s="11">
-        <v>707</v>
+        <v>249</v>
       </c>
       <c r="AL37" s="11">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="AM37" s="11">
-        <v>231</v>
+        <v>927</v>
       </c>
       <c r="AN37" s="11">
-        <v>927</v>
+        <v>543</v>
       </c>
       <c r="AO37" s="11">
-        <v>543</v>
+        <v>89</v>
       </c>
       <c r="AP37" s="11">
-        <v>89</v>
+        <v>711</v>
       </c>
       <c r="AQ37" s="11">
-        <v>711</v>
+        <v>194</v>
       </c>
       <c r="AR37" s="11">
-        <v>194</v>
+        <v>577</v>
       </c>
       <c r="AS37" s="11">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="AT37" s="11">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="AU37" s="11">
-        <v>654</v>
+        <v>800</v>
       </c>
       <c r="AV37" s="11">
-        <v>800</v>
+        <v>393</v>
       </c>
       <c r="AW37" s="11">
-        <v>393</v>
+        <v>549</v>
       </c>
       <c r="AX37" s="11">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="AY37" s="11">
-        <v>623</v>
+        <v>1033</v>
       </c>
       <c r="AZ37" s="11">
-        <v>1033</v>
+        <v>766</v>
       </c>
       <c r="BA37" s="11">
-        <v>766</v>
+        <v>81</v>
       </c>
       <c r="BB37" s="11">
-        <v>81</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5059,38 +5059,38 @@
       <c r="R38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S38" s="13" t="s">
-        <v>58</v>
+      <c r="S38" s="13">
+        <v>23788</v>
       </c>
       <c r="T38" s="13">
-        <v>23788</v>
+        <v>64731</v>
       </c>
       <c r="U38" s="13">
-        <v>64731</v>
+        <v>24974</v>
       </c>
       <c r="V38" s="13">
-        <v>24974</v>
+        <v>54120</v>
       </c>
       <c r="W38" s="13">
-        <v>54120</v>
+        <v>49967</v>
       </c>
       <c r="X38" s="13">
-        <v>49967</v>
+        <v>84145</v>
       </c>
       <c r="Y38" s="13">
-        <v>84145</v>
+        <v>32655</v>
       </c>
       <c r="Z38" s="13">
-        <v>32655</v>
+        <v>57220</v>
       </c>
       <c r="AA38" s="13">
-        <v>57220</v>
+        <v>37181</v>
       </c>
       <c r="AB38" s="13">
-        <v>37181</v>
-      </c>
-      <c r="AC38" s="13">
         <v>101160</v>
+      </c>
+      <c r="AC38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD38" s="13" t="s">
         <v>58</v>
@@ -5248,83 +5248,83 @@
       <c r="AB39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC39" s="11" t="s">
-        <v>58</v>
+      <c r="AC39" s="11">
+        <v>0</v>
       </c>
       <c r="AD39" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE39" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AF39" s="11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG39" s="11">
-        <v>6</v>
-      </c>
-      <c r="AH39" s="11">
         <v>123</v>
       </c>
+      <c r="AH39" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI39" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AJ39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK39" s="11" t="s">
-        <v>58</v>
+      <c r="AK39" s="11">
+        <v>0</v>
       </c>
       <c r="AL39" s="11">
         <v>0</v>
       </c>
       <c r="AM39" s="11">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN39" s="11">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="11">
         <v>0</v>
       </c>
       <c r="AP39" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="11">
         <v>1</v>
       </c>
       <c r="AR39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>706</v>
+      </c>
+      <c r="AU39" s="11">
         <v>1</v>
       </c>
-      <c r="AS39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>706</v>
-      </c>
       <c r="AV39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="11">
+        <v>358</v>
+      </c>
+      <c r="BA39" s="11">
         <v>1</v>
       </c>
-      <c r="AW39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="11">
-        <v>358</v>
-      </c>
       <c r="BB39" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5407,83 +5407,83 @@
       <c r="AB40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC40" s="13" t="s">
-        <v>58</v>
+      <c r="AC40" s="13">
+        <v>1853</v>
       </c>
       <c r="AD40" s="13">
-        <v>1853</v>
+        <v>1749</v>
       </c>
       <c r="AE40" s="13">
-        <v>1749</v>
+        <v>1786</v>
       </c>
       <c r="AF40" s="13">
-        <v>1786</v>
+        <v>604</v>
       </c>
       <c r="AG40" s="13">
-        <v>604</v>
+        <v>1577</v>
       </c>
       <c r="AH40" s="13">
-        <v>1577</v>
+        <v>4075</v>
       </c>
       <c r="AI40" s="13">
-        <v>4075</v>
+        <v>656</v>
       </c>
       <c r="AJ40" s="13">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="AK40" s="13">
-        <v>693</v>
+        <v>1701</v>
       </c>
       <c r="AL40" s="13">
-        <v>1701</v>
+        <v>10</v>
       </c>
       <c r="AM40" s="13">
-        <v>10</v>
+        <v>756</v>
       </c>
       <c r="AN40" s="13">
-        <v>756</v>
+        <v>2332</v>
       </c>
       <c r="AO40" s="13">
-        <v>2332</v>
+        <v>513</v>
       </c>
       <c r="AP40" s="13">
-        <v>513</v>
+        <v>74</v>
       </c>
       <c r="AQ40" s="13">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AR40" s="13">
-        <v>155</v>
+        <v>1114</v>
       </c>
       <c r="AS40" s="13">
-        <v>1114</v>
+        <v>3211</v>
       </c>
       <c r="AT40" s="13">
-        <v>3211</v>
+        <v>1338</v>
       </c>
       <c r="AU40" s="13">
-        <v>1338</v>
+        <v>3623</v>
       </c>
       <c r="AV40" s="13">
-        <v>3623</v>
+        <v>3439</v>
       </c>
       <c r="AW40" s="13">
-        <v>3439</v>
+        <v>4037</v>
       </c>
       <c r="AX40" s="13">
-        <v>4037</v>
+        <v>4825</v>
       </c>
       <c r="AY40" s="13">
-        <v>4825</v>
+        <v>2929</v>
       </c>
       <c r="AZ40" s="13">
-        <v>2929</v>
+        <v>3887</v>
       </c>
       <c r="BA40" s="13">
-        <v>3887</v>
+        <v>288</v>
       </c>
       <c r="BB40" s="13">
-        <v>288</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5590,14 +5590,14 @@
       <c r="AJ41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK41" s="11" t="s">
-        <v>58</v>
+      <c r="AK41" s="11">
+        <v>2974</v>
       </c>
       <c r="AL41" s="11">
-        <v>2974</v>
+        <v>465</v>
       </c>
       <c r="AM41" s="11">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="11">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ41" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="11">
         <v>0</v>
@@ -5688,118 +5688,118 @@
         <v>0</v>
       </c>
       <c r="Q42" s="15">
-        <v>0</v>
+        <v>20144</v>
       </c>
       <c r="R42" s="15">
-        <v>20144</v>
+        <v>28832</v>
       </c>
       <c r="S42" s="15">
-        <v>28832</v>
+        <v>50945</v>
       </c>
       <c r="T42" s="15">
-        <v>50945</v>
+        <v>124054</v>
       </c>
       <c r="U42" s="15">
-        <v>124054</v>
+        <v>64552</v>
       </c>
       <c r="V42" s="15">
-        <v>64552</v>
+        <v>91904</v>
       </c>
       <c r="W42" s="15">
-        <v>91904</v>
+        <v>95180</v>
       </c>
       <c r="X42" s="15">
-        <v>95180</v>
+        <v>164937</v>
       </c>
       <c r="Y42" s="15">
-        <v>164937</v>
+        <v>108143</v>
       </c>
       <c r="Z42" s="15">
-        <v>108143</v>
+        <v>102393</v>
       </c>
       <c r="AA42" s="15">
-        <v>102393</v>
+        <v>145881</v>
       </c>
       <c r="AB42" s="15">
-        <v>145881</v>
+        <v>191309</v>
       </c>
       <c r="AC42" s="15">
-        <v>191309</v>
+        <v>75382</v>
       </c>
       <c r="AD42" s="15">
-        <v>75382</v>
+        <v>49537</v>
       </c>
       <c r="AE42" s="15">
-        <v>49537</v>
+        <v>44236</v>
       </c>
       <c r="AF42" s="15">
-        <v>44236</v>
+        <v>57252</v>
       </c>
       <c r="AG42" s="15">
-        <v>57252</v>
+        <v>79003</v>
       </c>
       <c r="AH42" s="15">
-        <v>79003</v>
+        <v>175638</v>
       </c>
       <c r="AI42" s="15">
-        <v>175638</v>
+        <v>71225</v>
       </c>
       <c r="AJ42" s="15">
-        <v>71225</v>
+        <v>46705</v>
       </c>
       <c r="AK42" s="15">
-        <v>46705</v>
+        <v>35810</v>
       </c>
       <c r="AL42" s="15">
-        <v>35810</v>
+        <v>20066</v>
       </c>
       <c r="AM42" s="15">
-        <v>20066</v>
+        <v>22459</v>
       </c>
       <c r="AN42" s="15">
-        <v>22459</v>
+        <v>39653</v>
       </c>
       <c r="AO42" s="15">
-        <v>39653</v>
+        <v>14040</v>
       </c>
       <c r="AP42" s="15">
-        <v>14040</v>
+        <v>26373</v>
       </c>
       <c r="AQ42" s="15">
-        <v>26373</v>
+        <v>32819</v>
       </c>
       <c r="AR42" s="15">
-        <v>32819</v>
+        <v>34149</v>
       </c>
       <c r="AS42" s="15">
-        <v>34149</v>
+        <v>19852</v>
       </c>
       <c r="AT42" s="15">
-        <v>19852</v>
+        <v>24155</v>
       </c>
       <c r="AU42" s="15">
-        <v>24155</v>
+        <v>18993</v>
       </c>
       <c r="AV42" s="15">
-        <v>18993</v>
+        <v>25482</v>
       </c>
       <c r="AW42" s="15">
-        <v>25482</v>
+        <v>32230</v>
       </c>
       <c r="AX42" s="15">
-        <v>32230</v>
+        <v>36327</v>
       </c>
       <c r="AY42" s="15">
-        <v>36327</v>
+        <v>38238</v>
       </c>
       <c r="AZ42" s="15">
-        <v>38238</v>
+        <v>46088</v>
       </c>
       <c r="BA42" s="15">
-        <v>46088</v>
+        <v>27683</v>
       </c>
       <c r="BB42" s="15">
-        <v>27683</v>
+        <v>32925</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5972,8 +5972,8 @@
       <c r="AM44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN44" s="11" t="s">
-        <v>58</v>
+      <c r="AN44" s="11">
+        <v>0</v>
       </c>
       <c r="AO44" s="11">
         <v>0</v>
@@ -5982,19 +5982,19 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="11">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="AR44" s="11">
-        <v>511</v>
+        <v>176</v>
       </c>
       <c r="AS44" s="11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AU44" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="11">
         <v>0</v>
@@ -6139,19 +6139,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="15">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="AR45" s="15">
-        <v>511</v>
+        <v>176</v>
       </c>
       <c r="AS45" s="15">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="15">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AU45" s="15">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="15">
         <v>0</v>
@@ -6274,8 +6274,8 @@
       <c r="P47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Q47" s="19" t="s">
-        <v>58</v>
+      <c r="Q47" s="19">
+        <v>0</v>
       </c>
       <c r="R47" s="19">
         <v>0</v>
@@ -6574,17 +6574,17 @@
       <c r="AR49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT49" s="11">
+      <c r="AS49" s="11">
         <v>-90</v>
       </c>
-      <c r="AU49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV49" s="11">
+      <c r="AT49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU49" s="11">
         <v>-9</v>
+      </c>
+      <c r="AV49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW49" s="11" t="s">
         <v>58</v>
@@ -6754,11 +6754,11 @@
       <c r="AY50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA50" s="13">
+      <c r="AZ50" s="13">
         <v>-15</v>
+      </c>
+      <c r="BA50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB50" s="13" t="s">
         <v>58</v>
@@ -6880,47 +6880,47 @@
       <c r="AN51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO51" s="11" t="s">
-        <v>58</v>
+      <c r="AO51" s="11">
+        <v>31</v>
       </c>
       <c r="AP51" s="11">
-        <v>31</v>
-      </c>
-      <c r="AQ51" s="11">
         <v>10</v>
       </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
+      <c r="AQ51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR51" s="11">
+        <v>-861</v>
       </c>
       <c r="AS51" s="11">
-        <v>-861</v>
+        <v>-133</v>
       </c>
       <c r="AT51" s="11">
-        <v>-133</v>
+        <v>-213</v>
       </c>
       <c r="AU51" s="11">
-        <v>-213</v>
-      </c>
-      <c r="AV51" s="11">
         <v>-2400</v>
       </c>
-      <c r="AW51" s="11" t="s">
-        <v>58</v>
+      <c r="AV51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW51" s="11">
+        <v>-380</v>
       </c>
       <c r="AX51" s="11">
-        <v>-380</v>
+        <v>-85</v>
       </c>
       <c r="AY51" s="11">
-        <v>-85</v>
+        <v>-54</v>
       </c>
       <c r="AZ51" s="11">
-        <v>-54</v>
+        <v>-106</v>
       </c>
       <c r="BA51" s="11">
-        <v>-106</v>
+        <v>-3</v>
       </c>
       <c r="BB51" s="11">
-        <v>-3</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7066,11 +7066,11 @@
       <c r="AW52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY52" s="13">
+      <c r="AX52" s="13">
         <v>-30</v>
+      </c>
+      <c r="AY52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ52" s="13" t="s">
         <v>58</v>
@@ -7210,11 +7210,11 @@
       <c r="AR53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT53" s="11">
-        <v>0</v>
+      <c r="AS53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU53" s="11" t="s">
         <v>58</v>
@@ -7369,23 +7369,23 @@
       <c r="AR54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT54" s="13">
+      <c r="AS54" s="13">
         <v>-18</v>
       </c>
+      <c r="AT54" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV54" s="13" t="s">
-        <v>58</v>
+      <c r="AV54" s="13">
+        <v>-98</v>
       </c>
       <c r="AW54" s="13">
-        <v>-98</v>
-      </c>
-      <c r="AX54" s="13">
         <v>-25</v>
+      </c>
+      <c r="AX54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY54" s="13" t="s">
         <v>58</v>
@@ -7442,8 +7442,8 @@
       <c r="P55" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Q55" s="19" t="s">
-        <v>58</v>
+      <c r="Q55" s="19">
+        <v>0</v>
       </c>
       <c r="R55" s="19">
         <v>0</v>
@@ -7515,46 +7515,46 @@
         <v>0</v>
       </c>
       <c r="AO55" s="19">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP55" s="19">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AQ55" s="19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="19">
-        <v>0</v>
+        <v>-861</v>
       </c>
       <c r="AS55" s="19">
-        <v>-861</v>
+        <v>-241</v>
       </c>
       <c r="AT55" s="19">
-        <v>-241</v>
+        <v>-213</v>
       </c>
       <c r="AU55" s="19">
-        <v>-213</v>
+        <v>-2409</v>
       </c>
       <c r="AV55" s="19">
-        <v>-2409</v>
+        <v>-98</v>
       </c>
       <c r="AW55" s="19">
-        <v>-98</v>
+        <v>-405</v>
       </c>
       <c r="AX55" s="19">
-        <v>-405</v>
+        <v>-115</v>
       </c>
       <c r="AY55" s="19">
-        <v>-115</v>
+        <v>-54</v>
       </c>
       <c r="AZ55" s="19">
-        <v>-54</v>
+        <v>-121</v>
       </c>
       <c r="BA55" s="19">
-        <v>-121</v>
+        <v>-3</v>
       </c>
       <c r="BB55" s="19">
-        <v>-3</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7600,118 +7600,118 @@
         <v>0</v>
       </c>
       <c r="Q56" s="15">
-        <v>0</v>
+        <v>20144</v>
       </c>
       <c r="R56" s="15">
-        <v>20144</v>
+        <v>28832</v>
       </c>
       <c r="S56" s="15">
-        <v>28832</v>
+        <v>50945</v>
       </c>
       <c r="T56" s="15">
-        <v>50945</v>
+        <v>124054</v>
       </c>
       <c r="U56" s="15">
-        <v>124054</v>
+        <v>64552</v>
       </c>
       <c r="V56" s="15">
-        <v>64552</v>
+        <v>91904</v>
       </c>
       <c r="W56" s="15">
-        <v>91904</v>
+        <v>95180</v>
       </c>
       <c r="X56" s="15">
-        <v>95180</v>
+        <v>164937</v>
       </c>
       <c r="Y56" s="15">
-        <v>164937</v>
+        <v>108143</v>
       </c>
       <c r="Z56" s="15">
-        <v>108143</v>
+        <v>102393</v>
       </c>
       <c r="AA56" s="15">
-        <v>102393</v>
+        <v>145881</v>
       </c>
       <c r="AB56" s="15">
-        <v>145881</v>
+        <v>191309</v>
       </c>
       <c r="AC56" s="15">
-        <v>191309</v>
+        <v>75382</v>
       </c>
       <c r="AD56" s="15">
-        <v>75382</v>
+        <v>49537</v>
       </c>
       <c r="AE56" s="15">
-        <v>49537</v>
+        <v>44236</v>
       </c>
       <c r="AF56" s="15">
-        <v>44236</v>
+        <v>57252</v>
       </c>
       <c r="AG56" s="15">
-        <v>57252</v>
+        <v>79003</v>
       </c>
       <c r="AH56" s="15">
-        <v>79003</v>
+        <v>175638</v>
       </c>
       <c r="AI56" s="15">
-        <v>175638</v>
+        <v>71225</v>
       </c>
       <c r="AJ56" s="15">
-        <v>71225</v>
+        <v>46705</v>
       </c>
       <c r="AK56" s="15">
-        <v>46705</v>
+        <v>35810</v>
       </c>
       <c r="AL56" s="15">
-        <v>35810</v>
+        <v>20066</v>
       </c>
       <c r="AM56" s="15">
-        <v>20066</v>
+        <v>22459</v>
       </c>
       <c r="AN56" s="15">
-        <v>22459</v>
+        <v>39653</v>
       </c>
       <c r="AO56" s="15">
-        <v>39653</v>
+        <v>14071</v>
       </c>
       <c r="AP56" s="15">
-        <v>14071</v>
+        <v>26383</v>
       </c>
       <c r="AQ56" s="15">
-        <v>26383</v>
+        <v>33330</v>
       </c>
       <c r="AR56" s="15">
-        <v>33330</v>
+        <v>33464</v>
       </c>
       <c r="AS56" s="15">
-        <v>33464</v>
+        <v>19611</v>
       </c>
       <c r="AT56" s="15">
-        <v>19611</v>
+        <v>23986</v>
       </c>
       <c r="AU56" s="15">
-        <v>23986</v>
+        <v>16584</v>
       </c>
       <c r="AV56" s="15">
-        <v>16584</v>
+        <v>25384</v>
       </c>
       <c r="AW56" s="15">
-        <v>25384</v>
+        <v>31825</v>
       </c>
       <c r="AX56" s="15">
-        <v>31825</v>
+        <v>36212</v>
       </c>
       <c r="AY56" s="15">
-        <v>36212</v>
+        <v>38184</v>
       </c>
       <c r="AZ56" s="15">
-        <v>38184</v>
+        <v>45967</v>
       </c>
       <c r="BA56" s="15">
-        <v>45967</v>
+        <v>27680</v>
       </c>
       <c r="BB56" s="15">
-        <v>27680</v>
+        <v>32893</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8192,107 +8192,107 @@
       <c r="P63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q63" s="11" t="s">
-        <v>58</v>
+      <c r="Q63" s="11">
+        <v>38045</v>
       </c>
       <c r="R63" s="11">
-        <v>38045</v>
+        <v>216653</v>
       </c>
       <c r="S63" s="11">
-        <v>216653</v>
+        <v>291100</v>
       </c>
       <c r="T63" s="11">
-        <v>291100</v>
+        <v>1051185</v>
       </c>
       <c r="U63" s="11">
-        <v>1051185</v>
+        <v>419637</v>
       </c>
       <c r="V63" s="11">
-        <v>419637</v>
+        <v>875262</v>
       </c>
       <c r="W63" s="11">
-        <v>875262</v>
+        <v>592811</v>
       </c>
       <c r="X63" s="11">
-        <v>592811</v>
+        <v>897670</v>
       </c>
       <c r="Y63" s="11">
-        <v>897670</v>
+        <v>1545260</v>
       </c>
       <c r="Z63" s="11">
-        <v>1545260</v>
+        <v>568119</v>
       </c>
       <c r="AA63" s="11">
-        <v>568119</v>
+        <v>2531823</v>
       </c>
       <c r="AB63" s="11">
-        <v>2531823</v>
+        <v>1961109</v>
       </c>
       <c r="AC63" s="11">
-        <v>1961109</v>
+        <v>126271</v>
       </c>
       <c r="AD63" s="11">
-        <v>126271</v>
+        <v>331178</v>
       </c>
       <c r="AE63" s="11">
-        <v>331178</v>
+        <v>382498</v>
       </c>
       <c r="AF63" s="11">
-        <v>382498</v>
+        <v>116072</v>
       </c>
       <c r="AG63" s="11">
-        <v>116072</v>
+        <v>218558</v>
       </c>
       <c r="AH63" s="11">
-        <v>218558</v>
+        <v>2348725</v>
       </c>
       <c r="AI63" s="11">
-        <v>2348725</v>
+        <v>972218</v>
       </c>
       <c r="AJ63" s="11">
-        <v>972218</v>
+        <v>595595</v>
       </c>
       <c r="AK63" s="11">
-        <v>595595</v>
+        <v>210638</v>
       </c>
       <c r="AL63" s="11">
-        <v>210638</v>
+        <v>283712</v>
       </c>
       <c r="AM63" s="11">
-        <v>283712</v>
+        <v>93640</v>
       </c>
       <c r="AN63" s="11">
-        <v>93640</v>
+        <v>190499</v>
       </c>
       <c r="AO63" s="11">
-        <v>190499</v>
+        <v>73711</v>
       </c>
       <c r="AP63" s="11">
-        <v>73711</v>
+        <v>268523</v>
       </c>
       <c r="AQ63" s="11">
-        <v>268523</v>
+        <v>366123</v>
       </c>
       <c r="AR63" s="11">
-        <v>366123</v>
+        <v>399129</v>
       </c>
       <c r="AS63" s="11">
-        <v>399129</v>
+        <v>691858</v>
       </c>
       <c r="AT63" s="11">
-        <v>691858</v>
+        <v>185779</v>
       </c>
       <c r="AU63" s="11">
-        <v>185779</v>
+        <v>46403</v>
       </c>
       <c r="AV63" s="11">
-        <v>46403</v>
+        <v>34407</v>
       </c>
       <c r="AW63" s="11">
-        <v>34407</v>
+        <v>3601</v>
       </c>
       <c r="AX63" s="11">
-        <v>3601</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="11">
         <v>0</v>
@@ -8387,35 +8387,35 @@
       <c r="AB64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC64" s="13" t="s">
-        <v>58</v>
+      <c r="AC64" s="13">
+        <v>118181</v>
       </c>
       <c r="AD64" s="13">
-        <v>118181</v>
+        <v>42668</v>
       </c>
       <c r="AE64" s="13">
-        <v>42668</v>
+        <v>23041</v>
       </c>
       <c r="AF64" s="13">
-        <v>23041</v>
+        <v>448855</v>
       </c>
       <c r="AG64" s="13">
-        <v>448855</v>
+        <v>36965</v>
       </c>
       <c r="AH64" s="13">
-        <v>36965</v>
+        <v>48770</v>
       </c>
       <c r="AI64" s="13">
-        <v>48770</v>
+        <v>11254</v>
       </c>
       <c r="AJ64" s="13">
-        <v>11254</v>
+        <v>0</v>
       </c>
       <c r="AK64" s="13">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="AL64" s="13">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="13">
         <v>0</v>
@@ -8451,19 +8451,19 @@
         <v>0</v>
       </c>
       <c r="AX64" s="13">
-        <v>0</v>
+        <v>717041</v>
       </c>
       <c r="AY64" s="13">
-        <v>717041</v>
+        <v>550129</v>
       </c>
       <c r="AZ64" s="13">
-        <v>550129</v>
+        <v>1255969</v>
       </c>
       <c r="BA64" s="13">
-        <v>1255969</v>
+        <v>1844859</v>
       </c>
       <c r="BB64" s="13">
-        <v>1844859</v>
+        <v>968491</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8510,119 +8510,119 @@
       <c r="P65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q65" s="11" t="s">
-        <v>58</v>
+      <c r="Q65" s="11">
+        <v>1604030</v>
       </c>
       <c r="R65" s="11">
-        <v>1604030</v>
+        <v>1859855</v>
       </c>
       <c r="S65" s="11">
-        <v>1859855</v>
+        <v>1639213</v>
       </c>
       <c r="T65" s="11">
-        <v>1639213</v>
+        <v>2367900</v>
       </c>
       <c r="U65" s="11">
-        <v>2367900</v>
+        <v>2414588</v>
       </c>
       <c r="V65" s="11">
-        <v>2414588</v>
+        <v>1964271</v>
       </c>
       <c r="W65" s="11">
-        <v>1964271</v>
+        <v>2346330</v>
       </c>
       <c r="X65" s="11">
-        <v>2346330</v>
+        <v>2309549</v>
       </c>
       <c r="Y65" s="11">
-        <v>2309549</v>
+        <v>3011404</v>
       </c>
       <c r="Z65" s="11">
-        <v>3011404</v>
+        <v>3018621</v>
       </c>
       <c r="AA65" s="11">
-        <v>3018621</v>
+        <v>3416509</v>
       </c>
       <c r="AB65" s="11">
-        <v>3416509</v>
+        <v>3526008</v>
       </c>
       <c r="AC65" s="11">
-        <v>3526008</v>
+        <v>2844311</v>
       </c>
       <c r="AD65" s="11">
-        <v>2844311</v>
+        <v>3966805</v>
       </c>
       <c r="AE65" s="11">
-        <v>3966805</v>
+        <v>4967577</v>
       </c>
       <c r="AF65" s="11">
-        <v>4967577</v>
+        <v>4636177</v>
       </c>
       <c r="AG65" s="11">
-        <v>4636177</v>
+        <v>3076244</v>
       </c>
       <c r="AH65" s="11">
-        <v>3076244</v>
+        <v>3288197</v>
       </c>
       <c r="AI65" s="11">
-        <v>3288197</v>
+        <v>3305843</v>
       </c>
       <c r="AJ65" s="11">
-        <v>3305843</v>
+        <v>3500787</v>
       </c>
       <c r="AK65" s="11">
-        <v>3500787</v>
+        <v>3881656</v>
       </c>
       <c r="AL65" s="11">
-        <v>3881656</v>
+        <v>1973279</v>
       </c>
       <c r="AM65" s="11">
-        <v>1973279</v>
+        <v>2895003</v>
       </c>
       <c r="AN65" s="11">
-        <v>2895003</v>
+        <v>5049052</v>
       </c>
       <c r="AO65" s="11">
-        <v>5049052</v>
+        <v>1892469</v>
       </c>
       <c r="AP65" s="11">
-        <v>1892469</v>
+        <v>8619443</v>
       </c>
       <c r="AQ65" s="11">
-        <v>8619443</v>
+        <v>23303206</v>
       </c>
       <c r="AR65" s="11">
-        <v>23303206</v>
+        <v>23151597</v>
       </c>
       <c r="AS65" s="11">
-        <v>23151597</v>
+        <v>8014607</v>
       </c>
       <c r="AT65" s="11">
-        <v>8014607</v>
+        <v>13890751</v>
       </c>
       <c r="AU65" s="11">
-        <v>13890751</v>
+        <v>9752148</v>
       </c>
       <c r="AV65" s="11">
-        <v>9752148</v>
+        <v>14600735</v>
       </c>
       <c r="AW65" s="11">
-        <v>14600735</v>
+        <v>18744343</v>
       </c>
       <c r="AX65" s="11">
-        <v>18744343</v>
+        <v>16430546</v>
       </c>
       <c r="AY65" s="11">
-        <v>16430546</v>
+        <v>18909854</v>
       </c>
       <c r="AZ65" s="11">
-        <v>18909854</v>
+        <v>19958405</v>
       </c>
       <c r="BA65" s="11">
-        <v>19958405</v>
+        <v>7233763</v>
       </c>
       <c r="BB65" s="11">
-        <v>7233763</v>
+        <v>15138396</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8705,38 +8705,38 @@
       <c r="AB66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC66" s="13" t="s">
-        <v>58</v>
+      <c r="AC66" s="13">
+        <v>1194711</v>
       </c>
       <c r="AD66" s="13">
-        <v>1194711</v>
+        <v>47133</v>
       </c>
       <c r="AE66" s="13">
-        <v>47133</v>
+        <v>1649</v>
       </c>
       <c r="AF66" s="13">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="13">
-        <v>0</v>
+        <v>1757316</v>
       </c>
       <c r="AH66" s="13">
-        <v>1757316</v>
+        <v>2764442</v>
       </c>
       <c r="AI66" s="13">
-        <v>2764442</v>
+        <v>722794</v>
       </c>
       <c r="AJ66" s="13">
-        <v>722794</v>
+        <v>158911</v>
       </c>
       <c r="AK66" s="13">
-        <v>158911</v>
+        <v>15530</v>
       </c>
       <c r="AL66" s="13">
-        <v>15530</v>
+        <v>3597</v>
       </c>
       <c r="AM66" s="13">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="13">
         <v>0</v>
@@ -8864,83 +8864,83 @@
       <c r="AB67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC67" s="11" t="s">
-        <v>58</v>
+      <c r="AC67" s="11">
+        <v>27235</v>
       </c>
       <c r="AD67" s="11">
-        <v>27235</v>
+        <v>31845</v>
       </c>
       <c r="AE67" s="11">
-        <v>31845</v>
+        <v>57821</v>
       </c>
       <c r="AF67" s="11">
-        <v>57821</v>
+        <v>46933</v>
       </c>
       <c r="AG67" s="11">
-        <v>46933</v>
+        <v>3450</v>
       </c>
       <c r="AH67" s="11">
-        <v>3450</v>
+        <v>90229</v>
       </c>
       <c r="AI67" s="11">
-        <v>90229</v>
+        <v>56728</v>
       </c>
       <c r="AJ67" s="11">
-        <v>56728</v>
+        <v>71326</v>
       </c>
       <c r="AK67" s="11">
-        <v>71326</v>
+        <v>28617</v>
       </c>
       <c r="AL67" s="11">
-        <v>28617</v>
+        <v>15805</v>
       </c>
       <c r="AM67" s="11">
-        <v>15805</v>
+        <v>123348</v>
       </c>
       <c r="AN67" s="11">
-        <v>123348</v>
+        <v>54353</v>
       </c>
       <c r="AO67" s="11">
-        <v>54353</v>
+        <v>6876</v>
       </c>
       <c r="AP67" s="11">
-        <v>6876</v>
+        <v>130850</v>
       </c>
       <c r="AQ67" s="11">
-        <v>130850</v>
+        <v>16600</v>
       </c>
       <c r="AR67" s="11">
-        <v>16600</v>
+        <v>134209</v>
       </c>
       <c r="AS67" s="11">
-        <v>134209</v>
+        <v>99892</v>
       </c>
       <c r="AT67" s="11">
-        <v>99892</v>
+        <v>100746</v>
       </c>
       <c r="AU67" s="11">
-        <v>100746</v>
+        <v>128100</v>
       </c>
       <c r="AV67" s="11">
-        <v>128100</v>
+        <v>52407</v>
       </c>
       <c r="AW67" s="11">
-        <v>52407</v>
+        <v>83966</v>
       </c>
       <c r="AX67" s="11">
-        <v>83966</v>
+        <v>124809</v>
       </c>
       <c r="AY67" s="11">
-        <v>124809</v>
+        <v>212958</v>
       </c>
       <c r="AZ67" s="11">
-        <v>212958</v>
+        <v>170993</v>
       </c>
       <c r="BA67" s="11">
-        <v>170993</v>
+        <v>16356</v>
       </c>
       <c r="BB67" s="11">
-        <v>16356</v>
+        <v>213236</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8993,38 +8993,38 @@
       <c r="R68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S68" s="13" t="s">
-        <v>58</v>
+      <c r="S68" s="13">
+        <v>356822</v>
       </c>
       <c r="T68" s="13">
-        <v>356822</v>
+        <v>970965</v>
       </c>
       <c r="U68" s="13">
-        <v>970965</v>
+        <v>374611</v>
       </c>
       <c r="V68" s="13">
-        <v>374611</v>
+        <v>808490</v>
       </c>
       <c r="W68" s="13">
-        <v>808490</v>
+        <v>745793</v>
       </c>
       <c r="X68" s="13">
-        <v>745793</v>
+        <v>2263405</v>
       </c>
       <c r="Y68" s="13">
-        <v>2263405</v>
+        <v>666499</v>
       </c>
       <c r="Z68" s="13">
-        <v>666499</v>
+        <v>1652444</v>
       </c>
       <c r="AA68" s="13">
-        <v>1652444</v>
+        <v>851671</v>
       </c>
       <c r="AB68" s="13">
-        <v>851671</v>
-      </c>
-      <c r="AC68" s="13">
         <v>1940596</v>
+      </c>
+      <c r="AC68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD68" s="13" t="s">
         <v>58</v>
@@ -9182,83 +9182,83 @@
       <c r="AB69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC69" s="11" t="s">
-        <v>58</v>
+      <c r="AC69" s="11">
+        <v>4496</v>
       </c>
       <c r="AD69" s="11">
-        <v>4496</v>
+        <v>28013</v>
       </c>
       <c r="AE69" s="11">
-        <v>28013</v>
+        <v>20412</v>
       </c>
       <c r="AF69" s="11">
-        <v>20412</v>
+        <v>21039</v>
       </c>
       <c r="AG69" s="11">
-        <v>21039</v>
+        <v>28100</v>
       </c>
       <c r="AH69" s="11">
-        <v>28100</v>
+        <v>7411</v>
       </c>
       <c r="AI69" s="11">
-        <v>7411</v>
+        <v>10064</v>
       </c>
       <c r="AJ69" s="11">
-        <v>10064</v>
+        <v>37620</v>
       </c>
       <c r="AK69" s="11">
-        <v>37620</v>
+        <v>41440</v>
       </c>
       <c r="AL69" s="11">
-        <v>41440</v>
+        <v>32862</v>
       </c>
       <c r="AM69" s="11">
-        <v>32862</v>
+        <v>7545</v>
       </c>
       <c r="AN69" s="11">
-        <v>7545</v>
+        <v>0</v>
       </c>
       <c r="AO69" s="11">
-        <v>0</v>
+        <v>3994</v>
       </c>
       <c r="AP69" s="11">
-        <v>3994</v>
+        <v>9425</v>
       </c>
       <c r="AQ69" s="11">
-        <v>9425</v>
+        <v>115963</v>
       </c>
       <c r="AR69" s="11">
-        <v>115963</v>
+        <v>21024</v>
       </c>
       <c r="AS69" s="11">
-        <v>21024</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="11">
-        <v>0</v>
+        <v>15792</v>
       </c>
       <c r="AU69" s="11">
-        <v>15792</v>
+        <v>14847</v>
       </c>
       <c r="AV69" s="11">
-        <v>14847</v>
+        <v>39167</v>
       </c>
       <c r="AW69" s="11">
-        <v>39167</v>
+        <v>16465</v>
       </c>
       <c r="AX69" s="11">
-        <v>16465</v>
+        <v>15434</v>
       </c>
       <c r="AY69" s="11">
-        <v>15434</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="11">
-        <v>0</v>
+        <v>82743</v>
       </c>
       <c r="BA69" s="11">
-        <v>82743</v>
+        <v>10079</v>
       </c>
       <c r="BB69" s="11">
-        <v>10079</v>
+        <v>42975</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9341,83 +9341,83 @@
       <c r="AB70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC70" s="13" t="s">
-        <v>58</v>
+      <c r="AC70" s="13">
+        <v>138156</v>
       </c>
       <c r="AD70" s="13">
-        <v>138156</v>
+        <v>122670</v>
       </c>
       <c r="AE70" s="13">
-        <v>122670</v>
+        <v>152503</v>
       </c>
       <c r="AF70" s="13">
-        <v>152503</v>
+        <v>62125</v>
       </c>
       <c r="AG70" s="13">
-        <v>62125</v>
+        <v>127913</v>
       </c>
       <c r="AH70" s="13">
-        <v>127913</v>
+        <v>345314</v>
       </c>
       <c r="AI70" s="13">
-        <v>345314</v>
+        <v>66938</v>
       </c>
       <c r="AJ70" s="13">
-        <v>66938</v>
+        <v>72616</v>
       </c>
       <c r="AK70" s="13">
-        <v>72616</v>
+        <v>146923</v>
       </c>
       <c r="AL70" s="13">
-        <v>146923</v>
+        <v>13851</v>
       </c>
       <c r="AM70" s="13">
-        <v>13851</v>
+        <v>93202</v>
       </c>
       <c r="AN70" s="13">
-        <v>93202</v>
+        <v>252458</v>
       </c>
       <c r="AO70" s="13">
-        <v>252458</v>
+        <v>52591</v>
       </c>
       <c r="AP70" s="13">
-        <v>52591</v>
+        <v>16793</v>
       </c>
       <c r="AQ70" s="13">
-        <v>16793</v>
+        <v>92104</v>
       </c>
       <c r="AR70" s="13">
-        <v>92104</v>
+        <v>624658</v>
       </c>
       <c r="AS70" s="13">
-        <v>624658</v>
+        <v>1676524</v>
       </c>
       <c r="AT70" s="13">
-        <v>1676524</v>
+        <v>704655</v>
       </c>
       <c r="AU70" s="13">
-        <v>704655</v>
+        <v>1779377</v>
       </c>
       <c r="AV70" s="13">
-        <v>1779377</v>
+        <v>1578548</v>
       </c>
       <c r="AW70" s="13">
-        <v>1578548</v>
+        <v>1865390</v>
       </c>
       <c r="AX70" s="13">
-        <v>1865390</v>
+        <v>2240414</v>
       </c>
       <c r="AY70" s="13">
-        <v>2240414</v>
+        <v>1456687</v>
       </c>
       <c r="AZ70" s="13">
-        <v>1456687</v>
+        <v>1893732</v>
       </c>
       <c r="BA70" s="13">
-        <v>1893732</v>
+        <v>143028</v>
       </c>
       <c r="BB70" s="13">
-        <v>143028</v>
+        <v>713291</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9524,14 +9524,14 @@
       <c r="AJ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK71" s="11" t="s">
-        <v>58</v>
+      <c r="AK71" s="11">
+        <v>22623</v>
       </c>
       <c r="AL71" s="11">
-        <v>22623</v>
+        <v>3602</v>
       </c>
       <c r="AM71" s="11">
-        <v>3602</v>
+        <v>0</v>
       </c>
       <c r="AN71" s="11">
         <v>0</v>
@@ -9540,19 +9540,19 @@
         <v>0</v>
       </c>
       <c r="AP71" s="11">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AQ71" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AR71" s="11">
         <v>0</v>
       </c>
       <c r="AS71" s="11">
-        <v>0</v>
+        <v>17259</v>
       </c>
       <c r="AT71" s="11">
-        <v>17259</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="11">
         <v>0</v>
@@ -9567,10 +9567,10 @@
         <v>0</v>
       </c>
       <c r="AY71" s="11">
-        <v>0</v>
+        <v>11663</v>
       </c>
       <c r="AZ71" s="11">
-        <v>11663</v>
+        <v>0</v>
       </c>
       <c r="BA71" s="11">
         <v>0</v>
@@ -9622,118 +9622,118 @@
         <v>0</v>
       </c>
       <c r="Q72" s="15">
-        <v>0</v>
+        <v>1642075</v>
       </c>
       <c r="R72" s="15">
-        <v>1642075</v>
+        <v>2076508</v>
       </c>
       <c r="S72" s="15">
-        <v>2076508</v>
+        <v>2287135</v>
       </c>
       <c r="T72" s="15">
-        <v>2287135</v>
+        <v>4390050</v>
       </c>
       <c r="U72" s="15">
-        <v>4390050</v>
+        <v>3208836</v>
       </c>
       <c r="V72" s="15">
-        <v>3208836</v>
+        <v>3648023</v>
       </c>
       <c r="W72" s="15">
-        <v>3648023</v>
+        <v>3684934</v>
       </c>
       <c r="X72" s="15">
-        <v>3684934</v>
+        <v>5470624</v>
       </c>
       <c r="Y72" s="15">
-        <v>5470624</v>
+        <v>5223163</v>
       </c>
       <c r="Z72" s="15">
-        <v>5223163</v>
+        <v>5239184</v>
       </c>
       <c r="AA72" s="15">
-        <v>5239184</v>
+        <v>6800003</v>
       </c>
       <c r="AB72" s="15">
-        <v>6800003</v>
+        <v>7427713</v>
       </c>
       <c r="AC72" s="15">
-        <v>7427713</v>
+        <v>4453361</v>
       </c>
       <c r="AD72" s="15">
-        <v>4453361</v>
+        <v>4570312</v>
       </c>
       <c r="AE72" s="15">
-        <v>4570312</v>
+        <v>5605501</v>
       </c>
       <c r="AF72" s="15">
-        <v>5605501</v>
+        <v>5331201</v>
       </c>
       <c r="AG72" s="15">
-        <v>5331201</v>
+        <v>5248546</v>
       </c>
       <c r="AH72" s="15">
-        <v>5248546</v>
+        <v>8893088</v>
       </c>
       <c r="AI72" s="15">
-        <v>8893088</v>
+        <v>5145839</v>
       </c>
       <c r="AJ72" s="15">
-        <v>5145839</v>
+        <v>4436855</v>
       </c>
       <c r="AK72" s="15">
-        <v>4436855</v>
+        <v>4348578</v>
       </c>
       <c r="AL72" s="15">
-        <v>4348578</v>
+        <v>2326708</v>
       </c>
       <c r="AM72" s="15">
-        <v>2326708</v>
+        <v>3212738</v>
       </c>
       <c r="AN72" s="15">
-        <v>3212738</v>
+        <v>5546362</v>
       </c>
       <c r="AO72" s="15">
-        <v>5546362</v>
+        <v>2029641</v>
       </c>
       <c r="AP72" s="15">
-        <v>2029641</v>
+        <v>9045068</v>
       </c>
       <c r="AQ72" s="15">
-        <v>9045068</v>
+        <v>23893996</v>
       </c>
       <c r="AR72" s="15">
-        <v>23893996</v>
+        <v>24330617</v>
       </c>
       <c r="AS72" s="15">
-        <v>24330617</v>
+        <v>10500140</v>
       </c>
       <c r="AT72" s="15">
-        <v>10500140</v>
+        <v>14897723</v>
       </c>
       <c r="AU72" s="15">
-        <v>14897723</v>
+        <v>11720875</v>
       </c>
       <c r="AV72" s="15">
-        <v>11720875</v>
+        <v>16305264</v>
       </c>
       <c r="AW72" s="15">
-        <v>16305264</v>
+        <v>20713765</v>
       </c>
       <c r="AX72" s="15">
-        <v>20713765</v>
+        <v>19528244</v>
       </c>
       <c r="AY72" s="15">
-        <v>19528244</v>
+        <v>21141291</v>
       </c>
       <c r="AZ72" s="15">
-        <v>21141291</v>
+        <v>23361842</v>
       </c>
       <c r="BA72" s="15">
-        <v>23361842</v>
+        <v>9248085</v>
       </c>
       <c r="BB72" s="15">
-        <v>9248085</v>
+        <v>17076389</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9906,8 +9906,8 @@
       <c r="AM74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN74" s="11" t="s">
-        <v>58</v>
+      <c r="AN74" s="11">
+        <v>0</v>
       </c>
       <c r="AO74" s="11">
         <v>0</v>
@@ -9916,19 +9916,19 @@
         <v>0</v>
       </c>
       <c r="AQ74" s="11">
-        <v>0</v>
+        <v>128110</v>
       </c>
       <c r="AR74" s="11">
-        <v>128110</v>
+        <v>44111</v>
       </c>
       <c r="AS74" s="11">
-        <v>44111</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="11">
-        <v>0</v>
+        <v>8164</v>
       </c>
       <c r="AU74" s="11">
-        <v>8164</v>
+        <v>0</v>
       </c>
       <c r="AV74" s="11">
         <v>0</v>
@@ -10073,19 +10073,19 @@
         <v>0</v>
       </c>
       <c r="AQ75" s="15">
-        <v>0</v>
+        <v>128110</v>
       </c>
       <c r="AR75" s="15">
-        <v>128110</v>
+        <v>44111</v>
       </c>
       <c r="AS75" s="15">
-        <v>44111</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="15">
-        <v>0</v>
+        <v>8164</v>
       </c>
       <c r="AU75" s="15">
-        <v>8164</v>
+        <v>0</v>
       </c>
       <c r="AV75" s="15">
         <v>0</v>
@@ -10210,8 +10210,8 @@
       <c r="P77" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Q77" s="19" t="s">
-        <v>58</v>
+      <c r="Q77" s="19">
+        <v>0</v>
       </c>
       <c r="R77" s="19">
         <v>0</v>
@@ -10498,8 +10498,8 @@
       <c r="AN79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO79" s="11" t="s">
-        <v>58</v>
+      <c r="AO79" s="11">
+        <v>0</v>
       </c>
       <c r="AP79" s="11">
         <v>0</v>
@@ -10511,16 +10511,16 @@
         <v>0</v>
       </c>
       <c r="AS79" s="11">
-        <v>0</v>
+        <v>-3119</v>
       </c>
       <c r="AT79" s="11">
-        <v>-3119</v>
+        <v>0</v>
       </c>
       <c r="AU79" s="11">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="AV79" s="11">
-        <v>-1060</v>
+        <v>0</v>
       </c>
       <c r="AW79" s="11">
         <v>0</v>
@@ -10534,8 +10534,8 @@
       <c r="AZ79" s="11">
         <v>0</v>
       </c>
-      <c r="BA79" s="11">
-        <v>0</v>
+      <c r="BA79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB79" s="11" t="s">
         <v>58</v>
@@ -10690,11 +10690,11 @@
       <c r="AY80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA80" s="13">
+      <c r="AZ80" s="13">
         <v>-1658</v>
+      </c>
+      <c r="BA80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB80" s="13" t="s">
         <v>58</v>
@@ -10816,47 +10816,47 @@
       <c r="AN81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO81" s="11" t="s">
-        <v>58</v>
+      <c r="AO81" s="11">
+        <v>-8247</v>
       </c>
       <c r="AP81" s="11">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AQ81" s="11">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AR81" s="11">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AS81" s="11">
-        <v>-638551</v>
+        <v>-131582</v>
       </c>
       <c r="AT81" s="11">
-        <v>-131582</v>
+        <v>-18151</v>
       </c>
       <c r="AU81" s="11">
-        <v>-18151</v>
+        <v>-1648504</v>
       </c>
       <c r="AV81" s="11">
-        <v>-1648504</v>
+        <v>0</v>
       </c>
       <c r="AW81" s="11">
-        <v>0</v>
+        <v>-226383</v>
       </c>
       <c r="AX81" s="11">
-        <v>-226383</v>
+        <v>-45187</v>
       </c>
       <c r="AY81" s="11">
-        <v>-45187</v>
+        <v>-40612</v>
       </c>
       <c r="AZ81" s="11">
-        <v>-40612</v>
+        <v>-71870</v>
       </c>
       <c r="BA81" s="11">
-        <v>-71870</v>
+        <v>-1777</v>
       </c>
       <c r="BB81" s="11">
-        <v>-1777</v>
+        <v>-21808</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11002,17 +11002,17 @@
       <c r="AW82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX82" s="13" t="s">
-        <v>58</v>
+      <c r="AX82" s="13">
+        <v>-5528</v>
       </c>
       <c r="AY82" s="13">
-        <v>-5528</v>
+        <v>0</v>
       </c>
       <c r="AZ82" s="13">
         <v>0</v>
       </c>
-      <c r="BA82" s="13">
-        <v>0</v>
+      <c r="BA82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB82" s="13" t="s">
         <v>58</v>
@@ -11134,8 +11134,8 @@
       <c r="AN83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO83" s="11" t="s">
-        <v>58</v>
+      <c r="AO83" s="11">
+        <v>0</v>
       </c>
       <c r="AP83" s="11">
         <v>0</v>
@@ -11144,16 +11144,16 @@
         <v>0</v>
       </c>
       <c r="AR83" s="11">
-        <v>0</v>
+        <v>-25157</v>
       </c>
       <c r="AS83" s="11">
-        <v>-25157</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="11">
-        <v>0</v>
+        <v>-487</v>
       </c>
       <c r="AU83" s="11">
-        <v>-487</v>
+        <v>0</v>
       </c>
       <c r="AV83" s="11">
         <v>0</v>
@@ -11168,10 +11168,10 @@
         <v>0</v>
       </c>
       <c r="AZ83" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA83" s="11">
         <v>-136226</v>
+      </c>
+      <c r="BA83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB83" s="11" t="s">
         <v>58</v>
@@ -11305,23 +11305,23 @@
       <c r="AR84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS84" s="13" t="s">
-        <v>58</v>
+      <c r="AS84" s="13">
+        <v>-10428</v>
       </c>
       <c r="AT84" s="13">
-        <v>-10428</v>
+        <v>0</v>
       </c>
       <c r="AU84" s="13">
         <v>0</v>
       </c>
       <c r="AV84" s="13">
-        <v>0</v>
+        <v>-64915</v>
       </c>
       <c r="AW84" s="13">
-        <v>-64915</v>
+        <v>-9975</v>
       </c>
       <c r="AX84" s="13">
-        <v>-9975</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="13">
         <v>0</v>
@@ -11329,8 +11329,8 @@
       <c r="AZ84" s="13">
         <v>0</v>
       </c>
-      <c r="BA84" s="13">
-        <v>0</v>
+      <c r="BA84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB84" s="13" t="s">
         <v>58</v>
@@ -11380,8 +11380,8 @@
       <c r="P85" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Q85" s="19" t="s">
-        <v>58</v>
+      <c r="Q85" s="19">
+        <v>0</v>
       </c>
       <c r="R85" s="19">
         <v>0</v>
@@ -11453,46 +11453,46 @@
         <v>0</v>
       </c>
       <c r="AO85" s="19">
-        <v>0</v>
+        <v>-8247</v>
       </c>
       <c r="AP85" s="19">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AQ85" s="19">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AR85" s="19">
-        <v>-144053</v>
+        <v>-663708</v>
       </c>
       <c r="AS85" s="19">
-        <v>-663708</v>
+        <v>-145129</v>
       </c>
       <c r="AT85" s="19">
-        <v>-145129</v>
+        <v>-18638</v>
       </c>
       <c r="AU85" s="19">
-        <v>-18638</v>
+        <v>-1649564</v>
       </c>
       <c r="AV85" s="19">
-        <v>-1649564</v>
+        <v>-64915</v>
       </c>
       <c r="AW85" s="19">
-        <v>-64915</v>
+        <v>-236358</v>
       </c>
       <c r="AX85" s="19">
-        <v>-236358</v>
+        <v>-50715</v>
       </c>
       <c r="AY85" s="19">
-        <v>-50715</v>
+        <v>-40612</v>
       </c>
       <c r="AZ85" s="19">
-        <v>-40612</v>
+        <v>-209754</v>
       </c>
       <c r="BA85" s="19">
-        <v>-209754</v>
+        <v>-1777</v>
       </c>
       <c r="BB85" s="19">
-        <v>-1777</v>
+        <v>-21808</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11596,8 +11596,8 @@
       <c r="P87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q87" s="11" t="s">
-        <v>58</v>
+      <c r="Q87" s="11">
+        <v>0</v>
       </c>
       <c r="R87" s="11">
         <v>0</v>
@@ -11669,46 +11669,46 @@
         <v>0</v>
       </c>
       <c r="AO87" s="11">
-        <v>0</v>
+        <v>-5224</v>
       </c>
       <c r="AP87" s="11">
-        <v>-5224</v>
+        <v>-29405</v>
       </c>
       <c r="AQ87" s="11">
-        <v>-29405</v>
+        <v>-26931</v>
       </c>
       <c r="AR87" s="11">
-        <v>-26931</v>
+        <v>0</v>
       </c>
       <c r="AS87" s="11">
-        <v>0</v>
+        <v>-220529</v>
       </c>
       <c r="AT87" s="11">
-        <v>-220529</v>
+        <v>-468268</v>
       </c>
       <c r="AU87" s="11">
-        <v>-468268</v>
+        <v>-409471</v>
       </c>
       <c r="AV87" s="11">
-        <v>-409471</v>
+        <v>-1978624</v>
       </c>
       <c r="AW87" s="11">
-        <v>-1978624</v>
+        <v>-467060</v>
       </c>
       <c r="AX87" s="11">
-        <v>-467060</v>
+        <v>-497947</v>
       </c>
       <c r="AY87" s="11">
-        <v>-497947</v>
+        <v>-1979565</v>
       </c>
       <c r="AZ87" s="11">
-        <v>-1979565</v>
+        <v>-635228</v>
       </c>
       <c r="BA87" s="11">
-        <v>-635228</v>
+        <v>-960</v>
       </c>
       <c r="BB87" s="11">
-        <v>-960</v>
+        <v>-202889</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11754,118 +11754,118 @@
         <v>0</v>
       </c>
       <c r="Q88" s="15">
-        <v>0</v>
+        <v>1642075</v>
       </c>
       <c r="R88" s="15">
-        <v>1642075</v>
+        <v>2076508</v>
       </c>
       <c r="S88" s="15">
-        <v>2076508</v>
+        <v>2287135</v>
       </c>
       <c r="T88" s="15">
-        <v>2287135</v>
+        <v>4390050</v>
       </c>
       <c r="U88" s="15">
-        <v>4390050</v>
+        <v>3208836</v>
       </c>
       <c r="V88" s="15">
-        <v>3208836</v>
+        <v>3648023</v>
       </c>
       <c r="W88" s="15">
-        <v>3648023</v>
+        <v>3684934</v>
       </c>
       <c r="X88" s="15">
-        <v>3684934</v>
+        <v>5470624</v>
       </c>
       <c r="Y88" s="15">
-        <v>5470624</v>
+        <v>5223163</v>
       </c>
       <c r="Z88" s="15">
-        <v>5223163</v>
+        <v>5239184</v>
       </c>
       <c r="AA88" s="15">
-        <v>5239184</v>
+        <v>6800003</v>
       </c>
       <c r="AB88" s="15">
-        <v>6800003</v>
+        <v>7427713</v>
       </c>
       <c r="AC88" s="15">
-        <v>7427713</v>
+        <v>4453361</v>
       </c>
       <c r="AD88" s="15">
-        <v>4453361</v>
+        <v>4570312</v>
       </c>
       <c r="AE88" s="15">
-        <v>4570312</v>
+        <v>5605501</v>
       </c>
       <c r="AF88" s="15">
-        <v>5605501</v>
+        <v>5331201</v>
       </c>
       <c r="AG88" s="15">
-        <v>5331201</v>
+        <v>5248546</v>
       </c>
       <c r="AH88" s="15">
-        <v>5248546</v>
+        <v>8893088</v>
       </c>
       <c r="AI88" s="15">
-        <v>8893088</v>
+        <v>5145839</v>
       </c>
       <c r="AJ88" s="15">
-        <v>5145839</v>
+        <v>4436855</v>
       </c>
       <c r="AK88" s="15">
-        <v>4436855</v>
+        <v>4348578</v>
       </c>
       <c r="AL88" s="15">
-        <v>4348578</v>
+        <v>2326708</v>
       </c>
       <c r="AM88" s="15">
-        <v>2326708</v>
+        <v>3212738</v>
       </c>
       <c r="AN88" s="15">
-        <v>3212738</v>
+        <v>5546362</v>
       </c>
       <c r="AO88" s="15">
-        <v>5546362</v>
+        <v>2016170</v>
       </c>
       <c r="AP88" s="15">
-        <v>2016170</v>
+        <v>9007285</v>
       </c>
       <c r="AQ88" s="15">
-        <v>9007285</v>
+        <v>23851122</v>
       </c>
       <c r="AR88" s="15">
-        <v>23851122</v>
+        <v>23711020</v>
       </c>
       <c r="AS88" s="15">
-        <v>23711020</v>
+        <v>10134482</v>
       </c>
       <c r="AT88" s="15">
-        <v>10134482</v>
+        <v>14418981</v>
       </c>
       <c r="AU88" s="15">
-        <v>14418981</v>
+        <v>9661840</v>
       </c>
       <c r="AV88" s="15">
-        <v>9661840</v>
+        <v>14261725</v>
       </c>
       <c r="AW88" s="15">
-        <v>14261725</v>
+        <v>20010347</v>
       </c>
       <c r="AX88" s="15">
-        <v>20010347</v>
+        <v>18979582</v>
       </c>
       <c r="AY88" s="15">
-        <v>18979582</v>
+        <v>19121114</v>
       </c>
       <c r="AZ88" s="15">
-        <v>19121114</v>
+        <v>22516860</v>
       </c>
       <c r="BA88" s="15">
-        <v>22516860</v>
+        <v>9245348</v>
       </c>
       <c r="BB88" s="15">
-        <v>9245348</v>
+        <v>16851692</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12346,107 +12346,107 @@
       <c r="P95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q95" s="11" t="s">
-        <v>58</v>
+      <c r="Q95" s="11">
+        <v>24232484</v>
       </c>
       <c r="R95" s="11">
-        <v>24232484</v>
+        <v>29751854</v>
       </c>
       <c r="S95" s="11">
-        <v>29751854</v>
+        <v>35691515</v>
       </c>
       <c r="T95" s="11">
-        <v>35691515</v>
+        <v>31671738</v>
       </c>
       <c r="U95" s="11">
-        <v>31671738</v>
+        <v>32334489</v>
       </c>
       <c r="V95" s="11">
-        <v>32334489</v>
+        <v>51628738</v>
       </c>
       <c r="W95" s="11">
-        <v>51628738</v>
+        <v>26982749</v>
       </c>
       <c r="X95" s="11">
-        <v>26982749</v>
+        <v>15348984</v>
       </c>
       <c r="Y95" s="11">
-        <v>15348984</v>
+        <v>31303379</v>
       </c>
       <c r="Z95" s="11">
-        <v>31303379</v>
+        <v>29024165</v>
       </c>
       <c r="AA95" s="11">
-        <v>29024165</v>
+        <v>32107324</v>
       </c>
       <c r="AB95" s="11">
-        <v>32107324</v>
+        <v>31915975</v>
       </c>
       <c r="AC95" s="11">
-        <v>31915975</v>
+        <v>31607259</v>
       </c>
       <c r="AD95" s="11">
-        <v>31607259</v>
+        <v>28785571</v>
       </c>
       <c r="AE95" s="11">
-        <v>28785571</v>
+        <v>40648034</v>
       </c>
       <c r="AF95" s="11">
-        <v>40648034</v>
+        <v>37226427</v>
       </c>
       <c r="AG95" s="11">
-        <v>37226427</v>
+        <v>37669424</v>
       </c>
       <c r="AH95" s="11">
-        <v>37669424</v>
+        <v>34822752</v>
       </c>
       <c r="AI95" s="11">
-        <v>34822752</v>
+        <v>35245722</v>
       </c>
       <c r="AJ95" s="11">
-        <v>35245722</v>
+        <v>35485879</v>
       </c>
       <c r="AK95" s="11">
-        <v>35485879</v>
+        <v>37735220</v>
       </c>
       <c r="AL95" s="11">
-        <v>37735220</v>
+        <v>39202985</v>
       </c>
       <c r="AM95" s="11">
-        <v>39202985</v>
+        <v>40051326</v>
       </c>
       <c r="AN95" s="11">
-        <v>40051326</v>
+        <v>40462829</v>
       </c>
       <c r="AO95" s="11">
-        <v>40462829</v>
+        <v>40389589</v>
       </c>
       <c r="AP95" s="11">
-        <v>40389589</v>
+        <v>41451528</v>
       </c>
       <c r="AQ95" s="11">
-        <v>41451528</v>
+        <v>151540977</v>
       </c>
       <c r="AR95" s="11">
-        <v>151540977</v>
+        <v>167209468</v>
       </c>
       <c r="AS95" s="11">
-        <v>167209468</v>
+        <v>152458792</v>
       </c>
       <c r="AT95" s="11">
-        <v>152458792</v>
+        <v>126122878</v>
       </c>
       <c r="AU95" s="11">
-        <v>126122878</v>
+        <v>134501449</v>
       </c>
       <c r="AV95" s="11">
-        <v>134501449</v>
+        <v>114690000</v>
       </c>
       <c r="AW95" s="11">
-        <v>114690000</v>
-      </c>
-      <c r="AX95" s="11">
         <v>120033333</v>
+      </c>
+      <c r="AX95" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY95" s="11" t="s">
         <v>58</v>
@@ -12541,36 +12541,36 @@
       <c r="AB96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC96" s="13" t="s">
-        <v>58</v>
+      <c r="AC96" s="13">
+        <v>16955667</v>
       </c>
       <c r="AD96" s="13">
-        <v>16955667</v>
+        <v>9983154</v>
       </c>
       <c r="AE96" s="13">
-        <v>9983154</v>
+        <v>17067407</v>
       </c>
       <c r="AF96" s="13">
-        <v>17067407</v>
+        <v>18908712</v>
       </c>
       <c r="AG96" s="13">
-        <v>18908712</v>
+        <v>18946694</v>
       </c>
       <c r="AH96" s="13">
-        <v>18946694</v>
+        <v>18837389</v>
       </c>
       <c r="AI96" s="13">
-        <v>18837389</v>
-      </c>
-      <c r="AJ96" s="13">
         <v>20725599</v>
       </c>
-      <c r="AK96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL96" s="13">
+      <c r="AJ96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK96" s="13">
         <v>15144737</v>
       </c>
+      <c r="AL96" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM96" s="13" t="s">
         <v>58</v>
       </c>
@@ -12604,20 +12604,20 @@
       <c r="AW96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX96" s="13" t="s">
-        <v>58</v>
+      <c r="AX96" s="13">
+        <v>109706395</v>
       </c>
       <c r="AY96" s="13">
-        <v>109706395</v>
+        <v>104726632</v>
       </c>
       <c r="AZ96" s="13">
-        <v>104726632</v>
+        <v>104812568</v>
       </c>
       <c r="BA96" s="13">
-        <v>104812568</v>
+        <v>110252734</v>
       </c>
       <c r="BB96" s="13">
-        <v>110252734</v>
+        <v>112877739</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -12664,119 +12664,119 @@
       <c r="P97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Q97" s="11" t="s">
-        <v>58</v>
+      <c r="Q97" s="11">
+        <v>86358889</v>
       </c>
       <c r="R97" s="11">
-        <v>86358889</v>
+        <v>86304176</v>
       </c>
       <c r="S97" s="11">
-        <v>86304176</v>
+        <v>86269828</v>
       </c>
       <c r="T97" s="11">
-        <v>86269828</v>
+        <v>90609574</v>
       </c>
       <c r="U97" s="11">
-        <v>90609574</v>
+        <v>90773985</v>
       </c>
       <c r="V97" s="11">
-        <v>90773985</v>
+        <v>94295569</v>
       </c>
       <c r="W97" s="11">
-        <v>94295569</v>
+        <v>100947812</v>
       </c>
       <c r="X97" s="11">
-        <v>100947812</v>
+        <v>103530079</v>
       </c>
       <c r="Y97" s="11">
-        <v>103530079</v>
+        <v>115273465</v>
       </c>
       <c r="Z97" s="11">
-        <v>115273465</v>
+        <v>117919489</v>
       </c>
       <c r="AA97" s="11">
-        <v>117919489</v>
+        <v>114475088</v>
       </c>
       <c r="AB97" s="11">
-        <v>114475088</v>
+        <v>122844581</v>
       </c>
       <c r="AC97" s="11">
-        <v>122844581</v>
+        <v>120195698</v>
       </c>
       <c r="AD97" s="11">
-        <v>120195698</v>
+        <v>131897091</v>
       </c>
       <c r="AE97" s="11">
-        <v>131897091</v>
+        <v>160213410</v>
       </c>
       <c r="AF97" s="11">
-        <v>160213410</v>
+        <v>158220497</v>
       </c>
       <c r="AG97" s="11">
-        <v>158220497</v>
+        <v>160104299</v>
       </c>
       <c r="AH97" s="11">
-        <v>160104299</v>
+        <v>151942932</v>
       </c>
       <c r="AI97" s="11">
-        <v>151942932</v>
+        <v>156097979</v>
       </c>
       <c r="AJ97" s="11">
-        <v>156097979</v>
+        <v>145981694</v>
       </c>
       <c r="AK97" s="11">
-        <v>145981694</v>
+        <v>156619432</v>
       </c>
       <c r="AL97" s="11">
-        <v>156619432</v>
+        <v>163920834</v>
       </c>
       <c r="AM97" s="11">
-        <v>163920834</v>
+        <v>157568334</v>
       </c>
       <c r="AN97" s="11">
-        <v>157568334</v>
+        <v>157438478</v>
       </c>
       <c r="AO97" s="11">
-        <v>157438478</v>
+        <v>162961250</v>
       </c>
       <c r="AP97" s="11">
-        <v>162961250</v>
+        <v>451138019</v>
       </c>
       <c r="AQ97" s="11">
-        <v>451138019</v>
+        <v>775403654</v>
       </c>
       <c r="AR97" s="11">
-        <v>775403654</v>
+        <v>769897809</v>
       </c>
       <c r="AS97" s="11">
-        <v>769897809</v>
+        <v>699171857</v>
       </c>
       <c r="AT97" s="11">
-        <v>699171857</v>
+        <v>695093625</v>
       </c>
       <c r="AU97" s="11">
-        <v>695093625</v>
+        <v>685612205</v>
       </c>
       <c r="AV97" s="11">
-        <v>685612205</v>
+        <v>683875176</v>
       </c>
       <c r="AW97" s="11">
-        <v>683875176</v>
+        <v>678798544</v>
       </c>
       <c r="AX97" s="11">
-        <v>678798544</v>
+        <v>674959783</v>
       </c>
       <c r="AY97" s="11">
-        <v>674959783</v>
+        <v>651547187</v>
       </c>
       <c r="AZ97" s="11">
-        <v>651547187</v>
+        <v>685997285</v>
       </c>
       <c r="BA97" s="11">
-        <v>685997285</v>
+        <v>683720510</v>
       </c>
       <c r="BB97" s="11">
-        <v>683720510</v>
+        <v>682432313</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12859,38 +12859,38 @@
       <c r="AB98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC98" s="13" t="s">
-        <v>58</v>
+      <c r="AC98" s="13">
+        <v>31000052</v>
       </c>
       <c r="AD98" s="13">
-        <v>31000052</v>
+        <v>31008553</v>
       </c>
       <c r="AE98" s="13">
-        <v>31008553</v>
-      </c>
-      <c r="AF98" s="13">
         <v>31113208</v>
       </c>
-      <c r="AG98" s="13" t="s">
-        <v>58</v>
+      <c r="AF98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG98" s="13">
+        <v>35000020</v>
       </c>
       <c r="AH98" s="13">
-        <v>35000020</v>
+        <v>35000025</v>
       </c>
       <c r="AI98" s="13">
-        <v>35000025</v>
+        <v>35000436</v>
       </c>
       <c r="AJ98" s="13">
-        <v>35000436</v>
+        <v>35002423</v>
       </c>
       <c r="AK98" s="13">
-        <v>35002423</v>
+        <v>34977477</v>
       </c>
       <c r="AL98" s="13">
-        <v>34977477</v>
-      </c>
-      <c r="AM98" s="13">
         <v>42317647</v>
+      </c>
+      <c r="AM98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN98" s="13" t="s">
         <v>58</v>
@@ -13018,83 +13018,83 @@
       <c r="AB99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC99" s="11" t="s">
-        <v>58</v>
+      <c r="AC99" s="11">
+        <v>75443213</v>
       </c>
       <c r="AD99" s="11">
-        <v>75443213</v>
+        <v>79812030</v>
       </c>
       <c r="AE99" s="11">
-        <v>79812030</v>
+        <v>92959807</v>
       </c>
       <c r="AF99" s="11">
-        <v>92959807</v>
+        <v>96969008</v>
       </c>
       <c r="AG99" s="11">
-        <v>96969008</v>
+        <v>27165354</v>
       </c>
       <c r="AH99" s="11">
-        <v>27165354</v>
+        <v>100143174</v>
       </c>
       <c r="AI99" s="11">
-        <v>100143174</v>
+        <v>92541599</v>
       </c>
       <c r="AJ99" s="11">
-        <v>92541599</v>
+        <v>100885431</v>
       </c>
       <c r="AK99" s="11">
-        <v>100885431</v>
+        <v>114927711</v>
       </c>
       <c r="AL99" s="11">
-        <v>114927711</v>
+        <v>68419913</v>
       </c>
       <c r="AM99" s="11">
-        <v>68419913</v>
+        <v>133061489</v>
       </c>
       <c r="AN99" s="11">
-        <v>133061489</v>
+        <v>100097606</v>
       </c>
       <c r="AO99" s="11">
-        <v>100097606</v>
+        <v>77258427</v>
       </c>
       <c r="AP99" s="11">
-        <v>77258427</v>
+        <v>184036568</v>
       </c>
       <c r="AQ99" s="11">
-        <v>184036568</v>
+        <v>85567010</v>
       </c>
       <c r="AR99" s="11">
-        <v>85567010</v>
+        <v>232597920</v>
       </c>
       <c r="AS99" s="11">
-        <v>232597920</v>
+        <v>156081250</v>
       </c>
       <c r="AT99" s="11">
-        <v>156081250</v>
+        <v>154045872</v>
       </c>
       <c r="AU99" s="11">
-        <v>154045872</v>
+        <v>160125000</v>
       </c>
       <c r="AV99" s="11">
-        <v>160125000</v>
+        <v>133351145</v>
       </c>
       <c r="AW99" s="11">
-        <v>133351145</v>
+        <v>152943534</v>
       </c>
       <c r="AX99" s="11">
-        <v>152943534</v>
+        <v>200335474</v>
       </c>
       <c r="AY99" s="11">
-        <v>200335474</v>
+        <v>206154889</v>
       </c>
       <c r="AZ99" s="11">
-        <v>206154889</v>
+        <v>223228460</v>
       </c>
       <c r="BA99" s="11">
-        <v>223228460</v>
+        <v>201925926</v>
       </c>
       <c r="BB99" s="11">
-        <v>201925926</v>
+        <v>273379487</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13147,38 +13147,38 @@
       <c r="R100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S100" s="13" t="s">
-        <v>58</v>
+      <c r="S100" s="13">
+        <v>15000084</v>
       </c>
       <c r="T100" s="13">
-        <v>15000084</v>
+        <v>15000000</v>
       </c>
       <c r="U100" s="13">
-        <v>15000000</v>
+        <v>15000040</v>
       </c>
       <c r="V100" s="13">
-        <v>15000040</v>
+        <v>14938840</v>
       </c>
       <c r="W100" s="13">
-        <v>14938840</v>
+        <v>14925711</v>
       </c>
       <c r="X100" s="13">
-        <v>14925711</v>
+        <v>26898865</v>
       </c>
       <c r="Y100" s="13">
-        <v>26898865</v>
+        <v>20410320</v>
       </c>
       <c r="Z100" s="13">
-        <v>20410320</v>
+        <v>28878784</v>
       </c>
       <c r="AA100" s="13">
-        <v>28878784</v>
+        <v>22906081</v>
       </c>
       <c r="AB100" s="13">
-        <v>22906081</v>
-      </c>
-      <c r="AC100" s="13">
         <v>19183432</v>
+      </c>
+      <c r="AC100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD100" s="13" t="s">
         <v>58</v>
@@ -13339,21 +13339,21 @@
       <c r="AC101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD101" s="11" t="s">
-        <v>58</v>
+      <c r="AD101" s="11">
+        <v>1867533333</v>
       </c>
       <c r="AE101" s="11">
-        <v>1867533333</v>
+        <v>2268000000</v>
       </c>
       <c r="AF101" s="11">
-        <v>2268000000</v>
+        <v>3506500000</v>
       </c>
       <c r="AG101" s="11">
-        <v>3506500000</v>
-      </c>
-      <c r="AH101" s="11">
         <v>228455285</v>
       </c>
+      <c r="AH101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI101" s="11" t="s">
         <v>58</v>
       </c>
@@ -13366,36 +13366,36 @@
       <c r="AL101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN101" s="11">
+      <c r="AM101" s="11">
         <v>116076923</v>
       </c>
+      <c r="AN101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP101" s="11" t="s">
-        <v>58</v>
+      <c r="AP101" s="11">
+        <v>9425000000</v>
       </c>
       <c r="AQ101" s="11">
-        <v>9425000000</v>
-      </c>
-      <c r="AR101" s="11">
         <v>115963000000</v>
       </c>
+      <c r="AR101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT101" s="11" t="s">
-        <v>58</v>
+      <c r="AT101" s="11">
+        <v>22368272</v>
       </c>
       <c r="AU101" s="11">
-        <v>22368272</v>
-      </c>
-      <c r="AV101" s="11">
         <v>14847000000</v>
       </c>
+      <c r="AV101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW101" s="11" t="s">
         <v>58</v>
       </c>
@@ -13405,14 +13405,14 @@
       <c r="AY101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ101" s="11" t="s">
-        <v>58</v>
+      <c r="AZ101" s="11">
+        <v>231125698</v>
       </c>
       <c r="BA101" s="11">
-        <v>231125698</v>
-      </c>
-      <c r="BB101" s="11">
         <v>10079000000</v>
+      </c>
+      <c r="BB101" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -13495,83 +13495,83 @@
       <c r="AB102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC102" s="13" t="s">
-        <v>58</v>
+      <c r="AC102" s="13">
+        <v>74558014</v>
       </c>
       <c r="AD102" s="13">
-        <v>74558014</v>
+        <v>70137221</v>
       </c>
       <c r="AE102" s="13">
-        <v>70137221</v>
+        <v>85388018</v>
       </c>
       <c r="AF102" s="13">
-        <v>85388018</v>
+        <v>102855960</v>
       </c>
       <c r="AG102" s="13">
-        <v>102855960</v>
+        <v>81111604</v>
       </c>
       <c r="AH102" s="13">
-        <v>81111604</v>
+        <v>84739632</v>
       </c>
       <c r="AI102" s="13">
-        <v>84739632</v>
+        <v>102039634</v>
       </c>
       <c r="AJ102" s="13">
-        <v>102039634</v>
+        <v>104784993</v>
       </c>
       <c r="AK102" s="13">
-        <v>104784993</v>
+        <v>86374486</v>
       </c>
       <c r="AL102" s="13">
-        <v>86374486</v>
+        <v>1385100000</v>
       </c>
       <c r="AM102" s="13">
-        <v>1385100000</v>
+        <v>123283069</v>
       </c>
       <c r="AN102" s="13">
-        <v>123283069</v>
+        <v>108258148</v>
       </c>
       <c r="AO102" s="13">
-        <v>108258148</v>
+        <v>102516569</v>
       </c>
       <c r="AP102" s="13">
-        <v>102516569</v>
+        <v>226932432</v>
       </c>
       <c r="AQ102" s="13">
-        <v>226932432</v>
+        <v>594219355</v>
       </c>
       <c r="AR102" s="13">
-        <v>594219355</v>
+        <v>560734291</v>
       </c>
       <c r="AS102" s="13">
-        <v>560734291</v>
+        <v>522118966</v>
       </c>
       <c r="AT102" s="13">
-        <v>522118966</v>
+        <v>526647982</v>
       </c>
       <c r="AU102" s="13">
-        <v>526647982</v>
+        <v>491133591</v>
       </c>
       <c r="AV102" s="13">
-        <v>491133591</v>
+        <v>459013667</v>
       </c>
       <c r="AW102" s="13">
-        <v>459013667</v>
+        <v>462073322</v>
       </c>
       <c r="AX102" s="13">
-        <v>462073322</v>
+        <v>464334508</v>
       </c>
       <c r="AY102" s="13">
-        <v>464334508</v>
+        <v>497332537</v>
       </c>
       <c r="AZ102" s="13">
-        <v>497332537</v>
+        <v>487196295</v>
       </c>
       <c r="BA102" s="13">
-        <v>487196295</v>
+        <v>496625000</v>
       </c>
       <c r="BB102" s="13">
-        <v>496625000</v>
+        <v>516129522</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -13678,26 +13678,26 @@
       <c r="AJ103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK103" s="11" t="s">
-        <v>58</v>
+      <c r="AK103" s="11">
+        <v>7606927</v>
       </c>
       <c r="AL103" s="11">
-        <v>7606927</v>
-      </c>
-      <c r="AM103" s="11">
         <v>7746237</v>
       </c>
+      <c r="AM103" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN103" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ103" s="11">
+      <c r="AP103" s="11">
         <v>11333333</v>
+      </c>
+      <c r="AQ103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR103" s="11" t="s">
         <v>58</v>
@@ -13912,20 +13912,20 @@
       <c r="AP105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ105" s="11" t="s">
-        <v>58</v>
+      <c r="AQ105" s="11">
+        <v>250704501</v>
       </c>
       <c r="AR105" s="11">
-        <v>250704501</v>
-      </c>
-      <c r="AS105" s="11">
         <v>250630682</v>
       </c>
-      <c r="AT105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU105" s="11">
+      <c r="AS105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT105" s="11">
         <v>185545455</v>
+      </c>
+      <c r="AU105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV105" s="11" t="s">
         <v>58</v>
